--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9801028324405382</v>
+        <v>0.9801028324405398</v>
       </c>
       <c r="D2">
-        <v>1.000862992645409</v>
+        <v>1.00086299264541</v>
       </c>
       <c r="E2">
-        <v>0.9884193558028777</v>
+        <v>0.9884193558028792</v>
       </c>
       <c r="F2">
-        <v>0.9985135652252797</v>
+        <v>0.9985135652252813</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037115722092991</v>
+        <v>1.037115722092992</v>
       </c>
       <c r="J2">
-        <v>1.002895399650792</v>
+        <v>1.002895399650793</v>
       </c>
       <c r="K2">
-        <v>1.012310317688998</v>
+        <v>1.012310317688999</v>
       </c>
       <c r="L2">
-        <v>1.000042420406569</v>
+        <v>1.000042420406571</v>
       </c>
       <c r="M2">
-        <v>1.009993647363077</v>
+        <v>1.009993647363078</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9925954718535918</v>
+        <v>0.9925954718535926</v>
       </c>
       <c r="D3">
         <v>1.010626921346692</v>
       </c>
       <c r="E3">
-        <v>1.000334409252526</v>
+        <v>1.000334409252527</v>
       </c>
       <c r="F3">
-        <v>1.009752557841208</v>
+        <v>1.009752557841209</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041874817729985</v>
       </c>
       <c r="J3">
-        <v>1.013290047465202</v>
+        <v>1.013290047465203</v>
       </c>
       <c r="K3">
         <v>1.021125610712671</v>
       </c>
       <c r="L3">
-        <v>1.010963013037302</v>
+        <v>1.010963013037303</v>
       </c>
       <c r="M3">
-        <v>1.0202621553138</v>
+        <v>1.020262155313801</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000268334200498</v>
+        <v>1.000268334200499</v>
       </c>
       <c r="D4">
         <v>1.016621975876667</v>
@@ -515,16 +515,16 @@
         <v>1.04477673110731</v>
       </c>
       <c r="J4">
-        <v>1.019665178451612</v>
+        <v>1.019665178451613</v>
       </c>
       <c r="K4">
-        <v>1.02652384360546</v>
+        <v>1.026523843605461</v>
       </c>
       <c r="L4">
-        <v>1.017666002236309</v>
+        <v>1.01766600223631</v>
       </c>
       <c r="M4">
-        <v>1.026567715828009</v>
+        <v>1.02656771582801</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003404994218574</v>
+        <v>1.003404994218572</v>
       </c>
       <c r="D5">
-        <v>1.019072065153606</v>
+        <v>1.019072065153604</v>
       </c>
       <c r="E5">
-        <v>1.010654930862229</v>
+        <v>1.010654930862227</v>
       </c>
       <c r="F5">
-        <v>1.019495065432261</v>
+        <v>1.019495065432259</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045957878135498</v>
+        <v>1.045957878135497</v>
       </c>
       <c r="J5">
-        <v>1.022269024149336</v>
+        <v>1.022269024149334</v>
       </c>
       <c r="K5">
-        <v>1.02872666036054</v>
+        <v>1.028726660360538</v>
       </c>
       <c r="L5">
-        <v>1.020405020297563</v>
+        <v>1.02040502029756</v>
       </c>
       <c r="M5">
-        <v>1.02914491285454</v>
+        <v>1.029144912854539</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003926677591928</v>
+        <v>1.003926677591926</v>
       </c>
       <c r="D6">
-        <v>1.019479512773878</v>
+        <v>1.019479512773877</v>
       </c>
       <c r="E6">
-        <v>1.011153264915626</v>
+        <v>1.011153264915624</v>
       </c>
       <c r="F6">
-        <v>1.019965660785113</v>
+        <v>1.019965660785111</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046154018344202</v>
+        <v>1.046154018344201</v>
       </c>
       <c r="J6">
-        <v>1.022701952533695</v>
+        <v>1.022701952533693</v>
       </c>
       <c r="K6">
-        <v>1.029092791168201</v>
+        <v>1.0290927911682</v>
       </c>
       <c r="L6">
-        <v>1.020860497280517</v>
+        <v>1.020860497280515</v>
       </c>
       <c r="M6">
-        <v>1.029573511783466</v>
+        <v>1.029573511783465</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>1.016654981525275</v>
       </c>
       <c r="E7">
-        <v>1.007699493341278</v>
+        <v>1.007699493341277</v>
       </c>
       <c r="F7">
-        <v>1.016704455908811</v>
+        <v>1.01670445590881</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>1.019700261463627</v>
       </c>
       <c r="K7">
-        <v>1.026553531451965</v>
+        <v>1.026553531451964</v>
       </c>
       <c r="L7">
-        <v>1.017702901485716</v>
+        <v>1.017702901485715</v>
       </c>
       <c r="M7">
         <v>1.026602432889719</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9844159199933191</v>
+        <v>0.9844159199933181</v>
       </c>
       <c r="D8">
-        <v>1.004234229549703</v>
+        <v>1.004234229549702</v>
       </c>
       <c r="E8">
-        <v>0.9925315113133825</v>
+        <v>0.9925315113133812</v>
       </c>
       <c r="F8">
         <v>1.002391305446505</v>
@@ -667,16 +667,16 @@
         <v>1.038763253762699</v>
       </c>
       <c r="J8">
-        <v>1.006486048070427</v>
+        <v>1.006486048070426</v>
       </c>
       <c r="K8">
-        <v>1.015357149363557</v>
+        <v>1.015357149363556</v>
       </c>
       <c r="L8">
-        <v>1.003813607514543</v>
+        <v>1.003813607514542</v>
       </c>
       <c r="M8">
-        <v>1.013538982121432</v>
+        <v>1.013538982121431</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9527430568663575</v>
+        <v>0.9527430568663569</v>
       </c>
       <c r="D9">
-        <v>0.9794822797614317</v>
+        <v>0.9794822797614312</v>
       </c>
       <c r="E9">
-        <v>0.9623723965392523</v>
+        <v>0.9623723965392517</v>
       </c>
       <c r="F9">
-        <v>0.9739798642774299</v>
+        <v>0.9739798642774296</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.02657414985537</v>
       </c>
       <c r="J9">
-        <v>0.9800825115430954</v>
+        <v>0.980082511543095</v>
       </c>
       <c r="K9">
-        <v>0.9929172518418439</v>
+        <v>0.9929172518418435</v>
       </c>
       <c r="L9">
-        <v>0.9761069560632933</v>
+        <v>0.9761069560632927</v>
       </c>
       <c r="M9">
-        <v>0.9875096954327055</v>
+        <v>0.9875096954327048</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.928210000028313</v>
+        <v>0.9282100000283134</v>
       </c>
       <c r="D10">
-        <v>0.9603361819483619</v>
+        <v>0.9603361819483626</v>
       </c>
       <c r="E10">
-        <v>0.9390750615000866</v>
+        <v>0.9390750615000871</v>
       </c>
       <c r="F10">
-        <v>0.9520814086829104</v>
+        <v>0.9520814086829108</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.017021115088276</v>
       </c>
       <c r="J10">
-        <v>0.9595928531651523</v>
+        <v>0.9595928531651526</v>
       </c>
       <c r="K10">
-        <v>0.9754605122750063</v>
+        <v>0.9754605122750067</v>
       </c>
       <c r="L10">
-        <v>0.9546389427936409</v>
+        <v>0.9546389427936415</v>
       </c>
       <c r="M10">
-        <v>0.9673733219394639</v>
+        <v>0.9673733219394641</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9164613571529759</v>
+        <v>0.9164613571529776</v>
       </c>
       <c r="D11">
-        <v>0.9511824277258746</v>
+        <v>0.9511824277258757</v>
       </c>
       <c r="E11">
-        <v>0.927938921845702</v>
+        <v>0.9279389218457035</v>
       </c>
       <c r="F11">
-        <v>0.9416305817922095</v>
+        <v>0.9416305817922113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012422934468529</v>
+        <v>1.01242293446853</v>
       </c>
       <c r="J11">
-        <v>0.9497755443854312</v>
+        <v>0.9497755443854329</v>
       </c>
       <c r="K11">
-        <v>0.967087680196502</v>
+        <v>0.967087680196503</v>
       </c>
       <c r="L11">
-        <v>0.9443609985627971</v>
+        <v>0.9443609985627986</v>
       </c>
       <c r="M11">
-        <v>0.9577441134133922</v>
+        <v>0.9577441134133936</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9118895342955434</v>
+        <v>0.9118895342955419</v>
       </c>
       <c r="D12">
-        <v>0.9476237009856034</v>
+        <v>0.9476237009856022</v>
       </c>
       <c r="E12">
-        <v>0.9236092252853634</v>
+        <v>0.9236092252853613</v>
       </c>
       <c r="F12">
-        <v>0.9375704228623205</v>
+        <v>0.9375704228623187</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.010630525564436</v>
       </c>
       <c r="J12">
-        <v>0.9459550269943177</v>
+        <v>0.945955026994316</v>
       </c>
       <c r="K12">
-        <v>0.9638281842595227</v>
+        <v>0.9638281842595211</v>
       </c>
       <c r="L12">
-        <v>0.94036246691923</v>
+        <v>0.9403624669192282</v>
       </c>
       <c r="M12">
-        <v>0.9540000702621715</v>
+        <v>0.9540000702621697</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9128803871747377</v>
+        <v>0.9128803871747351</v>
       </c>
       <c r="D13">
-        <v>0.9483948149428797</v>
+        <v>0.9483948149428775</v>
       </c>
       <c r="E13">
-        <v>0.9245474193877344</v>
+        <v>0.9245474193877318</v>
       </c>
       <c r="F13">
-        <v>0.9384500610877822</v>
+        <v>0.9384500610877797</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011019125649282</v>
+        <v>1.01101912564928</v>
       </c>
       <c r="J13">
-        <v>0.9467830502196697</v>
+        <v>0.946783050219667</v>
       </c>
       <c r="K13">
-        <v>0.9645346630892345</v>
+        <v>0.9645346630892325</v>
       </c>
       <c r="L13">
-        <v>0.9412290148112091</v>
+        <v>0.9412290148112065</v>
       </c>
       <c r="M13">
-        <v>0.954811363606492</v>
+        <v>0.9548113636064899</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9160879628667813</v>
+        <v>0.9160879628667775</v>
       </c>
       <c r="D14">
-        <v>0.950891701872284</v>
+        <v>0.9508917018722809</v>
       </c>
       <c r="E14">
-        <v>0.9275852223091433</v>
+        <v>0.9275852223091396</v>
       </c>
       <c r="F14">
-        <v>0.9412988351088174</v>
+        <v>0.9412988351088145</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012276602324845</v>
+        <v>1.012276602324843</v>
       </c>
       <c r="J14">
-        <v>0.9494635128786865</v>
+        <v>0.9494635128786828</v>
       </c>
       <c r="K14">
-        <v>0.9668214897623824</v>
+        <v>0.9668214897623791</v>
       </c>
       <c r="L14">
-        <v>0.944034402965254</v>
+        <v>0.9440344029652503</v>
       </c>
       <c r="M14">
-        <v>0.9574382590242866</v>
+        <v>0.9574382590242833</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9180353209724513</v>
+        <v>0.918035320972453</v>
       </c>
       <c r="D15">
-        <v>0.9524080612784535</v>
+        <v>0.9524080612784547</v>
       </c>
       <c r="E15">
-        <v>0.9294300228593174</v>
+        <v>0.9294300228593187</v>
       </c>
       <c r="F15">
-        <v>0.9430292636258218</v>
+        <v>0.9430292636258233</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.013039645049109</v>
       </c>
       <c r="J15">
-        <v>0.9510908400395685</v>
+        <v>0.9510908400395698</v>
       </c>
       <c r="K15">
-        <v>0.9682097001714536</v>
+        <v>0.9682097001714549</v>
       </c>
       <c r="L15">
-        <v>0.9457377359776549</v>
+        <v>0.945737735977656</v>
       </c>
       <c r="M15">
-        <v>0.9590335052616212</v>
+        <v>0.9590335052616226</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9289629899987648</v>
+        <v>0.9289629899987636</v>
       </c>
       <c r="D16">
-        <v>0.9609232461338114</v>
+        <v>0.9609232461338103</v>
       </c>
       <c r="E16">
-        <v>0.9397892635160513</v>
+        <v>0.9397892635160504</v>
       </c>
       <c r="F16">
-        <v>0.952752039686765</v>
+        <v>0.9527520396867643</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.017315380488371</v>
       </c>
       <c r="J16">
-        <v>0.9602219974781142</v>
+        <v>0.9602219974781133</v>
       </c>
       <c r="K16">
-        <v>0.9759969259577189</v>
+        <v>0.9759969259577179</v>
       </c>
       <c r="L16">
-        <v>0.9552977730774611</v>
+        <v>0.9552977730774601</v>
       </c>
       <c r="M16">
-        <v>0.96799082528777</v>
+        <v>0.9679908252877691</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9354927754646829</v>
+        <v>0.9354927754646839</v>
       </c>
       <c r="D17">
-        <v>0.9660158969808307</v>
+        <v>0.9660158969808315</v>
       </c>
       <c r="E17">
-        <v>0.9459850086422531</v>
+        <v>0.9459850086422543</v>
       </c>
       <c r="F17">
-        <v>0.9585716747016562</v>
+        <v>0.9585716747016566</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.019864679373322</v>
       </c>
       <c r="J17">
-        <v>0.9656773108094524</v>
+        <v>0.9656773108094534</v>
       </c>
       <c r="K17">
-        <v>0.9806472368396343</v>
+        <v>0.9806472368396351</v>
       </c>
       <c r="L17">
-        <v>0.9610113843023697</v>
+        <v>0.961011384302371</v>
       </c>
       <c r="M17">
-        <v>0.9733472950974777</v>
+        <v>0.9733472950974785</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9391960493216678</v>
+        <v>0.9391960493216693</v>
       </c>
       <c r="D18">
-        <v>0.9689054139729982</v>
+        <v>0.9689054139729996</v>
       </c>
       <c r="E18">
-        <v>0.9495006667160786</v>
+        <v>0.9495006667160799</v>
       </c>
       <c r="F18">
-        <v>0.9618753839179718</v>
+        <v>0.961875383917973</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.021308331958058</v>
       </c>
       <c r="J18">
-        <v>0.9687707211939603</v>
+        <v>0.9687707211939616</v>
       </c>
       <c r="K18">
-        <v>0.9832833711513358</v>
+        <v>0.9832833711513371</v>
       </c>
       <c r="L18">
-        <v>0.9642519963487014</v>
+        <v>0.9642519963487028</v>
       </c>
       <c r="M18">
-        <v>0.9763863309886137</v>
+        <v>0.9763863309886148</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9404418594363028</v>
+        <v>0.9404418594363031</v>
       </c>
       <c r="D19">
-        <v>0.9698776640462226</v>
+        <v>0.9698776640462228</v>
       </c>
       <c r="E19">
-        <v>0.950683656009283</v>
+        <v>0.9506836560092838</v>
       </c>
       <c r="F19">
-        <v>0.9629872890597257</v>
+        <v>0.962987289059726</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.021793614066255</v>
       </c>
       <c r="J19">
-        <v>0.9698112730764551</v>
+        <v>0.9698112730764555</v>
       </c>
       <c r="K19">
-        <v>0.98416996508066</v>
+        <v>0.9841699650806599</v>
       </c>
       <c r="L19">
-        <v>0.9653421874976622</v>
+        <v>0.965342187497663</v>
       </c>
       <c r="M19">
-        <v>0.9774088658802595</v>
+        <v>0.9774088658802597</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9348033360675145</v>
+        <v>0.9348033360675198</v>
       </c>
       <c r="D20">
-        <v>0.9654780541992539</v>
+        <v>0.9654780541992583</v>
       </c>
       <c r="E20">
-        <v>0.9453306431845837</v>
+        <v>0.945330643184589</v>
       </c>
       <c r="F20">
-        <v>0.9579568753178714</v>
+        <v>0.9579568753178761</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01959573664086</v>
+        <v>1.019595736640862</v>
       </c>
       <c r="J20">
-        <v>0.9651013667145488</v>
+        <v>0.9651013667145537</v>
       </c>
       <c r="K20">
-        <v>0.9801563636185342</v>
+        <v>0.9801563636185385</v>
       </c>
       <c r="L20">
-        <v>0.9604080934242247</v>
+        <v>0.9604080934242298</v>
       </c>
       <c r="M20">
-        <v>0.9727816087030126</v>
+        <v>0.9727816087030168</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,13 +1143,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.915149530376315</v>
+        <v>0.9151495303763152</v>
       </c>
       <c r="D21">
-        <v>0.9501610930044222</v>
+        <v>0.950161093004422</v>
       </c>
       <c r="E21">
-        <v>0.926696350542363</v>
+        <v>0.9266963505423629</v>
       </c>
       <c r="F21">
         <v>0.9404651840522393</v>
@@ -1158,19 +1158,19 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011908785677187</v>
+        <v>1.011908785677186</v>
       </c>
       <c r="J21">
         <v>0.9486792983688093</v>
       </c>
       <c r="K21">
-        <v>0.9661524685371679</v>
+        <v>0.966152468537168</v>
       </c>
       <c r="L21">
-        <v>0.9432136051918369</v>
+        <v>0.9432136051918372</v>
       </c>
       <c r="M21">
-        <v>0.9566696231539314</v>
+        <v>0.9566696231539311</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1187,7 +1187,7 @@
         <v>0.9395900734448355</v>
       </c>
       <c r="E22">
-        <v>0.9138337611580147</v>
+        <v>0.9138337611580146</v>
       </c>
       <c r="F22">
         <v>0.9284101373159853</v>
@@ -1202,13 +1202,13 @@
         <v>0.9373223778128879</v>
       </c>
       <c r="K22">
-        <v>0.9564613965761432</v>
+        <v>0.9564613965761434</v>
       </c>
       <c r="L22">
-        <v>0.9313299506901519</v>
+        <v>0.9313299506901518</v>
       </c>
       <c r="M22">
-        <v>0.9455469725490088</v>
+        <v>0.9455469725490087</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9088974596149797</v>
+        <v>0.9088974596149758</v>
       </c>
       <c r="D23">
-        <v>0.9452957621872919</v>
+        <v>0.9452957621872888</v>
       </c>
       <c r="E23">
-        <v>0.9207767826662924</v>
+        <v>0.9207767826662885</v>
       </c>
       <c r="F23">
-        <v>0.9349152727350041</v>
+        <v>0.9349152727350005</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009456658687309</v>
+        <v>1.009456658687307</v>
       </c>
       <c r="J23">
-        <v>0.9434546621372168</v>
+        <v>0.9434546621372132</v>
       </c>
       <c r="K23">
-        <v>0.9616947004128542</v>
+        <v>0.961694700412851</v>
       </c>
       <c r="L23">
-        <v>0.937745955112299</v>
+        <v>0.9377459551122952</v>
       </c>
       <c r="M23">
-        <v>0.9515507469246143</v>
+        <v>0.9515507469246108</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.935115187131999</v>
+        <v>0.9351151871319971</v>
       </c>
       <c r="D24">
-        <v>0.9657213302671476</v>
+        <v>0.9657213302671457</v>
       </c>
       <c r="E24">
-        <v>0.9456266237320249</v>
+        <v>0.9456266237320229</v>
       </c>
       <c r="F24">
-        <v>0.9582349549141939</v>
+        <v>0.9582349549141917</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019717393050307</v>
+        <v>1.019717393050306</v>
       </c>
       <c r="J24">
-        <v>0.9653618825249234</v>
+        <v>0.9653618825249215</v>
       </c>
       <c r="K24">
-        <v>0.9803784019898601</v>
+        <v>0.9803784019898586</v>
       </c>
       <c r="L24">
-        <v>0.9606809766620392</v>
+        <v>0.9606809766620373</v>
       </c>
       <c r="M24">
-        <v>0.9730374794604699</v>
+        <v>0.9730374794604678</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9614492632065151</v>
+        <v>0.9614492632065154</v>
       </c>
       <c r="D25">
-        <v>0.9862839875353464</v>
+        <v>0.986283987535347</v>
       </c>
       <c r="E25">
         <v>0.9706535770892114</v>
       </c>
       <c r="F25">
-        <v>0.9817744139280282</v>
+        <v>0.9817744139280284</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.029943730321683</v>
       </c>
       <c r="J25">
-        <v>0.9873475030382128</v>
+        <v>0.9873475030382131</v>
       </c>
       <c r="K25">
-        <v>0.9990990252565413</v>
+        <v>0.9990990252565419</v>
       </c>
       <c r="L25">
-        <v>0.9837252084334938</v>
+        <v>0.9837252084334941</v>
       </c>
       <c r="M25">
-        <v>0.9946624049110525</v>
+        <v>0.9946624049110526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9801028324405398</v>
+        <v>0.9801028324405382</v>
       </c>
       <c r="D2">
-        <v>1.00086299264541</v>
+        <v>1.000862992645409</v>
       </c>
       <c r="E2">
-        <v>0.9884193558028792</v>
+        <v>0.9884193558028777</v>
       </c>
       <c r="F2">
-        <v>0.9985135652252813</v>
+        <v>0.9985135652252797</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037115722092992</v>
+        <v>1.037115722092991</v>
       </c>
       <c r="J2">
-        <v>1.002895399650793</v>
+        <v>1.002895399650792</v>
       </c>
       <c r="K2">
-        <v>1.012310317688999</v>
+        <v>1.012310317688998</v>
       </c>
       <c r="L2">
-        <v>1.000042420406571</v>
+        <v>1.000042420406569</v>
       </c>
       <c r="M2">
-        <v>1.009993647363078</v>
+        <v>1.009993647363077</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9925954718535926</v>
+        <v>0.9925954718535918</v>
       </c>
       <c r="D3">
         <v>1.010626921346692</v>
       </c>
       <c r="E3">
-        <v>1.000334409252527</v>
+        <v>1.000334409252526</v>
       </c>
       <c r="F3">
-        <v>1.009752557841209</v>
+        <v>1.009752557841208</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041874817729985</v>
       </c>
       <c r="J3">
-        <v>1.013290047465203</v>
+        <v>1.013290047465202</v>
       </c>
       <c r="K3">
         <v>1.021125610712671</v>
       </c>
       <c r="L3">
-        <v>1.010963013037303</v>
+        <v>1.010963013037302</v>
       </c>
       <c r="M3">
-        <v>1.020262155313801</v>
+        <v>1.0202621553138</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000268334200499</v>
+        <v>1.000268334200498</v>
       </c>
       <c r="D4">
         <v>1.016621975876667</v>
@@ -515,16 +515,16 @@
         <v>1.04477673110731</v>
       </c>
       <c r="J4">
-        <v>1.019665178451613</v>
+        <v>1.019665178451612</v>
       </c>
       <c r="K4">
-        <v>1.026523843605461</v>
+        <v>1.02652384360546</v>
       </c>
       <c r="L4">
-        <v>1.01766600223631</v>
+        <v>1.017666002236309</v>
       </c>
       <c r="M4">
-        <v>1.02656771582801</v>
+        <v>1.026567715828009</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003404994218572</v>
+        <v>1.003404994218574</v>
       </c>
       <c r="D5">
-        <v>1.019072065153604</v>
+        <v>1.019072065153606</v>
       </c>
       <c r="E5">
-        <v>1.010654930862227</v>
+        <v>1.010654930862229</v>
       </c>
       <c r="F5">
-        <v>1.019495065432259</v>
+        <v>1.019495065432261</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045957878135497</v>
+        <v>1.045957878135498</v>
       </c>
       <c r="J5">
-        <v>1.022269024149334</v>
+        <v>1.022269024149336</v>
       </c>
       <c r="K5">
-        <v>1.028726660360538</v>
+        <v>1.02872666036054</v>
       </c>
       <c r="L5">
-        <v>1.02040502029756</v>
+        <v>1.020405020297563</v>
       </c>
       <c r="M5">
-        <v>1.029144912854539</v>
+        <v>1.02914491285454</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003926677591926</v>
+        <v>1.003926677591928</v>
       </c>
       <c r="D6">
-        <v>1.019479512773877</v>
+        <v>1.019479512773878</v>
       </c>
       <c r="E6">
-        <v>1.011153264915624</v>
+        <v>1.011153264915626</v>
       </c>
       <c r="F6">
-        <v>1.019965660785111</v>
+        <v>1.019965660785113</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046154018344201</v>
+        <v>1.046154018344202</v>
       </c>
       <c r="J6">
-        <v>1.022701952533693</v>
+        <v>1.022701952533695</v>
       </c>
       <c r="K6">
-        <v>1.0290927911682</v>
+        <v>1.029092791168201</v>
       </c>
       <c r="L6">
-        <v>1.020860497280515</v>
+        <v>1.020860497280517</v>
       </c>
       <c r="M6">
-        <v>1.029573511783465</v>
+        <v>1.029573511783466</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>1.016654981525275</v>
       </c>
       <c r="E7">
-        <v>1.007699493341277</v>
+        <v>1.007699493341278</v>
       </c>
       <c r="F7">
-        <v>1.01670445590881</v>
+        <v>1.016704455908811</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>1.019700261463627</v>
       </c>
       <c r="K7">
-        <v>1.026553531451964</v>
+        <v>1.026553531451965</v>
       </c>
       <c r="L7">
-        <v>1.017702901485715</v>
+        <v>1.017702901485716</v>
       </c>
       <c r="M7">
         <v>1.026602432889719</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9844159199933181</v>
+        <v>0.9844159199933191</v>
       </c>
       <c r="D8">
-        <v>1.004234229549702</v>
+        <v>1.004234229549703</v>
       </c>
       <c r="E8">
-        <v>0.9925315113133812</v>
+        <v>0.9925315113133825</v>
       </c>
       <c r="F8">
         <v>1.002391305446505</v>
@@ -667,16 +667,16 @@
         <v>1.038763253762699</v>
       </c>
       <c r="J8">
-        <v>1.006486048070426</v>
+        <v>1.006486048070427</v>
       </c>
       <c r="K8">
-        <v>1.015357149363556</v>
+        <v>1.015357149363557</v>
       </c>
       <c r="L8">
-        <v>1.003813607514542</v>
+        <v>1.003813607514543</v>
       </c>
       <c r="M8">
-        <v>1.013538982121431</v>
+        <v>1.013538982121432</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9527430568663569</v>
+        <v>0.9527430568663575</v>
       </c>
       <c r="D9">
-        <v>0.9794822797614312</v>
+        <v>0.9794822797614317</v>
       </c>
       <c r="E9">
-        <v>0.9623723965392517</v>
+        <v>0.9623723965392523</v>
       </c>
       <c r="F9">
-        <v>0.9739798642774296</v>
+        <v>0.9739798642774299</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.02657414985537</v>
       </c>
       <c r="J9">
-        <v>0.980082511543095</v>
+        <v>0.9800825115430954</v>
       </c>
       <c r="K9">
-        <v>0.9929172518418435</v>
+        <v>0.9929172518418439</v>
       </c>
       <c r="L9">
-        <v>0.9761069560632927</v>
+        <v>0.9761069560632933</v>
       </c>
       <c r="M9">
-        <v>0.9875096954327048</v>
+        <v>0.9875096954327055</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9282100000283134</v>
+        <v>0.928210000028313</v>
       </c>
       <c r="D10">
-        <v>0.9603361819483626</v>
+        <v>0.9603361819483619</v>
       </c>
       <c r="E10">
-        <v>0.9390750615000871</v>
+        <v>0.9390750615000866</v>
       </c>
       <c r="F10">
-        <v>0.9520814086829108</v>
+        <v>0.9520814086829104</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.017021115088276</v>
       </c>
       <c r="J10">
-        <v>0.9595928531651526</v>
+        <v>0.9595928531651523</v>
       </c>
       <c r="K10">
-        <v>0.9754605122750067</v>
+        <v>0.9754605122750063</v>
       </c>
       <c r="L10">
-        <v>0.9546389427936415</v>
+        <v>0.9546389427936409</v>
       </c>
       <c r="M10">
-        <v>0.9673733219394641</v>
+        <v>0.9673733219394639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9164613571529776</v>
+        <v>0.9164613571529759</v>
       </c>
       <c r="D11">
-        <v>0.9511824277258757</v>
+        <v>0.9511824277258746</v>
       </c>
       <c r="E11">
-        <v>0.9279389218457035</v>
+        <v>0.927938921845702</v>
       </c>
       <c r="F11">
-        <v>0.9416305817922113</v>
+        <v>0.9416305817922095</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01242293446853</v>
+        <v>1.012422934468529</v>
       </c>
       <c r="J11">
-        <v>0.9497755443854329</v>
+        <v>0.9497755443854312</v>
       </c>
       <c r="K11">
-        <v>0.967087680196503</v>
+        <v>0.967087680196502</v>
       </c>
       <c r="L11">
-        <v>0.9443609985627986</v>
+        <v>0.9443609985627971</v>
       </c>
       <c r="M11">
-        <v>0.9577441134133936</v>
+        <v>0.9577441134133922</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9118895342955419</v>
+        <v>0.9118895342955434</v>
       </c>
       <c r="D12">
-        <v>0.9476237009856022</v>
+        <v>0.9476237009856034</v>
       </c>
       <c r="E12">
-        <v>0.9236092252853613</v>
+        <v>0.9236092252853634</v>
       </c>
       <c r="F12">
-        <v>0.9375704228623187</v>
+        <v>0.9375704228623205</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.010630525564436</v>
       </c>
       <c r="J12">
-        <v>0.945955026994316</v>
+        <v>0.9459550269943177</v>
       </c>
       <c r="K12">
-        <v>0.9638281842595211</v>
+        <v>0.9638281842595227</v>
       </c>
       <c r="L12">
-        <v>0.9403624669192282</v>
+        <v>0.94036246691923</v>
       </c>
       <c r="M12">
-        <v>0.9540000702621697</v>
+        <v>0.9540000702621715</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9128803871747351</v>
+        <v>0.9128803871747377</v>
       </c>
       <c r="D13">
-        <v>0.9483948149428775</v>
+        <v>0.9483948149428797</v>
       </c>
       <c r="E13">
-        <v>0.9245474193877318</v>
+        <v>0.9245474193877344</v>
       </c>
       <c r="F13">
-        <v>0.9384500610877797</v>
+        <v>0.9384500610877822</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01101912564928</v>
+        <v>1.011019125649282</v>
       </c>
       <c r="J13">
-        <v>0.946783050219667</v>
+        <v>0.9467830502196697</v>
       </c>
       <c r="K13">
-        <v>0.9645346630892325</v>
+        <v>0.9645346630892345</v>
       </c>
       <c r="L13">
-        <v>0.9412290148112065</v>
+        <v>0.9412290148112091</v>
       </c>
       <c r="M13">
-        <v>0.9548113636064899</v>
+        <v>0.954811363606492</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9160879628667775</v>
+        <v>0.9160879628667813</v>
       </c>
       <c r="D14">
-        <v>0.9508917018722809</v>
+        <v>0.950891701872284</v>
       </c>
       <c r="E14">
-        <v>0.9275852223091396</v>
+        <v>0.9275852223091433</v>
       </c>
       <c r="F14">
-        <v>0.9412988351088145</v>
+        <v>0.9412988351088174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012276602324843</v>
+        <v>1.012276602324845</v>
       </c>
       <c r="J14">
-        <v>0.9494635128786828</v>
+        <v>0.9494635128786865</v>
       </c>
       <c r="K14">
-        <v>0.9668214897623791</v>
+        <v>0.9668214897623824</v>
       </c>
       <c r="L14">
-        <v>0.9440344029652503</v>
+        <v>0.944034402965254</v>
       </c>
       <c r="M14">
-        <v>0.9574382590242833</v>
+        <v>0.9574382590242866</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.918035320972453</v>
+        <v>0.9180353209724513</v>
       </c>
       <c r="D15">
-        <v>0.9524080612784547</v>
+        <v>0.9524080612784535</v>
       </c>
       <c r="E15">
-        <v>0.9294300228593187</v>
+        <v>0.9294300228593174</v>
       </c>
       <c r="F15">
-        <v>0.9430292636258233</v>
+        <v>0.9430292636258218</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.013039645049109</v>
       </c>
       <c r="J15">
-        <v>0.9510908400395698</v>
+        <v>0.9510908400395685</v>
       </c>
       <c r="K15">
-        <v>0.9682097001714549</v>
+        <v>0.9682097001714536</v>
       </c>
       <c r="L15">
-        <v>0.945737735977656</v>
+        <v>0.9457377359776549</v>
       </c>
       <c r="M15">
-        <v>0.9590335052616226</v>
+        <v>0.9590335052616212</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9289629899987636</v>
+        <v>0.9289629899987648</v>
       </c>
       <c r="D16">
-        <v>0.9609232461338103</v>
+        <v>0.9609232461338114</v>
       </c>
       <c r="E16">
-        <v>0.9397892635160504</v>
+        <v>0.9397892635160513</v>
       </c>
       <c r="F16">
-        <v>0.9527520396867643</v>
+        <v>0.952752039686765</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.017315380488371</v>
       </c>
       <c r="J16">
-        <v>0.9602219974781133</v>
+        <v>0.9602219974781142</v>
       </c>
       <c r="K16">
-        <v>0.9759969259577179</v>
+        <v>0.9759969259577189</v>
       </c>
       <c r="L16">
-        <v>0.9552977730774601</v>
+        <v>0.9552977730774611</v>
       </c>
       <c r="M16">
-        <v>0.9679908252877691</v>
+        <v>0.96799082528777</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9354927754646839</v>
+        <v>0.9354927754646829</v>
       </c>
       <c r="D17">
-        <v>0.9660158969808315</v>
+        <v>0.9660158969808307</v>
       </c>
       <c r="E17">
-        <v>0.9459850086422543</v>
+        <v>0.9459850086422531</v>
       </c>
       <c r="F17">
-        <v>0.9585716747016566</v>
+        <v>0.9585716747016562</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.019864679373322</v>
       </c>
       <c r="J17">
-        <v>0.9656773108094534</v>
+        <v>0.9656773108094524</v>
       </c>
       <c r="K17">
-        <v>0.9806472368396351</v>
+        <v>0.9806472368396343</v>
       </c>
       <c r="L17">
-        <v>0.961011384302371</v>
+        <v>0.9610113843023697</v>
       </c>
       <c r="M17">
-        <v>0.9733472950974785</v>
+        <v>0.9733472950974777</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9391960493216693</v>
+        <v>0.9391960493216678</v>
       </c>
       <c r="D18">
-        <v>0.9689054139729996</v>
+        <v>0.9689054139729982</v>
       </c>
       <c r="E18">
-        <v>0.9495006667160799</v>
+        <v>0.9495006667160786</v>
       </c>
       <c r="F18">
-        <v>0.961875383917973</v>
+        <v>0.9618753839179718</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.021308331958058</v>
       </c>
       <c r="J18">
-        <v>0.9687707211939616</v>
+        <v>0.9687707211939603</v>
       </c>
       <c r="K18">
-        <v>0.9832833711513371</v>
+        <v>0.9832833711513358</v>
       </c>
       <c r="L18">
-        <v>0.9642519963487028</v>
+        <v>0.9642519963487014</v>
       </c>
       <c r="M18">
-        <v>0.9763863309886148</v>
+        <v>0.9763863309886137</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9404418594363031</v>
+        <v>0.9404418594363028</v>
       </c>
       <c r="D19">
-        <v>0.9698776640462228</v>
+        <v>0.9698776640462226</v>
       </c>
       <c r="E19">
-        <v>0.9506836560092838</v>
+        <v>0.950683656009283</v>
       </c>
       <c r="F19">
-        <v>0.962987289059726</v>
+        <v>0.9629872890597257</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.021793614066255</v>
       </c>
       <c r="J19">
-        <v>0.9698112730764555</v>
+        <v>0.9698112730764551</v>
       </c>
       <c r="K19">
-        <v>0.9841699650806599</v>
+        <v>0.98416996508066</v>
       </c>
       <c r="L19">
-        <v>0.965342187497663</v>
+        <v>0.9653421874976622</v>
       </c>
       <c r="M19">
-        <v>0.9774088658802597</v>
+        <v>0.9774088658802595</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9348033360675198</v>
+        <v>0.9348033360675145</v>
       </c>
       <c r="D20">
-        <v>0.9654780541992583</v>
+        <v>0.9654780541992539</v>
       </c>
       <c r="E20">
-        <v>0.945330643184589</v>
+        <v>0.9453306431845837</v>
       </c>
       <c r="F20">
-        <v>0.9579568753178761</v>
+        <v>0.9579568753178714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019595736640862</v>
+        <v>1.01959573664086</v>
       </c>
       <c r="J20">
-        <v>0.9651013667145537</v>
+        <v>0.9651013667145488</v>
       </c>
       <c r="K20">
-        <v>0.9801563636185385</v>
+        <v>0.9801563636185342</v>
       </c>
       <c r="L20">
-        <v>0.9604080934242298</v>
+        <v>0.9604080934242247</v>
       </c>
       <c r="M20">
-        <v>0.9727816087030168</v>
+        <v>0.9727816087030126</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,13 +1143,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9151495303763152</v>
+        <v>0.915149530376315</v>
       </c>
       <c r="D21">
-        <v>0.950161093004422</v>
+        <v>0.9501610930044222</v>
       </c>
       <c r="E21">
-        <v>0.9266963505423629</v>
+        <v>0.926696350542363</v>
       </c>
       <c r="F21">
         <v>0.9404651840522393</v>
@@ -1158,19 +1158,19 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011908785677186</v>
+        <v>1.011908785677187</v>
       </c>
       <c r="J21">
         <v>0.9486792983688093</v>
       </c>
       <c r="K21">
-        <v>0.966152468537168</v>
+        <v>0.9661524685371679</v>
       </c>
       <c r="L21">
-        <v>0.9432136051918372</v>
+        <v>0.9432136051918369</v>
       </c>
       <c r="M21">
-        <v>0.9566696231539311</v>
+        <v>0.9566696231539314</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1187,7 +1187,7 @@
         <v>0.9395900734448355</v>
       </c>
       <c r="E22">
-        <v>0.9138337611580146</v>
+        <v>0.9138337611580147</v>
       </c>
       <c r="F22">
         <v>0.9284101373159853</v>
@@ -1202,13 +1202,13 @@
         <v>0.9373223778128879</v>
       </c>
       <c r="K22">
-        <v>0.9564613965761434</v>
+        <v>0.9564613965761432</v>
       </c>
       <c r="L22">
-        <v>0.9313299506901518</v>
+        <v>0.9313299506901519</v>
       </c>
       <c r="M22">
-        <v>0.9455469725490087</v>
+        <v>0.9455469725490088</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9088974596149758</v>
+        <v>0.9088974596149797</v>
       </c>
       <c r="D23">
-        <v>0.9452957621872888</v>
+        <v>0.9452957621872919</v>
       </c>
       <c r="E23">
-        <v>0.9207767826662885</v>
+        <v>0.9207767826662924</v>
       </c>
       <c r="F23">
-        <v>0.9349152727350005</v>
+        <v>0.9349152727350041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009456658687307</v>
+        <v>1.009456658687309</v>
       </c>
       <c r="J23">
-        <v>0.9434546621372132</v>
+        <v>0.9434546621372168</v>
       </c>
       <c r="K23">
-        <v>0.961694700412851</v>
+        <v>0.9616947004128542</v>
       </c>
       <c r="L23">
-        <v>0.9377459551122952</v>
+        <v>0.937745955112299</v>
       </c>
       <c r="M23">
-        <v>0.9515507469246108</v>
+        <v>0.9515507469246143</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9351151871319971</v>
+        <v>0.935115187131999</v>
       </c>
       <c r="D24">
-        <v>0.9657213302671457</v>
+        <v>0.9657213302671476</v>
       </c>
       <c r="E24">
-        <v>0.9456266237320229</v>
+        <v>0.9456266237320249</v>
       </c>
       <c r="F24">
-        <v>0.9582349549141917</v>
+        <v>0.9582349549141939</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019717393050306</v>
+        <v>1.019717393050307</v>
       </c>
       <c r="J24">
-        <v>0.9653618825249215</v>
+        <v>0.9653618825249234</v>
       </c>
       <c r="K24">
-        <v>0.9803784019898586</v>
+        <v>0.9803784019898601</v>
       </c>
       <c r="L24">
-        <v>0.9606809766620373</v>
+        <v>0.9606809766620392</v>
       </c>
       <c r="M24">
-        <v>0.9730374794604678</v>
+        <v>0.9730374794604699</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9614492632065154</v>
+        <v>0.9614492632065151</v>
       </c>
       <c r="D25">
-        <v>0.986283987535347</v>
+        <v>0.9862839875353464</v>
       </c>
       <c r="E25">
         <v>0.9706535770892114</v>
       </c>
       <c r="F25">
-        <v>0.9817744139280284</v>
+        <v>0.9817744139280282</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.029943730321683</v>
       </c>
       <c r="J25">
-        <v>0.9873475030382131</v>
+        <v>0.9873475030382128</v>
       </c>
       <c r="K25">
-        <v>0.9990990252565419</v>
+        <v>0.9990990252565413</v>
       </c>
       <c r="L25">
-        <v>0.9837252084334941</v>
+        <v>0.9837252084334938</v>
       </c>
       <c r="M25">
-        <v>0.9946624049110526</v>
+        <v>0.9946624049110525</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9801028324405382</v>
+        <v>0.9834579333790223</v>
       </c>
       <c r="D2">
-        <v>1.000862992645409</v>
+        <v>1.003429593874501</v>
       </c>
       <c r="E2">
-        <v>0.9884193558028777</v>
+        <v>0.991749734399334</v>
       </c>
       <c r="F2">
-        <v>0.9985135652252797</v>
+        <v>1.001237689232774</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037115722092991</v>
+        <v>1.038492720426058</v>
       </c>
       <c r="J2">
-        <v>1.002895399650792</v>
+        <v>1.006144928636906</v>
       </c>
       <c r="K2">
-        <v>1.012310317688998</v>
+        <v>1.014841354899313</v>
       </c>
       <c r="L2">
-        <v>1.000042420406569</v>
+        <v>1.00332521788175</v>
       </c>
       <c r="M2">
-        <v>1.009993647363077</v>
+        <v>1.012679807968178</v>
+      </c>
+      <c r="N2">
+        <v>1.007573769842007</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9925954718535918</v>
+        <v>0.9959035568961158</v>
       </c>
       <c r="D3">
-        <v>1.010626921346692</v>
+        <v>1.01315979375761</v>
       </c>
       <c r="E3">
-        <v>1.000334409252526</v>
+        <v>1.003622996625293</v>
       </c>
       <c r="F3">
-        <v>1.009752557841208</v>
+        <v>1.012435845048016</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041874817729985</v>
+        <v>1.043235288188417</v>
       </c>
       <c r="J3">
-        <v>1.013290047465202</v>
+        <v>1.016506521461306</v>
       </c>
       <c r="K3">
-        <v>1.021125610712671</v>
+        <v>1.023627016643237</v>
       </c>
       <c r="L3">
-        <v>1.010963013037302</v>
+        <v>1.014209729476025</v>
       </c>
       <c r="M3">
-        <v>1.0202621553138</v>
+        <v>1.02291204170912</v>
+      </c>
+      <c r="N3">
+        <v>1.017950077316709</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000268334200498</v>
+        <v>1.003550508317045</v>
       </c>
       <c r="D4">
-        <v>1.016621975876667</v>
+        <v>1.019136357249505</v>
       </c>
       <c r="E4">
-        <v>1.007659145730915</v>
+        <v>1.010924786175308</v>
       </c>
       <c r="F4">
-        <v>1.016666362340057</v>
+        <v>1.019327040132828</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04477673110731</v>
+        <v>1.046128252375605</v>
       </c>
       <c r="J4">
-        <v>1.019665178451612</v>
+        <v>1.022863825729481</v>
       </c>
       <c r="K4">
-        <v>1.02652384360546</v>
+        <v>1.029009181724356</v>
       </c>
       <c r="L4">
-        <v>1.017666002236309</v>
+        <v>1.020893122808863</v>
       </c>
       <c r="M4">
-        <v>1.026567715828009</v>
+        <v>1.029197669275679</v>
+      </c>
+      <c r="N4">
+        <v>1.024316409686137</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003404994218574</v>
+        <v>1.006677192195344</v>
       </c>
       <c r="D5">
-        <v>1.019072065153606</v>
+        <v>1.021579351953392</v>
       </c>
       <c r="E5">
-        <v>1.010654930862229</v>
+        <v>1.013911756388083</v>
       </c>
       <c r="F5">
-        <v>1.019495065432261</v>
+        <v>1.022147015236527</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045957878135498</v>
+        <v>1.04730599336157</v>
       </c>
       <c r="J5">
-        <v>1.022269024149336</v>
+        <v>1.025460900189149</v>
       </c>
       <c r="K5">
-        <v>1.02872666036054</v>
+        <v>1.031205875862297</v>
       </c>
       <c r="L5">
-        <v>1.020405020297563</v>
+        <v>1.023624664524061</v>
       </c>
       <c r="M5">
-        <v>1.02914491285454</v>
+        <v>1.031767207178494</v>
+      </c>
+      <c r="N5">
+        <v>1.026917172289427</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003926677591928</v>
+        <v>1.007197250219617</v>
       </c>
       <c r="D6">
-        <v>1.019479512773878</v>
+        <v>1.021985645211734</v>
       </c>
       <c r="E6">
-        <v>1.011153264915626</v>
+        <v>1.014408655463643</v>
       </c>
       <c r="F6">
-        <v>1.019965660785113</v>
+        <v>1.022616187282724</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046154018344202</v>
+        <v>1.047501581029485</v>
       </c>
       <c r="J6">
-        <v>1.022701952533695</v>
+        <v>1.025892730824507</v>
       </c>
       <c r="K6">
-        <v>1.029092791168201</v>
+        <v>1.031571012958931</v>
       </c>
       <c r="L6">
-        <v>1.020860497280517</v>
+        <v>1.024078927467879</v>
       </c>
       <c r="M6">
-        <v>1.029573511783466</v>
+        <v>1.032194559209249</v>
+      </c>
+      <c r="N6">
+        <v>1.027349616173819</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000310584926847</v>
+        <v>1.003592622327933</v>
       </c>
       <c r="D7">
-        <v>1.016654981525275</v>
+        <v>1.019169265569483</v>
       </c>
       <c r="E7">
-        <v>1.007699493341278</v>
+        <v>1.010965012902638</v>
       </c>
       <c r="F7">
-        <v>1.016704455908811</v>
+        <v>1.019365014182243</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04479266172685</v>
+        <v>1.0461441361551</v>
       </c>
       <c r="J7">
-        <v>1.019700261463627</v>
+        <v>1.022898815572239</v>
       </c>
       <c r="K7">
-        <v>1.026553531451965</v>
+        <v>1.029038785404173</v>
       </c>
       <c r="L7">
-        <v>1.017702901485716</v>
+        <v>1.020929919323142</v>
       </c>
       <c r="M7">
-        <v>1.026602432889719</v>
+        <v>1.029232281310284</v>
+      </c>
+      <c r="N7">
+        <v>1.024351449218485</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9844159199933191</v>
+        <v>0.987754086501484</v>
       </c>
       <c r="D8">
-        <v>1.004234229549703</v>
+        <v>1.006788660736259</v>
       </c>
       <c r="E8">
-        <v>0.9925315113133825</v>
+        <v>0.9958468176138605</v>
       </c>
       <c r="F8">
-        <v>1.002391305446505</v>
+        <v>1.005100745989406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038763253762699</v>
+        <v>1.04013426306957</v>
       </c>
       <c r="J8">
-        <v>1.006486048070427</v>
+        <v>1.009723580156555</v>
       </c>
       <c r="K8">
-        <v>1.015357149363557</v>
+        <v>1.017877453859881</v>
       </c>
       <c r="L8">
-        <v>1.003813607514543</v>
+        <v>1.007083341853018</v>
       </c>
       <c r="M8">
-        <v>1.013538982121432</v>
+        <v>1.016212064897856</v>
+      </c>
+      <c r="N8">
+        <v>1.011157503457291</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9527430568663575</v>
+        <v>0.956224793523106</v>
       </c>
       <c r="D9">
-        <v>0.9794822797614317</v>
+        <v>0.9821403528168581</v>
       </c>
       <c r="E9">
-        <v>0.9623723965392523</v>
+        <v>0.9658159811851509</v>
       </c>
       <c r="F9">
-        <v>0.9739798642774299</v>
+        <v>0.9768130785663873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02657414985537</v>
+        <v>1.027996768274201</v>
       </c>
       <c r="J9">
-        <v>0.9800825115430954</v>
+        <v>0.9834240542469211</v>
       </c>
       <c r="K9">
-        <v>0.9929172518418439</v>
+        <v>0.9955299925382818</v>
       </c>
       <c r="L9">
-        <v>0.9761069560632933</v>
+        <v>0.9794891378500101</v>
       </c>
       <c r="M9">
-        <v>0.9875096954327055</v>
+        <v>0.9902938938350059</v>
+      </c>
+      <c r="N9">
+        <v>0.9848206292042676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.928210000028313</v>
+        <v>0.931838823700902</v>
       </c>
       <c r="D10">
-        <v>0.9603361819483619</v>
+        <v>0.963100991813715</v>
       </c>
       <c r="E10">
-        <v>0.9390750615000866</v>
+        <v>0.9426508181196976</v>
       </c>
       <c r="F10">
-        <v>0.9520814086829104</v>
+        <v>0.9550401749162826</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017021115088276</v>
+        <v>1.018497749314381</v>
       </c>
       <c r="J10">
-        <v>0.9595928531651523</v>
+        <v>0.9630445062843651</v>
       </c>
       <c r="K10">
-        <v>0.9754605122750063</v>
+        <v>0.978170037113518</v>
       </c>
       <c r="L10">
-        <v>0.9546389427936409</v>
+        <v>0.9581389389935098</v>
       </c>
       <c r="M10">
-        <v>0.9673733219394639</v>
+        <v>0.9702715822135309</v>
+      </c>
+      <c r="N10">
+        <v>0.9644121399460376</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9164613571529759</v>
+        <v>0.9201744848118991</v>
       </c>
       <c r="D11">
-        <v>0.9511824277258746</v>
+        <v>0.9540085025915684</v>
       </c>
       <c r="E11">
-        <v>0.927938921845702</v>
+        <v>0.9315906313157432</v>
       </c>
       <c r="F11">
-        <v>0.9416305817922095</v>
+        <v>0.9446609017786485</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012422934468529</v>
+        <v>1.01393078672174</v>
       </c>
       <c r="J11">
-        <v>0.9497755443854312</v>
+        <v>0.9532912810909238</v>
       </c>
       <c r="K11">
-        <v>0.967087680196502</v>
+        <v>0.9698531915101405</v>
       </c>
       <c r="L11">
-        <v>0.9443609985627971</v>
+        <v>0.9479292320645394</v>
       </c>
       <c r="M11">
-        <v>0.9577441134133922</v>
+        <v>0.9607077506157535</v>
+      </c>
+      <c r="N11">
+        <v>0.9546450640541111</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9118895342955434</v>
+        <v>0.9156382808603514</v>
       </c>
       <c r="D12">
-        <v>0.9476237009856034</v>
+        <v>0.9504756683756485</v>
       </c>
       <c r="E12">
-        <v>0.9236092252853634</v>
+        <v>0.9272930562538636</v>
       </c>
       <c r="F12">
-        <v>0.9375704228623205</v>
+        <v>0.9406309013979469</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010630525564436</v>
+        <v>1.012151604588684</v>
       </c>
       <c r="J12">
-        <v>0.9459550269943177</v>
+        <v>0.9494979980793696</v>
       </c>
       <c r="K12">
-        <v>0.9638281842595227</v>
+        <v>0.966617428341491</v>
       </c>
       <c r="L12">
-        <v>0.94036246691923</v>
+        <v>0.943959646471433</v>
       </c>
       <c r="M12">
-        <v>0.9540000702621715</v>
+        <v>0.9569913236047307</v>
+      </c>
+      <c r="N12">
+        <v>0.9508463941455851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9128803871747377</v>
+        <v>0.9166212721921085</v>
       </c>
       <c r="D13">
-        <v>0.9483948149428797</v>
+        <v>0.9512410672861049</v>
       </c>
       <c r="E13">
-        <v>0.9245474193877344</v>
+        <v>0.9282241593378916</v>
       </c>
       <c r="F13">
-        <v>0.9384500610877822</v>
+        <v>0.9415038867269726</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011019125649282</v>
+        <v>1.012537283750848</v>
       </c>
       <c r="J13">
-        <v>0.9467830502196697</v>
+        <v>0.9503200030647608</v>
       </c>
       <c r="K13">
-        <v>0.9645346630892345</v>
+        <v>0.9673186655659624</v>
       </c>
       <c r="L13">
-        <v>0.9412290148112091</v>
+        <v>0.9448198003291119</v>
       </c>
       <c r="M13">
-        <v>0.954811363606492</v>
+        <v>0.957796522098462</v>
+      </c>
+      <c r="N13">
+        <v>0.9516695664723407</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9160879628667813</v>
+        <v>0.9198039377397269</v>
       </c>
       <c r="D14">
-        <v>0.950891701872284</v>
+        <v>0.9537198463550906</v>
       </c>
       <c r="E14">
-        <v>0.9275852223091433</v>
+        <v>0.9312394988141178</v>
       </c>
       <c r="F14">
-        <v>0.9412988351088174</v>
+        <v>0.9443315673446817</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012276602324845</v>
+        <v>1.013785511155825</v>
       </c>
       <c r="J14">
-        <v>0.9494635128786865</v>
+        <v>0.9529814233981286</v>
       </c>
       <c r="K14">
-        <v>0.9668214897623824</v>
+        <v>0.9695888966341907</v>
       </c>
       <c r="L14">
-        <v>0.944034402965254</v>
+        <v>0.9476049479753617</v>
       </c>
       <c r="M14">
-        <v>0.9574382590242866</v>
+        <v>0.9604041038938299</v>
+      </c>
+      <c r="N14">
+        <v>0.9543347663278511</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9180353209724513</v>
+        <v>0.9217365649356027</v>
       </c>
       <c r="D15">
-        <v>0.9524080612784535</v>
+        <v>0.9552254982443164</v>
       </c>
       <c r="E15">
-        <v>0.9294300228593174</v>
+        <v>0.9330710192540689</v>
       </c>
       <c r="F15">
-        <v>0.9430292636258218</v>
+        <v>0.9460495124486176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013039645049109</v>
+        <v>1.014543088783235</v>
       </c>
       <c r="J15">
-        <v>0.9510908400395685</v>
+        <v>0.9545975099204999</v>
       </c>
       <c r="K15">
-        <v>0.9682097001714536</v>
+        <v>0.9709673028463577</v>
       </c>
       <c r="L15">
-        <v>0.9457377359776549</v>
+        <v>0.9492963262413374</v>
       </c>
       <c r="M15">
-        <v>0.9590335052616212</v>
+        <v>0.9619879278352618</v>
+      </c>
+      <c r="N15">
+        <v>0.9559531478784518</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9289629899987648</v>
+        <v>0.9325867430928608</v>
       </c>
       <c r="D16">
-        <v>0.9609232461338114</v>
+        <v>0.9636843723905463</v>
       </c>
       <c r="E16">
-        <v>0.9397892635160513</v>
+        <v>0.9433604556378946</v>
       </c>
       <c r="F16">
-        <v>0.952752039686765</v>
+        <v>0.955706493764778</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017315380488371</v>
+        <v>1.018790141756871</v>
       </c>
       <c r="J16">
-        <v>0.9602219974781142</v>
+        <v>0.9636698152656284</v>
       </c>
       <c r="K16">
-        <v>0.9759969259577189</v>
+        <v>0.9787030930816195</v>
       </c>
       <c r="L16">
-        <v>0.9552977730774611</v>
+        <v>0.9587936789449545</v>
       </c>
       <c r="M16">
-        <v>0.96799082528777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9708851529709251</v>
+      </c>
+      <c r="N16">
+        <v>0.9650383369377786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9354927754646829</v>
+        <v>0.9390741236535827</v>
       </c>
       <c r="D17">
-        <v>0.9660158969808307</v>
+        <v>0.9687462257353888</v>
       </c>
       <c r="E17">
-        <v>0.9459850086422531</v>
+        <v>0.9495180478722274</v>
       </c>
       <c r="F17">
-        <v>0.9585716747016562</v>
+        <v>0.9614900252394247</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019864679373322</v>
+        <v>1.02132380262565</v>
       </c>
       <c r="J17">
-        <v>0.9656773108094524</v>
+        <v>0.969093151322556</v>
       </c>
       <c r="K17">
-        <v>0.9806472368396343</v>
+        <v>0.9833253745639424</v>
       </c>
       <c r="L17">
-        <v>0.9610113843023697</v>
+        <v>0.9644731541040346</v>
       </c>
       <c r="M17">
-        <v>0.9733472950974777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.976208734441542</v>
+      </c>
+      <c r="N17">
+        <v>0.9704693747539722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9391960493216678</v>
+        <v>0.94275454843647</v>
       </c>
       <c r="D18">
-        <v>0.9689054139729982</v>
+        <v>0.9716191555622491</v>
       </c>
       <c r="E18">
-        <v>0.9495006667160786</v>
+        <v>0.9530131639393263</v>
       </c>
       <c r="F18">
-        <v>0.9618753839179718</v>
+        <v>0.9647742484789957</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021308331958058</v>
+        <v>1.022759050031177</v>
       </c>
       <c r="J18">
-        <v>0.9687707211939603</v>
+        <v>0.9721694095096385</v>
       </c>
       <c r="K18">
-        <v>0.9832833711513358</v>
+        <v>0.9859464473903999</v>
       </c>
       <c r="L18">
-        <v>0.9642519963487014</v>
+        <v>0.9676954297353693</v>
       </c>
       <c r="M18">
-        <v>0.9763863309886137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9792300495897625</v>
+      </c>
+      <c r="N18">
+        <v>0.9735500015805318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9404418594363028</v>
+        <v>0.9439928594872361</v>
       </c>
       <c r="D19">
-        <v>0.9698776640462226</v>
+        <v>0.9725859631164806</v>
       </c>
       <c r="E19">
-        <v>0.950683656009283</v>
+        <v>0.9541894140216372</v>
       </c>
       <c r="F19">
-        <v>0.9629872890597257</v>
+        <v>0.9658797531071421</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021793614066255</v>
+        <v>1.023241577178369</v>
       </c>
       <c r="J19">
-        <v>0.9698112730764551</v>
+        <v>0.9732043450305766</v>
       </c>
       <c r="K19">
-        <v>0.98416996508066</v>
+        <v>0.9868281051839364</v>
       </c>
       <c r="L19">
-        <v>0.9653421874976622</v>
+        <v>0.9687796123848706</v>
       </c>
       <c r="M19">
-        <v>0.9774088658802595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9802467687545363</v>
+      </c>
+      <c r="N19">
+        <v>0.9745864068286189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9348033360675145</v>
+        <v>0.9383890320169969</v>
       </c>
       <c r="D20">
-        <v>0.9654780541992539</v>
+        <v>0.968211539843704</v>
       </c>
       <c r="E20">
-        <v>0.9453306431845837</v>
+        <v>0.9488675925094056</v>
       </c>
       <c r="F20">
-        <v>0.9579568753178714</v>
+        <v>0.9608789310445059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01959573664086</v>
+        <v>1.02105646101907</v>
       </c>
       <c r="J20">
-        <v>0.9651013667145488</v>
+        <v>0.968520477449025</v>
       </c>
       <c r="K20">
-        <v>0.9801563636185342</v>
+        <v>0.9828373707463978</v>
       </c>
       <c r="L20">
-        <v>0.9604080934242247</v>
+        <v>0.9638733570463853</v>
       </c>
       <c r="M20">
-        <v>0.9727816087030126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9756464200564187</v>
+      </c>
+      <c r="N20">
+        <v>0.9698958876178541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.915149530376315</v>
+        <v>0.9188727089835699</v>
       </c>
       <c r="D21">
-        <v>0.9501610930044222</v>
+        <v>0.9529944739233022</v>
       </c>
       <c r="E21">
-        <v>0.926696350542363</v>
+        <v>0.9303571223890366</v>
       </c>
       <c r="F21">
-        <v>0.9404651840522393</v>
+        <v>0.9435040183269829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011908785677187</v>
+        <v>1.013420368325638</v>
       </c>
       <c r="J21">
-        <v>0.9486792983688093</v>
+        <v>0.9522027113792902</v>
       </c>
       <c r="K21">
-        <v>0.9661524685371679</v>
+        <v>0.9689246725836773</v>
       </c>
       <c r="L21">
-        <v>0.9432136051918369</v>
+        <v>0.9467900003822042</v>
       </c>
       <c r="M21">
-        <v>0.9566696231539314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9596410535233278</v>
+      </c>
+      <c r="N21">
+        <v>0.9535549484486264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9015589307795518</v>
+        <v>0.9053946065993095</v>
       </c>
       <c r="D22">
-        <v>0.9395900734448355</v>
+        <v>0.9425052392062105</v>
       </c>
       <c r="E22">
-        <v>0.9138337611580147</v>
+        <v>0.9175960475395375</v>
       </c>
       <c r="F22">
-        <v>0.9284101373159853</v>
+        <v>0.9315440582302662</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006575183988174</v>
+        <v>1.008128612788489</v>
       </c>
       <c r="J22">
-        <v>0.9373223778128879</v>
+        <v>0.9409321419595871</v>
       </c>
       <c r="K22">
-        <v>0.9564613965761432</v>
+        <v>0.9593087145850593</v>
       </c>
       <c r="L22">
-        <v>0.9313299506901519</v>
+        <v>0.9349980106937482</v>
       </c>
       <c r="M22">
-        <v>0.9455469725490088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9486056031377925</v>
+      </c>
+      <c r="N22">
+        <v>0.9422683735275947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9088974596149797</v>
+        <v>0.912670436576453</v>
       </c>
       <c r="D23">
-        <v>0.9452957621872919</v>
+        <v>0.9481653447562254</v>
       </c>
       <c r="E23">
-        <v>0.9207767826662924</v>
+        <v>0.9244824738084301</v>
       </c>
       <c r="F23">
-        <v>0.9349152727350041</v>
+        <v>0.937996244478271</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009456658687309</v>
+        <v>1.010986745680603</v>
       </c>
       <c r="J23">
-        <v>0.9434546621372168</v>
+        <v>0.9470162067984544</v>
       </c>
       <c r="K23">
-        <v>0.9616947004128542</v>
+        <v>0.9645001114410418</v>
       </c>
       <c r="L23">
-        <v>0.937745955112299</v>
+        <v>0.9413628597457319</v>
       </c>
       <c r="M23">
-        <v>0.9515507469246143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9545607839725603</v>
+      </c>
+      <c r="N23">
+        <v>0.9483610784363854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.935115187131999</v>
+        <v>0.938698912773225</v>
       </c>
       <c r="D24">
-        <v>0.9657213302671476</v>
+        <v>0.9684533852551866</v>
       </c>
       <c r="E24">
-        <v>0.9456266237320249</v>
+        <v>0.9491618010380984</v>
       </c>
       <c r="F24">
-        <v>0.9582349549141939</v>
+        <v>0.9611553316340897</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019717393050307</v>
+        <v>1.021177391766533</v>
       </c>
       <c r="J24">
-        <v>0.9653618825249234</v>
+        <v>0.9687795110191147</v>
       </c>
       <c r="K24">
-        <v>0.9803784019898601</v>
+        <v>0.9830581086350803</v>
       </c>
       <c r="L24">
-        <v>0.9606809766620392</v>
+        <v>0.9641446567805777</v>
       </c>
       <c r="M24">
-        <v>0.9730374794604699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9759007626923385</v>
+      </c>
+      <c r="N24">
+        <v>0.9701552890453251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9614492632065151</v>
+        <v>0.9648868616196762</v>
       </c>
       <c r="D25">
-        <v>0.9862839875353464</v>
+        <v>0.988910109474363</v>
       </c>
       <c r="E25">
-        <v>0.9706535770892114</v>
+        <v>0.9740576226262485</v>
       </c>
       <c r="F25">
-        <v>0.9817744139280282</v>
+        <v>0.9845697310788902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029943730321683</v>
+        <v>1.031350317113117</v>
       </c>
       <c r="J25">
-        <v>0.9873475030382128</v>
+        <v>0.9906565930466587</v>
       </c>
       <c r="K25">
-        <v>0.9990990252565413</v>
+        <v>1.001683056307056</v>
       </c>
       <c r="L25">
-        <v>0.9837252084334938</v>
+        <v>0.9870724689436551</v>
       </c>
       <c r="M25">
-        <v>0.9946624049110525</v>
+        <v>0.9974123999822976</v>
+      </c>
+      <c r="N25">
+        <v>0.9920634390386841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9834579333790223</v>
+        <v>0.9771567069548758</v>
       </c>
       <c r="D2">
-        <v>1.003429593874501</v>
+        <v>0.998496535345461</v>
       </c>
       <c r="E2">
-        <v>0.991749734399334</v>
+        <v>0.9854952675680938</v>
       </c>
       <c r="F2">
-        <v>1.001237689232774</v>
+        <v>0.9527569112356831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038492720426058</v>
+        <v>1.03200053881417</v>
       </c>
       <c r="J2">
-        <v>1.006144928636906</v>
+        <v>1.000042805299402</v>
       </c>
       <c r="K2">
-        <v>1.014841354899313</v>
+        <v>1.009976855634265</v>
       </c>
       <c r="L2">
-        <v>1.00332521788175</v>
+        <v>0.9971604446035425</v>
       </c>
       <c r="M2">
-        <v>1.012679807968178</v>
+        <v>0.9649161611777021</v>
       </c>
       <c r="N2">
-        <v>1.007573769842007</v>
+        <v>1.00146298078944</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9959035568961158</v>
+        <v>0.9867490121635234</v>
       </c>
       <c r="D3">
-        <v>1.01315979375761</v>
+        <v>1.005816277659625</v>
       </c>
       <c r="E3">
-        <v>1.003622996625293</v>
+        <v>0.9945232007582029</v>
       </c>
       <c r="F3">
-        <v>1.012435845048016</v>
+        <v>0.9654114033790497</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043235288188417</v>
+        <v>1.034985382322334</v>
       </c>
       <c r="J3">
-        <v>1.016506521461306</v>
+        <v>1.007607548484844</v>
       </c>
       <c r="K3">
-        <v>1.023627016643237</v>
+        <v>1.016375275143341</v>
       </c>
       <c r="L3">
-        <v>1.014209729476025</v>
+        <v>1.005226641239017</v>
       </c>
       <c r="M3">
-        <v>1.02291204170912</v>
+        <v>0.9765068550758169</v>
       </c>
       <c r="N3">
-        <v>1.017950077316709</v>
+        <v>1.009038466777894</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003550508317045</v>
+        <v>0.9926991086555829</v>
       </c>
       <c r="D4">
-        <v>1.019136357249505</v>
+        <v>1.010359122173107</v>
       </c>
       <c r="E4">
-        <v>1.010924786175308</v>
+        <v>1.000129130505486</v>
       </c>
       <c r="F4">
-        <v>1.019327040132828</v>
+        <v>0.973245861627097</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046128252375605</v>
+        <v>1.036821438080111</v>
       </c>
       <c r="J4">
-        <v>1.022863825729481</v>
+        <v>1.012291433909183</v>
       </c>
       <c r="K4">
-        <v>1.029009181724356</v>
+        <v>1.020334109024873</v>
       </c>
       <c r="L4">
-        <v>1.020893122808863</v>
+        <v>1.010225997285619</v>
       </c>
       <c r="M4">
-        <v>1.029197669275679</v>
+        <v>0.9836782831254063</v>
       </c>
       <c r="N4">
-        <v>1.024316409686137</v>
+        <v>1.013729003856785</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006677192195344</v>
+        <v>0.9951438657229891</v>
       </c>
       <c r="D5">
-        <v>1.021579351953392</v>
+        <v>1.012226068814988</v>
       </c>
       <c r="E5">
-        <v>1.013911756388083</v>
+        <v>1.002433804742629</v>
       </c>
       <c r="F5">
-        <v>1.022147015236527</v>
+        <v>0.9764620298204562</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04730599336157</v>
+        <v>1.037572043499468</v>
       </c>
       <c r="J5">
-        <v>1.025460900189149</v>
+        <v>1.014213853781071</v>
       </c>
       <c r="K5">
-        <v>1.031205875862297</v>
+        <v>1.021958184620819</v>
       </c>
       <c r="L5">
-        <v>1.023624664524061</v>
+        <v>1.012279079131888</v>
       </c>
       <c r="M5">
-        <v>1.031767207178494</v>
+        <v>0.9866211202326186</v>
       </c>
       <c r="N5">
-        <v>1.026917172289427</v>
+        <v>1.015654153785395</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007197250219617</v>
+        <v>0.9955511568879482</v>
       </c>
       <c r="D6">
-        <v>1.021985645211734</v>
+        <v>1.012537116392457</v>
       </c>
       <c r="E6">
-        <v>1.014408655463643</v>
+        <v>1.002817834036348</v>
       </c>
       <c r="F6">
-        <v>1.022616187282724</v>
+        <v>0.9769976909354142</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047501581029485</v>
+        <v>1.037696867522963</v>
       </c>
       <c r="J6">
-        <v>1.025892730824507</v>
+        <v>1.014534001237179</v>
       </c>
       <c r="K6">
-        <v>1.031571012958931</v>
+        <v>1.022228601269757</v>
       </c>
       <c r="L6">
-        <v>1.024078927467879</v>
+        <v>1.012621055453127</v>
       </c>
       <c r="M6">
-        <v>1.032194559209249</v>
+        <v>0.9871111876359256</v>
       </c>
       <c r="N6">
-        <v>1.027349616173819</v>
+        <v>1.015974755887612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003592622327933</v>
+        <v>0.9927319923683902</v>
       </c>
       <c r="D7">
-        <v>1.019169265569483</v>
+        <v>1.010384232581516</v>
       </c>
       <c r="E7">
-        <v>1.010965012902638</v>
+        <v>1.000160124853317</v>
       </c>
       <c r="F7">
-        <v>1.019365014182243</v>
+        <v>0.9732891316197729</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0461441361551</v>
+        <v>1.036831549386613</v>
       </c>
       <c r="J7">
-        <v>1.022898815572239</v>
+        <v>1.012317300118852</v>
       </c>
       <c r="K7">
-        <v>1.029038785404173</v>
+        <v>1.020355964100154</v>
       </c>
       <c r="L7">
-        <v>1.020929919323142</v>
+        <v>1.010253616877619</v>
       </c>
       <c r="M7">
-        <v>1.029232281310284</v>
+        <v>0.9837178804039777</v>
       </c>
       <c r="N7">
-        <v>1.024351449218485</v>
+        <v>1.013754906799438</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.987754086501484</v>
+        <v>0.9804547354995941</v>
       </c>
       <c r="D8">
-        <v>1.006788660736259</v>
+        <v>1.00101257686088</v>
       </c>
       <c r="E8">
-        <v>0.9958468176138605</v>
+        <v>0.9885979354720195</v>
       </c>
       <c r="F8">
-        <v>1.005100745989406</v>
+        <v>0.9571115309843325</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04013426306957</v>
+        <v>1.033030020665143</v>
       </c>
       <c r="J8">
-        <v>1.009723580156555</v>
+        <v>1.002645506173746</v>
       </c>
       <c r="K8">
-        <v>1.017877453859881</v>
+        <v>1.012178849597512</v>
       </c>
       <c r="L8">
-        <v>1.007083341853018</v>
+        <v>0.9999346026456674</v>
       </c>
       <c r="M8">
-        <v>1.016212064897856</v>
+        <v>0.968905596916589</v>
       </c>
       <c r="N8">
-        <v>1.011157503457291</v>
+        <v>1.00406937779756</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.956224793523106</v>
+        <v>0.9565981967108583</v>
       </c>
       <c r="D9">
-        <v>0.9821403528168581</v>
+        <v>0.982832384415456</v>
       </c>
       <c r="E9">
-        <v>0.9658159811851509</v>
+        <v>0.9661853286473783</v>
       </c>
       <c r="F9">
-        <v>0.9768130785663873</v>
+        <v>0.9255026788056812</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027996768274201</v>
+        <v>1.025518588137797</v>
       </c>
       <c r="J9">
-        <v>0.9834240542469211</v>
+        <v>0.9837825080045238</v>
       </c>
       <c r="K9">
-        <v>0.9955299925382818</v>
+        <v>0.9962102737473745</v>
       </c>
       <c r="L9">
-        <v>0.9794891378500101</v>
+        <v>0.9798519331645045</v>
       </c>
       <c r="M9">
-        <v>0.9902938938350059</v>
+        <v>0.9399323076833895</v>
       </c>
       <c r="N9">
-        <v>0.9848206292042676</v>
+        <v>0.9851795920073211</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.931838823700902</v>
+        <v>0.9387582586455072</v>
       </c>
       <c r="D10">
-        <v>0.963100991813715</v>
+        <v>0.9692754753845905</v>
       </c>
       <c r="E10">
-        <v>0.9426508181196976</v>
+        <v>0.9494714495708371</v>
       </c>
       <c r="F10">
-        <v>0.9550401749162826</v>
+        <v>0.9016583283507336</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018497749314381</v>
+        <v>1.019822631288167</v>
       </c>
       <c r="J10">
-        <v>0.9630445062843651</v>
+        <v>0.9696315734556514</v>
       </c>
       <c r="K10">
-        <v>0.978170037113518</v>
+        <v>0.984222550086614</v>
       </c>
       <c r="L10">
-        <v>0.9581389389935098</v>
+        <v>0.9648171491358281</v>
       </c>
       <c r="M10">
-        <v>0.9702715822135309</v>
+        <v>0.9180633481228098</v>
       </c>
       <c r="N10">
-        <v>0.9644121399460376</v>
+        <v>0.9710085615082542</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9201744848118991</v>
+        <v>0.9304418286381076</v>
       </c>
       <c r="D11">
-        <v>0.9540085025915684</v>
+        <v>0.9629696897122457</v>
       </c>
       <c r="E11">
-        <v>0.9315906313157432</v>
+        <v>0.9416934266835185</v>
       </c>
       <c r="F11">
-        <v>0.9446609017786485</v>
+        <v>0.8904656102594162</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01393078672174</v>
+        <v>1.01715046836403</v>
       </c>
       <c r="J11">
-        <v>0.9532912810909238</v>
+        <v>0.9630246784878324</v>
       </c>
       <c r="K11">
-        <v>0.9698531915101405</v>
+        <v>0.9786254437053866</v>
       </c>
       <c r="L11">
-        <v>0.9479292320645394</v>
+        <v>0.9578055695930601</v>
       </c>
       <c r="M11">
-        <v>0.9607077506157535</v>
+        <v>0.907797897927294</v>
       </c>
       <c r="N11">
-        <v>0.9546450640541111</v>
+        <v>0.9643922839917596</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9156382808603514</v>
+        <v>0.9272489966633369</v>
       </c>
       <c r="D12">
-        <v>0.9504756683756485</v>
+        <v>0.9605514054920138</v>
       </c>
       <c r="E12">
-        <v>0.9272930562538636</v>
+        <v>0.9387095763153753</v>
       </c>
       <c r="F12">
-        <v>0.9406309013979469</v>
+        <v>0.886153682916522</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012151604588684</v>
+        <v>1.01612223718781</v>
       </c>
       <c r="J12">
-        <v>0.9494979980793696</v>
+        <v>0.9604866909951383</v>
       </c>
       <c r="K12">
-        <v>0.966617428341491</v>
+        <v>0.9764755200954637</v>
       </c>
       <c r="L12">
-        <v>0.943959646471433</v>
+        <v>0.9551133867642095</v>
       </c>
       <c r="M12">
-        <v>0.9569913236047307</v>
+        <v>0.9038435533918053</v>
       </c>
       <c r="N12">
-        <v>0.9508463941455851</v>
+        <v>0.9618506922657145</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9166212721921085</v>
+        <v>0.9279388452319143</v>
       </c>
       <c r="D13">
-        <v>0.9512410672861049</v>
+        <v>0.9610737764924677</v>
       </c>
       <c r="E13">
-        <v>0.9282241593378916</v>
+        <v>0.9393541649104902</v>
       </c>
       <c r="F13">
-        <v>0.9415038867269726</v>
+        <v>0.8870860549739918</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012537283750848</v>
+        <v>1.016344500246949</v>
       </c>
       <c r="J13">
-        <v>0.9503200030647608</v>
+        <v>0.9610351185792739</v>
       </c>
       <c r="K13">
-        <v>0.9673186655659624</v>
+        <v>0.976940081139545</v>
       </c>
       <c r="L13">
-        <v>0.9448198003291119</v>
+        <v>0.9556950760713511</v>
       </c>
       <c r="M13">
-        <v>0.957796522098462</v>
+        <v>0.9046985819910712</v>
       </c>
       <c r="N13">
-        <v>0.9516695664723407</v>
+        <v>0.9623998986799253</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9198039377397269</v>
+        <v>0.9301801240872161</v>
       </c>
       <c r="D14">
-        <v>0.9537198463550906</v>
+        <v>0.9627714156974095</v>
       </c>
       <c r="E14">
-        <v>0.9312394988141178</v>
+        <v>0.9414488040211731</v>
       </c>
       <c r="F14">
-        <v>0.9443315673446817</v>
+        <v>0.8901124988071843</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013785511155825</v>
+        <v>1.017066234005273</v>
       </c>
       <c r="J14">
-        <v>0.9529814233981286</v>
+        <v>0.9628166786548382</v>
       </c>
       <c r="K14">
-        <v>0.9695888966341907</v>
+        <v>0.9784492430160913</v>
       </c>
       <c r="L14">
-        <v>0.9476049479753617</v>
+        <v>0.9575849068727118</v>
       </c>
       <c r="M14">
-        <v>0.9604041038938299</v>
+        <v>0.9074740599293718</v>
       </c>
       <c r="N14">
-        <v>0.9543347663278511</v>
+        <v>0.9641839887751448</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9217365649356027</v>
+        <v>0.9315467941284371</v>
       </c>
       <c r="D15">
-        <v>0.9552254982443164</v>
+        <v>0.9638069489419621</v>
       </c>
       <c r="E15">
-        <v>0.9330710192540689</v>
+        <v>0.942726362846051</v>
       </c>
       <c r="F15">
-        <v>0.9460495124486176</v>
+        <v>0.8919558919925091</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014543088783235</v>
+        <v>1.017506028367321</v>
       </c>
       <c r="J15">
-        <v>0.9545975099204999</v>
+        <v>0.9639028332142373</v>
       </c>
       <c r="K15">
-        <v>0.9709673028463577</v>
+        <v>0.9793693533377342</v>
       </c>
       <c r="L15">
-        <v>0.9492963262413374</v>
+        <v>0.9587372371264081</v>
       </c>
       <c r="M15">
-        <v>0.9619879278352618</v>
+        <v>0.9091646499690595</v>
       </c>
       <c r="N15">
-        <v>0.9559531478784518</v>
+        <v>0.9652716857986021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9325867430928608</v>
+        <v>0.9392965429743667</v>
       </c>
       <c r="D16">
-        <v>0.9636843723905463</v>
+        <v>0.9696839471557088</v>
       </c>
       <c r="E16">
-        <v>0.9433604556378946</v>
+        <v>0.9499751804857901</v>
       </c>
       <c r="F16">
-        <v>0.955706493764778</v>
+        <v>0.902380955899499</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018790141756871</v>
+        <v>1.019995258953189</v>
       </c>
       <c r="J16">
-        <v>0.9636698152656284</v>
+        <v>0.9700590039728244</v>
       </c>
       <c r="K16">
-        <v>0.9787030930816195</v>
+        <v>0.9845846637178924</v>
       </c>
       <c r="L16">
-        <v>0.9587936789449545</v>
+        <v>0.9652709282169722</v>
       </c>
       <c r="M16">
-        <v>0.9708851529709251</v>
+        <v>0.9187261365834903</v>
       </c>
       <c r="N16">
-        <v>0.9650383369377786</v>
+        <v>0.9714365990257888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9390741236535827</v>
+        <v>0.9439899797898065</v>
       </c>
       <c r="D17">
-        <v>0.9687462257353888</v>
+        <v>0.9732471230143995</v>
       </c>
       <c r="E17">
-        <v>0.9495180478722274</v>
+        <v>0.9543688577752877</v>
       </c>
       <c r="F17">
-        <v>0.9614900252394247</v>
+        <v>0.9086728740962642</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02132380262565</v>
+        <v>1.021498589443829</v>
       </c>
       <c r="J17">
-        <v>0.969093151322556</v>
+        <v>0.9737847567926871</v>
       </c>
       <c r="K17">
-        <v>0.9833253745639424</v>
+        <v>0.98774107085711</v>
       </c>
       <c r="L17">
-        <v>0.9644731541040346</v>
+        <v>0.9692272415107973</v>
       </c>
       <c r="M17">
-        <v>0.976208734441542</v>
+        <v>0.924497067533414</v>
       </c>
       <c r="N17">
-        <v>0.9704693747539722</v>
+        <v>0.9751676428420052</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.94275454843647</v>
+        <v>0.9466716710475166</v>
       </c>
       <c r="D18">
-        <v>0.9716191555622491</v>
+        <v>0.9752842734144433</v>
       </c>
       <c r="E18">
-        <v>0.9530131639393263</v>
+        <v>0.956880499965058</v>
       </c>
       <c r="F18">
-        <v>0.9647742484789957</v>
+        <v>0.9122610110626896</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022759050031177</v>
+        <v>1.022355976962015</v>
       </c>
       <c r="J18">
-        <v>0.9721694095096385</v>
+        <v>0.9759126014544846</v>
       </c>
       <c r="K18">
-        <v>0.9859464473903999</v>
+        <v>0.9895437209447993</v>
       </c>
       <c r="L18">
-        <v>0.9676954297353693</v>
+        <v>0.9714874934884251</v>
       </c>
       <c r="M18">
-        <v>0.9792300495897625</v>
+        <v>0.9277880710934739</v>
       </c>
       <c r="N18">
-        <v>0.9735500015805318</v>
+        <v>0.9772985092872898</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9439928594872361</v>
+        <v>0.9475769682681064</v>
       </c>
       <c r="D19">
-        <v>0.9725859631164806</v>
+        <v>0.9759721834339993</v>
       </c>
       <c r="E19">
-        <v>0.9541894140216372</v>
+        <v>0.9577285923814335</v>
       </c>
       <c r="F19">
-        <v>0.9658797531071421</v>
+        <v>0.9134712233462604</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023241577178369</v>
+        <v>1.022645145876004</v>
       </c>
       <c r="J19">
-        <v>0.9732043450305766</v>
+        <v>0.9766307676500964</v>
       </c>
       <c r="K19">
-        <v>0.9868281051839364</v>
+        <v>0.9901521209937518</v>
       </c>
       <c r="L19">
-        <v>0.9687796123848706</v>
+        <v>0.9722504705885433</v>
       </c>
       <c r="M19">
-        <v>0.9802467687545363</v>
+        <v>0.9288980525096326</v>
       </c>
       <c r="N19">
-        <v>0.9745864068286189</v>
+        <v>0.9780176953612743</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9383890320169969</v>
+        <v>0.9434922972569673</v>
       </c>
       <c r="D20">
-        <v>0.968211539843704</v>
+        <v>0.9728691567411208</v>
       </c>
       <c r="E20">
-        <v>0.9488675925094056</v>
+        <v>0.9539028318390075</v>
       </c>
       <c r="F20">
-        <v>0.9608789310445059</v>
+        <v>0.9080064287586331</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02105646101907</v>
+        <v>1.021339341843711</v>
       </c>
       <c r="J20">
-        <v>0.968520477449025</v>
+        <v>0.9733897832070184</v>
       </c>
       <c r="K20">
-        <v>0.9828373707463978</v>
+        <v>0.9874064566416159</v>
       </c>
       <c r="L20">
-        <v>0.9638733570463853</v>
+        <v>0.9688077492935879</v>
       </c>
       <c r="M20">
-        <v>0.9756464200564187</v>
+        <v>0.9238858061829633</v>
       </c>
       <c r="N20">
-        <v>0.9698958876178541</v>
+        <v>0.9747721083485414</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9188727089835699</v>
+        <v>0.9295231256509642</v>
       </c>
       <c r="D21">
-        <v>0.9529944739233022</v>
+        <v>0.9622737009579766</v>
       </c>
       <c r="E21">
-        <v>0.9303571223890366</v>
+        <v>0.9408347263726464</v>
       </c>
       <c r="F21">
-        <v>0.9435040183269829</v>
+        <v>0.8892257768608277</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013420368325638</v>
+        <v>1.0168547304161</v>
       </c>
       <c r="J21">
-        <v>0.9522027113792902</v>
+        <v>0.9622944801758394</v>
       </c>
       <c r="K21">
-        <v>0.9689246725836773</v>
+        <v>0.9780068818674043</v>
       </c>
       <c r="L21">
-        <v>0.9467900003822042</v>
+        <v>0.957030937751258</v>
       </c>
       <c r="M21">
-        <v>0.9596410535233278</v>
+        <v>0.9066608556612931</v>
       </c>
       <c r="N21">
-        <v>0.9535549484486264</v>
+        <v>0.9636610487144086</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9053946065993095</v>
+        <v>0.920129472290824</v>
       </c>
       <c r="D22">
-        <v>0.9425052392062105</v>
+        <v>0.9551645498703173</v>
       </c>
       <c r="E22">
-        <v>0.9175960475395375</v>
+        <v>0.9320606036183414</v>
       </c>
       <c r="F22">
-        <v>0.9315440582302662</v>
+        <v>0.8765066627620604</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008128612788489</v>
+        <v>1.013825350716404</v>
       </c>
       <c r="J22">
-        <v>0.9409321419595871</v>
+        <v>0.9548246734914408</v>
       </c>
       <c r="K22">
-        <v>0.9593087145850593</v>
+        <v>0.9716797893605432</v>
       </c>
       <c r="L22">
-        <v>0.9349980106937482</v>
+        <v>0.9491098040929896</v>
       </c>
       <c r="M22">
-        <v>0.9486056031377925</v>
+        <v>0.8949977188708003</v>
       </c>
       <c r="N22">
-        <v>0.9422683735275947</v>
+        <v>0.9561806340477195</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.912670436576453</v>
+        <v>0.9251731586715362</v>
       </c>
       <c r="D23">
-        <v>0.9481653447562254</v>
+        <v>0.9589799583804528</v>
       </c>
       <c r="E23">
-        <v>0.9244824738084301</v>
+        <v>0.9367702871708781</v>
       </c>
       <c r="F23">
-        <v>0.937996244478271</v>
+        <v>0.8833455807682535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010986745680603</v>
+        <v>1.015453095110958</v>
       </c>
       <c r="J23">
-        <v>0.9470162067984544</v>
+        <v>0.9588361926374047</v>
       </c>
       <c r="K23">
-        <v>0.9645001114410418</v>
+        <v>0.9750774597135026</v>
       </c>
       <c r="L23">
-        <v>0.9413628597457319</v>
+        <v>0.9533629777772166</v>
       </c>
       <c r="M23">
-        <v>0.9545607839725603</v>
+        <v>0.9012684794556243</v>
       </c>
       <c r="N23">
-        <v>0.9483610784363854</v>
+        <v>0.9601978500109982</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.938698912773225</v>
+        <v>0.9437173502700285</v>
       </c>
       <c r="D24">
-        <v>0.9684533852551866</v>
+        <v>0.9730400699468831</v>
       </c>
       <c r="E24">
-        <v>0.9491618010380984</v>
+        <v>0.9541135658780427</v>
       </c>
       <c r="F24">
-        <v>0.9611553316340897</v>
+        <v>0.9083078178594164</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021177391766533</v>
+        <v>1.021411358830831</v>
       </c>
       <c r="J24">
-        <v>0.9687795110191147</v>
+        <v>0.9735683939689812</v>
       </c>
       <c r="K24">
-        <v>0.9830581086350803</v>
+        <v>0.9875577724399445</v>
       </c>
       <c r="L24">
-        <v>0.9641446567805777</v>
+        <v>0.9689974453391815</v>
       </c>
       <c r="M24">
-        <v>0.9759007626923385</v>
+        <v>0.9241622393268915</v>
       </c>
       <c r="N24">
-        <v>0.9701552890453251</v>
+        <v>0.9749509727582728</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9648868616196762</v>
+        <v>0.9630692846271048</v>
       </c>
       <c r="D25">
-        <v>0.988910109474363</v>
+        <v>0.9877587412296885</v>
       </c>
       <c r="E25">
-        <v>0.9740576226262485</v>
+        <v>0.9722577199347</v>
       </c>
       <c r="F25">
-        <v>0.9845697310788902</v>
+        <v>0.9341039189306476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031350317113117</v>
+        <v>1.027569731749733</v>
       </c>
       <c r="J25">
-        <v>0.9906565930466587</v>
+        <v>0.9889068020004879</v>
       </c>
       <c r="K25">
-        <v>1.001683056307056</v>
+        <v>1.000550106600689</v>
       </c>
       <c r="L25">
-        <v>0.9870724689436551</v>
+        <v>0.9853025277381472</v>
       </c>
       <c r="M25">
-        <v>0.9974123999822976</v>
+        <v>0.9478192592090289</v>
       </c>
       <c r="N25">
-        <v>0.9920634390386841</v>
+        <v>0.9903111630885241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9771567069548758</v>
+        <v>0.9982845189146897</v>
       </c>
       <c r="D2">
-        <v>0.998496535345461</v>
+        <v>1.015992909577909</v>
       </c>
       <c r="E2">
-        <v>0.9854952675680938</v>
+        <v>1.006471682867776</v>
       </c>
       <c r="F2">
-        <v>0.9527569112356831</v>
+        <v>0.9750484137754676</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03200053881417</v>
+        <v>1.042188819598582</v>
       </c>
       <c r="J2">
-        <v>1.000042805299402</v>
+        <v>1.020516661074035</v>
       </c>
       <c r="K2">
-        <v>1.009976855634265</v>
+        <v>1.027233844908072</v>
       </c>
       <c r="L2">
-        <v>0.9971604446035425</v>
+        <v>1.017841587199477</v>
       </c>
       <c r="M2">
-        <v>0.9649161611777021</v>
+        <v>0.9868666677315232</v>
       </c>
       <c r="N2">
-        <v>1.00146298078944</v>
+        <v>1.010762744402207</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9867490121635234</v>
+        <v>1.002537557689438</v>
       </c>
       <c r="D3">
-        <v>1.005816277659625</v>
+        <v>1.019043870598456</v>
       </c>
       <c r="E3">
-        <v>0.9945232007582029</v>
+        <v>1.010218849935196</v>
       </c>
       <c r="F3">
-        <v>0.9654114033790497</v>
+        <v>0.9819754356184991</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034985382322334</v>
+        <v>1.043560132243254</v>
       </c>
       <c r="J3">
-        <v>1.007607548484844</v>
+        <v>1.022959284550109</v>
       </c>
       <c r="K3">
-        <v>1.016375275143341</v>
+        <v>1.02943874487599</v>
       </c>
       <c r="L3">
-        <v>1.005226641239017</v>
+        <v>1.020722627260688</v>
       </c>
       <c r="M3">
-        <v>0.9765068550758169</v>
+        <v>0.9928442601214226</v>
       </c>
       <c r="N3">
-        <v>1.009038466777894</v>
+        <v>1.011580826877135</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9926991086555829</v>
+        <v>1.005229537523339</v>
       </c>
       <c r="D4">
-        <v>1.010359122173107</v>
+        <v>1.020976827568071</v>
       </c>
       <c r="E4">
-        <v>1.000129130505486</v>
+        <v>1.01259546495209</v>
       </c>
       <c r="F4">
-        <v>0.973245861627097</v>
+        <v>0.9863474537559659</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036821438080111</v>
+        <v>1.044416392806817</v>
       </c>
       <c r="J4">
-        <v>1.012291433909183</v>
+        <v>1.024500410634003</v>
       </c>
       <c r="K4">
-        <v>1.020334109024873</v>
+        <v>1.030828504973604</v>
       </c>
       <c r="L4">
-        <v>1.010225997285619</v>
+        <v>1.022544213950905</v>
       </c>
       <c r="M4">
-        <v>0.9836782831254063</v>
+        <v>0.996613494511881</v>
       </c>
       <c r="N4">
-        <v>1.013729003856785</v>
+        <v>1.012096904913408</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9951438657229891</v>
+        <v>1.006347411539797</v>
       </c>
       <c r="D5">
-        <v>1.012226068814988</v>
+        <v>1.021779905154919</v>
       </c>
       <c r="E5">
-        <v>1.002433804742629</v>
+        <v>1.013583513070738</v>
       </c>
       <c r="F5">
-        <v>0.9764620298204562</v>
+        <v>0.9881603784538675</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037572043499468</v>
+        <v>1.044769121574127</v>
       </c>
       <c r="J5">
-        <v>1.014213853781071</v>
+        <v>1.025139182741384</v>
       </c>
       <c r="K5">
-        <v>1.021958184620819</v>
+        <v>1.031404191015794</v>
       </c>
       <c r="L5">
-        <v>1.012279079131888</v>
+        <v>1.023300155217405</v>
       </c>
       <c r="M5">
-        <v>0.9866211202326186</v>
+        <v>0.9981755822288558</v>
       </c>
       <c r="N5">
-        <v>1.015654153785395</v>
+        <v>1.012310789780595</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955511568879482</v>
+        <v>1.006534311233731</v>
       </c>
       <c r="D6">
-        <v>1.012537116392457</v>
+        <v>1.021914195382172</v>
       </c>
       <c r="E6">
-        <v>1.002817834036348</v>
+        <v>1.013748772762681</v>
       </c>
       <c r="F6">
-        <v>0.9769976909354142</v>
+        <v>0.9884633428599221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037696867522963</v>
+        <v>1.044827926995491</v>
       </c>
       <c r="J6">
-        <v>1.014534001237179</v>
+        <v>1.025245909653917</v>
       </c>
       <c r="K6">
-        <v>1.022228601269757</v>
+        <v>1.031500356530085</v>
       </c>
       <c r="L6">
-        <v>1.012621055453127</v>
+        <v>1.023426513157407</v>
       </c>
       <c r="M6">
-        <v>0.9871111876359256</v>
+        <v>0.9984365755181653</v>
       </c>
       <c r="N6">
-        <v>1.015974755887612</v>
+        <v>1.01234652461607</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9927319923683902</v>
+        <v>1.005244528284256</v>
       </c>
       <c r="D7">
-        <v>1.010384232581516</v>
+        <v>1.020987595382074</v>
       </c>
       <c r="E7">
-        <v>1.000160124853317</v>
+        <v>1.012608710296758</v>
       </c>
       <c r="F7">
-        <v>0.9732891316197729</v>
+        <v>0.9863717749850592</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036831549386613</v>
+        <v>1.044421134196489</v>
       </c>
       <c r="J7">
-        <v>1.012317300118852</v>
+        <v>1.024508981354814</v>
       </c>
       <c r="K7">
-        <v>1.020355964100154</v>
+        <v>1.030836230632321</v>
       </c>
       <c r="L7">
-        <v>1.010253616877619</v>
+        <v>1.022554353139955</v>
       </c>
       <c r="M7">
-        <v>0.9837178804039777</v>
+        <v>0.9966344541798123</v>
       </c>
       <c r="N7">
-        <v>1.013754906799438</v>
+        <v>1.01209977480036</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9804547354995941</v>
+        <v>0.9997346129095389</v>
       </c>
       <c r="D8">
-        <v>1.00101257686088</v>
+        <v>1.017032735856771</v>
       </c>
       <c r="E8">
-        <v>0.9885979354720195</v>
+        <v>1.007748267749528</v>
       </c>
       <c r="F8">
-        <v>0.9571115309843325</v>
+        <v>0.9774130797182639</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033030020665143</v>
+        <v>1.042658815835066</v>
       </c>
       <c r="J8">
-        <v>1.002645506173746</v>
+        <v>1.021350516283648</v>
       </c>
       <c r="K8">
-        <v>1.012178849597512</v>
+        <v>1.027986826685231</v>
       </c>
       <c r="L8">
-        <v>0.9999346026456674</v>
+        <v>1.018824296826802</v>
       </c>
       <c r="M8">
-        <v>0.968905596916589</v>
+        <v>0.9889079541602093</v>
       </c>
       <c r="N8">
-        <v>1.00406937779756</v>
+        <v>1.01104203274367</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9565981967108583</v>
+        <v>0.9895400293178533</v>
       </c>
       <c r="D9">
-        <v>0.982832384415456</v>
+        <v>1.009732186672549</v>
       </c>
       <c r="E9">
-        <v>0.9661853286473783</v>
+        <v>0.9987951723985101</v>
       </c>
       <c r="F9">
-        <v>0.9255026788056812</v>
+        <v>0.9607180617379207</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025518588137797</v>
+        <v>1.039305992590493</v>
       </c>
       <c r="J9">
-        <v>0.9837825080045238</v>
+        <v>1.015467641214397</v>
       </c>
       <c r="K9">
-        <v>0.9962102737473745</v>
+        <v>1.022669314936262</v>
       </c>
       <c r="L9">
-        <v>0.9798519331645045</v>
+        <v>1.011907827381753</v>
       </c>
       <c r="M9">
-        <v>0.9399323076833895</v>
+        <v>0.9744823232726796</v>
       </c>
       <c r="N9">
-        <v>0.9851795920073211</v>
+        <v>1.009071455210925</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9387582586455072</v>
+        <v>0.9823784434787336</v>
       </c>
       <c r="D10">
-        <v>0.9692754753845905</v>
+        <v>1.004618209938083</v>
       </c>
       <c r="E10">
-        <v>0.9494714495708371</v>
+        <v>0.9925345945553371</v>
       </c>
       <c r="F10">
-        <v>0.9016583283507336</v>
+        <v>0.9488778052986565</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019822631288167</v>
+        <v>1.036890132334358</v>
       </c>
       <c r="J10">
-        <v>0.9696315734556514</v>
+        <v>1.011309080477056</v>
       </c>
       <c r="K10">
-        <v>0.984222550086614</v>
+        <v>1.018904578826155</v>
       </c>
       <c r="L10">
-        <v>0.9648171491358281</v>
+        <v>1.007039960234262</v>
       </c>
       <c r="M10">
-        <v>0.9180633481228098</v>
+        <v>0.9642357932963402</v>
       </c>
       <c r="N10">
-        <v>0.9710085615082542</v>
+        <v>1.007678376489503</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9304418286381076</v>
+        <v>0.9791811725703543</v>
       </c>
       <c r="D11">
-        <v>0.9629696897122457</v>
+        <v>1.002339288236488</v>
       </c>
       <c r="E11">
-        <v>0.9416934266835185</v>
+        <v>0.9897468701715738</v>
       </c>
       <c r="F11">
-        <v>0.8904656102594162</v>
+        <v>0.9435570952183154</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01715046836403</v>
+        <v>1.035797629142982</v>
       </c>
       <c r="J11">
-        <v>0.9630246784878324</v>
+        <v>1.00944643969014</v>
       </c>
       <c r="K11">
-        <v>0.9786254437053866</v>
+        <v>1.017217223435226</v>
       </c>
       <c r="L11">
-        <v>0.9578055695930601</v>
+        <v>1.004864770924887</v>
       </c>
       <c r="M11">
-        <v>0.907797897927294</v>
+        <v>0.9596281675994909</v>
       </c>
       <c r="N11">
-        <v>0.9643922839917596</v>
+        <v>1.007054437161118</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9272489966633369</v>
+        <v>0.9779782009887192</v>
       </c>
       <c r="D12">
-        <v>0.9605514054920138</v>
+        <v>1.00148254151436</v>
       </c>
       <c r="E12">
-        <v>0.9387095763153753</v>
+        <v>0.9886991251510862</v>
       </c>
       <c r="F12">
-        <v>0.886153682916522</v>
+        <v>0.9415491977308557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01612223718781</v>
+        <v>1.035384514695129</v>
       </c>
       <c r="J12">
-        <v>0.9604866909951383</v>
+        <v>1.008744715594673</v>
       </c>
       <c r="K12">
-        <v>0.9764755200954637</v>
+        <v>1.016581393380197</v>
       </c>
       <c r="L12">
-        <v>0.9551133867642095</v>
+        <v>1.004046082626403</v>
       </c>
       <c r="M12">
-        <v>0.9038435533918053</v>
+        <v>0.9578889659016316</v>
       </c>
       <c r="N12">
-        <v>0.9618506922657145</v>
+        <v>1.006819385212135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9279388452319143</v>
+        <v>0.9782369530150207</v>
       </c>
       <c r="D13">
-        <v>0.9610737764924677</v>
+        <v>1.001666790095916</v>
       </c>
       <c r="E13">
-        <v>0.9393541649104902</v>
+        <v>0.9889244369606344</v>
       </c>
       <c r="F13">
-        <v>0.8870860549739918</v>
+        <v>0.9419813681889773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016344500246949</v>
+        <v>1.035473465678201</v>
       </c>
       <c r="J13">
-        <v>0.9610351185792739</v>
+        <v>1.008895693172303</v>
       </c>
       <c r="K13">
-        <v>0.976940081139545</v>
+        <v>1.016718199718032</v>
       </c>
       <c r="L13">
-        <v>0.9556950760713511</v>
+        <v>1.004222189732817</v>
       </c>
       <c r="M13">
-        <v>0.9046985819910712</v>
+        <v>0.9582633207091427</v>
       </c>
       <c r="N13">
-        <v>0.9623998986799253</v>
+        <v>1.00686995673013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9301801240872161</v>
+        <v>0.9790820534522563</v>
       </c>
       <c r="D14">
-        <v>0.9627714156974095</v>
+        <v>1.002268681858548</v>
       </c>
       <c r="E14">
-        <v>0.9414488040211731</v>
+        <v>0.9896605176933483</v>
       </c>
       <c r="F14">
-        <v>0.8901124988071843</v>
+        <v>0.9433917803859051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017066234005273</v>
+        <v>1.035763632150231</v>
       </c>
       <c r="J14">
-        <v>0.9628166786548382</v>
+        <v>1.009388639373076</v>
       </c>
       <c r="K14">
-        <v>0.9784492430160913</v>
+        <v>1.01716485348825</v>
       </c>
       <c r="L14">
-        <v>0.9575849068727118</v>
+        <v>1.004797320394098</v>
       </c>
       <c r="M14">
-        <v>0.9074740599293718</v>
+        <v>0.9594849829292743</v>
       </c>
       <c r="N14">
-        <v>0.9641839887751448</v>
+        <v>1.00703507596622</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9315467941284371</v>
+        <v>0.9796006837102585</v>
       </c>
       <c r="D15">
-        <v>0.9638069489419621</v>
+        <v>1.002638151001228</v>
       </c>
       <c r="E15">
-        <v>0.942726362846051</v>
+        <v>0.9901123943364343</v>
       </c>
       <c r="F15">
-        <v>0.8919558919925091</v>
+        <v>0.9442565240951091</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017506028367321</v>
+        <v>1.035941434057723</v>
       </c>
       <c r="J15">
-        <v>0.9639028332142373</v>
+        <v>1.009691036483693</v>
       </c>
       <c r="K15">
-        <v>0.9793693533377342</v>
+        <v>1.017438834586944</v>
       </c>
       <c r="L15">
-        <v>0.9587372371264081</v>
+        <v>1.005150237053885</v>
       </c>
       <c r="M15">
-        <v>0.9091646499690595</v>
+        <v>0.9602339501483941</v>
       </c>
       <c r="N15">
-        <v>0.9652716857986021</v>
+        <v>1.007136369372966</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9392965429743667</v>
+        <v>0.9825885326300405</v>
       </c>
       <c r="D16">
-        <v>0.9696839471557088</v>
+        <v>1.004768048241991</v>
       </c>
       <c r="E16">
-        <v>0.9499751804857901</v>
+        <v>0.9927179279202546</v>
       </c>
       <c r="F16">
-        <v>0.902380955899499</v>
+        <v>0.9492266384512372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019995258953189</v>
+        <v>1.036961632162081</v>
       </c>
       <c r="J16">
-        <v>0.9700590039728244</v>
+        <v>1.011431346802957</v>
       </c>
       <c r="K16">
-        <v>0.9845846637178924</v>
+        <v>1.019015318125261</v>
       </c>
       <c r="L16">
-        <v>0.9652709282169722</v>
+        <v>1.007182850591303</v>
       </c>
       <c r="M16">
-        <v>0.9187261365834903</v>
+        <v>0.9645378164201812</v>
       </c>
       <c r="N16">
-        <v>0.9714365990257888</v>
+        <v>1.007719333675065</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9439899797898065</v>
+        <v>0.9844363483832258</v>
       </c>
       <c r="D17">
-        <v>0.9732471230143995</v>
+        <v>1.00608641947702</v>
       </c>
       <c r="E17">
-        <v>0.9543688577752877</v>
+        <v>0.9943312498658359</v>
       </c>
       <c r="F17">
-        <v>0.9086728740962642</v>
+        <v>0.9522907373449063</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021498589443829</v>
+        <v>1.037588919684569</v>
       </c>
       <c r="J17">
-        <v>0.9737847567926871</v>
+        <v>1.012506038395202</v>
       </c>
       <c r="K17">
-        <v>0.98774107085711</v>
+        <v>1.019988566719977</v>
       </c>
       <c r="L17">
-        <v>0.9692272415107973</v>
+        <v>1.008439408260502</v>
       </c>
       <c r="M17">
-        <v>0.924497067533414</v>
+        <v>0.9671903990427467</v>
       </c>
       <c r="N17">
-        <v>0.9751676428420052</v>
+        <v>1.008079341156713</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9466716710475166</v>
+        <v>0.985504925506018</v>
       </c>
       <c r="D18">
-        <v>0.9752842734144433</v>
+        <v>1.006849216483865</v>
       </c>
       <c r="E18">
-        <v>0.956880499965058</v>
+        <v>0.9952649094566484</v>
       </c>
       <c r="F18">
-        <v>0.9122610110626896</v>
+        <v>0.9540594530260111</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022355976962015</v>
+        <v>1.037950351299933</v>
       </c>
       <c r="J18">
-        <v>0.9759126014544846</v>
+        <v>1.013126949475886</v>
       </c>
       <c r="K18">
-        <v>0.9895437209447993</v>
+        <v>1.020550761651615</v>
       </c>
       <c r="L18">
-        <v>0.9714874934884251</v>
+        <v>1.009165880378439</v>
       </c>
       <c r="M18">
-        <v>0.9277880710934739</v>
+        <v>0.9687212752888646</v>
       </c>
       <c r="N18">
-        <v>0.9772985092872898</v>
+        <v>1.008287340500215</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9475769682681064</v>
+        <v>0.9858677444969566</v>
       </c>
       <c r="D19">
-        <v>0.9759721834339993</v>
+        <v>1.007108277349836</v>
       </c>
       <c r="E19">
-        <v>0.9577285923814335</v>
+        <v>0.9955820348924248</v>
       </c>
       <c r="F19">
-        <v>0.9134712233462604</v>
+        <v>0.9546594674698865</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022645145876004</v>
+        <v>1.038072844281993</v>
       </c>
       <c r="J19">
-        <v>0.9766307676500964</v>
+        <v>1.013337672702345</v>
       </c>
       <c r="K19">
-        <v>0.9901521209937518</v>
+        <v>1.020741539134792</v>
       </c>
       <c r="L19">
-        <v>0.9722504705885433</v>
+        <v>1.009412510909555</v>
       </c>
       <c r="M19">
-        <v>0.9288980525096326</v>
+        <v>0.9692405537074695</v>
       </c>
       <c r="N19">
-        <v>0.9780176953612743</v>
+        <v>1.008357931058693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9434922972569673</v>
+        <v>0.9842390554365116</v>
       </c>
       <c r="D20">
-        <v>0.9728691567411208</v>
+        <v>1.005945614510285</v>
       </c>
       <c r="E20">
-        <v>0.9539028318390075</v>
+        <v>0.9941589223229659</v>
       </c>
       <c r="F20">
-        <v>0.9080064287586331</v>
+        <v>0.9519639210253796</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021339341843711</v>
+        <v>1.037522080760904</v>
       </c>
       <c r="J20">
-        <v>0.9733897832070184</v>
+        <v>1.012391352191135</v>
       </c>
       <c r="K20">
-        <v>0.9874064566416159</v>
+        <v>1.019884716959175</v>
       </c>
       <c r="L20">
-        <v>0.9688077492935879</v>
+        <v>1.008305263558708</v>
       </c>
       <c r="M20">
-        <v>0.9238858061829633</v>
+        <v>0.9669075053538992</v>
       </c>
       <c r="N20">
-        <v>0.9747721083485414</v>
+        <v>1.008040922520847</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9295231256509642</v>
+        <v>0.9788336241607073</v>
       </c>
       <c r="D21">
-        <v>0.9622737009579766</v>
+        <v>1.002091727517046</v>
       </c>
       <c r="E21">
-        <v>0.9408347263726464</v>
+        <v>0.9894441047502034</v>
       </c>
       <c r="F21">
-        <v>0.8892257768608277</v>
+        <v>0.9429773409234192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0168547304161</v>
+        <v>1.035678390004729</v>
       </c>
       <c r="J21">
-        <v>0.9622944801758394</v>
+        <v>1.009243755743052</v>
       </c>
       <c r="K21">
-        <v>0.9780068818674043</v>
+        <v>1.017033579546483</v>
       </c>
       <c r="L21">
-        <v>0.957030937751258</v>
+        <v>1.004628259972501</v>
       </c>
       <c r="M21">
-        <v>0.9066608556612931</v>
+        <v>0.9591260168620848</v>
       </c>
       <c r="N21">
-        <v>0.9636610487144086</v>
+        <v>1.006986544893787</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.920129472290824</v>
+        <v>0.9753456246907434</v>
       </c>
       <c r="D22">
-        <v>0.9551645498703173</v>
+        <v>0.9996089975286728</v>
       </c>
       <c r="E22">
-        <v>0.9320606036183414</v>
+        <v>0.9864083779555326</v>
       </c>
       <c r="F22">
-        <v>0.8765066627620604</v>
+        <v>0.9371431822250722</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013825350716404</v>
+        <v>1.034476704776355</v>
       </c>
       <c r="J22">
-        <v>0.9548246734914408</v>
+        <v>1.007207401426262</v>
       </c>
       <c r="K22">
-        <v>0.9716797893605432</v>
+        <v>1.015188204235834</v>
       </c>
       <c r="L22">
-        <v>0.9491098040929896</v>
+        <v>1.002253983094237</v>
       </c>
       <c r="M22">
-        <v>0.8949977188708003</v>
+        <v>0.9540718910694933</v>
       </c>
       <c r="N22">
-        <v>0.9561806340477195</v>
+        <v>1.006304461789126</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9251731586715362</v>
+        <v>0.9772034744998978</v>
       </c>
       <c r="D23">
-        <v>0.9589799583804528</v>
+        <v>1.00093099217312</v>
       </c>
       <c r="E23">
-        <v>0.9367702871708781</v>
+        <v>0.9880246910222492</v>
       </c>
       <c r="F23">
-        <v>0.8833455807682535</v>
+        <v>0.9402542995998829</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015453095110958</v>
+        <v>1.035117888273069</v>
       </c>
       <c r="J23">
-        <v>0.9588361926374047</v>
+        <v>1.008292542709711</v>
       </c>
       <c r="K23">
-        <v>0.9750774597135026</v>
+        <v>1.016171644010294</v>
       </c>
       <c r="L23">
-        <v>0.9533629777772166</v>
+        <v>1.003518763411323</v>
       </c>
       <c r="M23">
-        <v>0.9012684794556243</v>
+        <v>0.9567672448263994</v>
       </c>
       <c r="N23">
-        <v>0.9601978500109982</v>
+        <v>1.006667926773753</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9437173502700285</v>
+        <v>0.984328232061115</v>
       </c>
       <c r="D24">
-        <v>0.9730400699468831</v>
+        <v>1.006009257291768</v>
       </c>
       <c r="E24">
-        <v>0.9541135658780427</v>
+        <v>0.9942368124261068</v>
       </c>
       <c r="F24">
-        <v>0.9083078178594164</v>
+        <v>0.952111652309065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021411358830831</v>
+        <v>1.037552296134733</v>
       </c>
       <c r="J24">
-        <v>0.9735683939689812</v>
+        <v>1.012443192261191</v>
       </c>
       <c r="K24">
-        <v>0.9875577724399445</v>
+        <v>1.0199316591097</v>
       </c>
       <c r="L24">
-        <v>0.9689974453391815</v>
+        <v>1.008365897684176</v>
       </c>
       <c r="M24">
-        <v>0.9241622393268915</v>
+        <v>0.9670353831478594</v>
       </c>
       <c r="N24">
-        <v>0.9749509727582728</v>
+        <v>1.008058288375765</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9630692846271048</v>
+        <v>0.9922369108684301</v>
       </c>
       <c r="D25">
-        <v>0.9877587412296885</v>
+        <v>1.011661205060754</v>
       </c>
       <c r="E25">
-        <v>0.9722577199347</v>
+        <v>1.001158803858461</v>
       </c>
       <c r="F25">
-        <v>0.9341039189306476</v>
+        <v>0.965151448540722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027569731749733</v>
+        <v>1.040203497158734</v>
       </c>
       <c r="J25">
-        <v>0.9889068020004879</v>
+        <v>1.017028388426655</v>
       </c>
       <c r="K25">
-        <v>1.000550106600689</v>
+        <v>1.0240811532823</v>
       </c>
       <c r="L25">
-        <v>0.9853025277381472</v>
+        <v>1.013739157484717</v>
       </c>
       <c r="M25">
-        <v>0.9478192592090289</v>
+        <v>0.9783159578855491</v>
       </c>
       <c r="N25">
-        <v>0.9903111630885241</v>
+        <v>1.009594287822452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9982845189146897</v>
+        <v>1.024834530972543</v>
       </c>
       <c r="D2">
-        <v>1.015992909577909</v>
+        <v>1.029451543376068</v>
       </c>
       <c r="E2">
-        <v>1.006471682867776</v>
+        <v>1.028460873359557</v>
       </c>
       <c r="F2">
-        <v>0.9750484137754676</v>
+        <v>1.023323649453514</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042188819598582</v>
+        <v>1.033078411116449</v>
       </c>
       <c r="J2">
-        <v>1.020516661074035</v>
+        <v>1.030006926736558</v>
       </c>
       <c r="K2">
-        <v>1.027233844908072</v>
+        <v>1.032265415549079</v>
       </c>
       <c r="L2">
-        <v>1.017841587199477</v>
+        <v>1.03127762403729</v>
       </c>
       <c r="M2">
-        <v>0.9868666677315232</v>
+        <v>1.026155424157137</v>
       </c>
       <c r="N2">
-        <v>1.010762744402207</v>
+        <v>1.014039889154075</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002537557689438</v>
+        <v>1.025707726061155</v>
       </c>
       <c r="D3">
-        <v>1.019043870598456</v>
+        <v>1.030091441484811</v>
       </c>
       <c r="E3">
-        <v>1.010218849935196</v>
+        <v>1.02928123888514</v>
       </c>
       <c r="F3">
-        <v>0.9819754356184991</v>
+        <v>1.024831569776284</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043560132243254</v>
+        <v>1.033292903308419</v>
       </c>
       <c r="J3">
-        <v>1.022959284550109</v>
+        <v>1.030519592120841</v>
       </c>
       <c r="K3">
-        <v>1.02943874487599</v>
+        <v>1.032713914928551</v>
       </c>
       <c r="L3">
-        <v>1.020722627260688</v>
+        <v>1.031905896316295</v>
       </c>
       <c r="M3">
-        <v>0.9928442601214226</v>
+        <v>1.027468288399024</v>
       </c>
       <c r="N3">
-        <v>1.011580826877135</v>
+        <v>1.014210708647057</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005229537523339</v>
+        <v>1.026272778027281</v>
       </c>
       <c r="D4">
-        <v>1.020976827568071</v>
+        <v>1.030505438472427</v>
       </c>
       <c r="E4">
-        <v>1.01259546495209</v>
+        <v>1.029812456275418</v>
       </c>
       <c r="F4">
-        <v>0.9863474537559659</v>
+        <v>1.025807341114255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044416392806817</v>
+        <v>1.03343029595293</v>
       </c>
       <c r="J4">
-        <v>1.024500410634003</v>
+        <v>1.030850731477438</v>
       </c>
       <c r="K4">
-        <v>1.030828504973604</v>
+        <v>1.033003378230903</v>
       </c>
       <c r="L4">
-        <v>1.022544213950905</v>
+        <v>1.032312170008731</v>
       </c>
       <c r="M4">
-        <v>0.996613494511881</v>
+        <v>1.028317358256902</v>
       </c>
       <c r="N4">
-        <v>1.012096904913408</v>
+        <v>1.01432100836261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006347411539797</v>
+        <v>1.026510334164934</v>
       </c>
       <c r="D5">
-        <v>1.021779905154919</v>
+        <v>1.030679467597263</v>
       </c>
       <c r="E5">
-        <v>1.013583513070738</v>
+        <v>1.030035871768976</v>
       </c>
       <c r="F5">
-        <v>0.9881603784538675</v>
+        <v>1.026217570720535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044769121574127</v>
+        <v>1.033487720810628</v>
       </c>
       <c r="J5">
-        <v>1.025139182741384</v>
+        <v>1.030989801058378</v>
       </c>
       <c r="K5">
-        <v>1.031404191015794</v>
+        <v>1.033124889609411</v>
       </c>
       <c r="L5">
-        <v>1.023300155217405</v>
+        <v>1.032482904646982</v>
       </c>
       <c r="M5">
-        <v>0.9981755822288558</v>
+        <v>1.028674205248501</v>
       </c>
       <c r="N5">
-        <v>1.012310789780595</v>
+        <v>1.014367322695932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006534311233731</v>
+        <v>1.026550221359914</v>
       </c>
       <c r="D6">
-        <v>1.021914195382172</v>
+        <v>1.030708686935712</v>
       </c>
       <c r="E6">
-        <v>1.013748772762681</v>
+        <v>1.030073389570013</v>
       </c>
       <c r="F6">
-        <v>0.9884633428599221</v>
+        <v>1.026286451101006</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044827926995491</v>
+        <v>1.033497343043279</v>
       </c>
       <c r="J6">
-        <v>1.025245909653917</v>
+        <v>1.031013143152302</v>
       </c>
       <c r="K6">
-        <v>1.031500356530085</v>
+        <v>1.033145281395072</v>
       </c>
       <c r="L6">
-        <v>1.023426513157407</v>
+        <v>1.0325115680466</v>
       </c>
       <c r="M6">
-        <v>0.9984365755181653</v>
+        <v>1.028734115553847</v>
       </c>
       <c r="N6">
-        <v>1.01234652461607</v>
+        <v>1.014375095807694</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005244528284256</v>
+        <v>1.02627595223196</v>
       </c>
       <c r="D7">
-        <v>1.020987595382074</v>
+        <v>1.030507763918982</v>
       </c>
       <c r="E7">
-        <v>1.012608710296758</v>
+        <v>1.029815441204756</v>
       </c>
       <c r="F7">
-        <v>0.9863717749850592</v>
+        <v>1.025812822556704</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044421134196489</v>
+        <v>1.033431064583417</v>
       </c>
       <c r="J7">
-        <v>1.024508981354814</v>
+        <v>1.030852590287985</v>
       </c>
       <c r="K7">
-        <v>1.030836230632321</v>
+        <v>1.033005002575788</v>
       </c>
       <c r="L7">
-        <v>1.022554353139955</v>
+        <v>1.032314451620759</v>
       </c>
       <c r="M7">
-        <v>0.9966344541798123</v>
+        <v>1.028322126860061</v>
       </c>
       <c r="N7">
-        <v>1.01209977480036</v>
+        <v>1.014321627435917</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9997346129095389</v>
+        <v>1.025129623566696</v>
       </c>
       <c r="D8">
-        <v>1.017032735856771</v>
+        <v>1.029667811812533</v>
       </c>
       <c r="E8">
-        <v>1.007748267749528</v>
+        <v>1.028738039369299</v>
       </c>
       <c r="F8">
-        <v>0.9774130797182639</v>
+        <v>1.023833251245234</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042658815835066</v>
+        <v>1.03315118907811</v>
       </c>
       <c r="J8">
-        <v>1.021350516283648</v>
+        <v>1.030180306272793</v>
       </c>
       <c r="K8">
-        <v>1.027986826685231</v>
+        <v>1.032417142164461</v>
       </c>
       <c r="L8">
-        <v>1.018824296826802</v>
+        <v>1.031490005254212</v>
       </c>
       <c r="M8">
-        <v>0.9889079541602093</v>
+        <v>1.02659920628766</v>
       </c>
       <c r="N8">
-        <v>1.01104203274367</v>
+        <v>1.014097666334997</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9895400293178533</v>
+        <v>1.023109942085735</v>
       </c>
       <c r="D9">
-        <v>1.009732186672549</v>
+        <v>1.028187288401749</v>
       </c>
       <c r="E9">
-        <v>0.9987951723985101</v>
+        <v>1.026842507355868</v>
       </c>
       <c r="F9">
-        <v>0.9607180617379207</v>
+        <v>1.020345153464808</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039305992590493</v>
+        <v>1.032647317132903</v>
       </c>
       <c r="J9">
-        <v>1.015467641214397</v>
+        <v>1.028991154145386</v>
       </c>
       <c r="K9">
-        <v>1.022669314936262</v>
+        <v>1.031375564667004</v>
       </c>
       <c r="L9">
-        <v>1.011907827381753</v>
+        <v>1.030035250316222</v>
       </c>
       <c r="M9">
-        <v>0.9744823232726796</v>
+        <v>1.02355965957043</v>
       </c>
       <c r="N9">
-        <v>1.009071455210925</v>
+        <v>1.013701248290021</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9823784434787336</v>
+        <v>1.021763708098009</v>
       </c>
       <c r="D10">
-        <v>1.004618209938083</v>
+        <v>1.027200039905849</v>
       </c>
       <c r="E10">
-        <v>0.9925345945553371</v>
+        <v>1.025580867946075</v>
       </c>
       <c r="F10">
-        <v>0.9488778052986565</v>
+        <v>1.018019591245646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036890132334358</v>
+        <v>1.032304227312153</v>
       </c>
       <c r="J10">
-        <v>1.011309080477056</v>
+        <v>1.028195374316797</v>
       </c>
       <c r="K10">
-        <v>1.018904578826155</v>
+        <v>1.030677377179178</v>
       </c>
       <c r="L10">
-        <v>1.007039960234262</v>
+        <v>1.029064110613141</v>
       </c>
       <c r="M10">
-        <v>0.9642357932963402</v>
+        <v>1.021530686242538</v>
       </c>
       <c r="N10">
-        <v>1.007678376489503</v>
+        <v>1.013435787389826</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9791811725703543</v>
+        <v>1.021180829838138</v>
       </c>
       <c r="D11">
-        <v>1.002339288236488</v>
+        <v>1.026772505180591</v>
       </c>
       <c r="E11">
-        <v>0.9897468701715738</v>
+        <v>1.025035057804908</v>
       </c>
       <c r="F11">
-        <v>0.9435570952183154</v>
+        <v>1.017012497542321</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035797629142982</v>
+        <v>1.03215396676004</v>
       </c>
       <c r="J11">
-        <v>1.00944643969014</v>
+        <v>1.027850081078308</v>
       </c>
       <c r="K11">
-        <v>1.017217223435226</v>
+        <v>1.030374157095443</v>
       </c>
       <c r="L11">
-        <v>1.004864770924887</v>
+        <v>1.02864329194426</v>
       </c>
       <c r="M11">
-        <v>0.9596281675994909</v>
+        <v>1.020651448306478</v>
       </c>
       <c r="N11">
-        <v>1.007054437161118</v>
+        <v>1.013320560940602</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9779782009887192</v>
+        <v>1.020964330601573</v>
       </c>
       <c r="D12">
-        <v>1.00148254151436</v>
+        <v>1.02661369304621</v>
       </c>
       <c r="E12">
-        <v>0.9886991251510862</v>
+        <v>1.024832393494869</v>
       </c>
       <c r="F12">
-        <v>0.9415491977308557</v>
+        <v>1.016638396282744</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035384514695129</v>
+        <v>1.032097898019157</v>
       </c>
       <c r="J12">
-        <v>1.008744715594673</v>
+        <v>1.027721716457257</v>
       </c>
       <c r="K12">
-        <v>1.016581393380197</v>
+        <v>1.030261392710768</v>
       </c>
       <c r="L12">
-        <v>1.004046082626403</v>
+        <v>1.028486935062655</v>
       </c>
       <c r="M12">
-        <v>0.9578889659016316</v>
+        <v>1.020324753666379</v>
       </c>
       <c r="N12">
-        <v>1.006819385212135</v>
+        <v>1.013277718713603</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9782369530150207</v>
+        <v>1.021010770071071</v>
       </c>
       <c r="D13">
-        <v>1.001666790095916</v>
+        <v>1.026647759079396</v>
       </c>
       <c r="E13">
-        <v>0.9889244369606344</v>
+        <v>1.024875862325336</v>
       </c>
       <c r="F13">
-        <v>0.9419813681889773</v>
+        <v>1.016718643345467</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035473465678201</v>
+        <v>1.032109936503504</v>
       </c>
       <c r="J13">
-        <v>1.008895693172303</v>
+        <v>1.027749255959444</v>
       </c>
       <c r="K13">
-        <v>1.016718199718032</v>
+        <v>1.030285587155608</v>
       </c>
       <c r="L13">
-        <v>1.004222189732817</v>
+        <v>1.028520476225518</v>
       </c>
       <c r="M13">
-        <v>0.9582633207091427</v>
+        <v>1.020394835668393</v>
       </c>
       <c r="N13">
-        <v>1.00686995673013</v>
+        <v>1.013286910415543</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9790820534522563</v>
+        <v>1.021162933785456</v>
       </c>
       <c r="D14">
-        <v>1.002268681858548</v>
+        <v>1.026759377852408</v>
       </c>
       <c r="E14">
-        <v>0.9896605176933483</v>
+        <v>1.025018303999534</v>
       </c>
       <c r="F14">
-        <v>0.9433917803859051</v>
+        <v>1.016981574691308</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035763632150231</v>
+        <v>1.032149337307037</v>
       </c>
       <c r="J14">
-        <v>1.009388639373076</v>
+        <v>1.027839472607614</v>
       </c>
       <c r="K14">
-        <v>1.01716485348825</v>
+        <v>1.03036483870726</v>
       </c>
       <c r="L14">
-        <v>1.004797320394098</v>
+        <v>1.028630368374191</v>
       </c>
       <c r="M14">
-        <v>0.9594849829292743</v>
+        <v>1.020624445824702</v>
       </c>
       <c r="N14">
-        <v>1.00703507596622</v>
+        <v>1.013317020444875</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9796006837102585</v>
+        <v>1.021256687898368</v>
       </c>
       <c r="D15">
-        <v>1.002638151001228</v>
+        <v>1.026828148996702</v>
       </c>
       <c r="E15">
-        <v>0.9901123943364343</v>
+        <v>1.025106076822285</v>
       </c>
       <c r="F15">
-        <v>0.9442565240951091</v>
+        <v>1.017143572321352</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035941434057723</v>
+        <v>1.032173579620672</v>
       </c>
       <c r="J15">
-        <v>1.009691036483693</v>
+        <v>1.027895043842569</v>
       </c>
       <c r="K15">
-        <v>1.017438834586944</v>
+        <v>1.030413650331698</v>
       </c>
       <c r="L15">
-        <v>1.005150237053885</v>
+        <v>1.028698070455195</v>
       </c>
       <c r="M15">
-        <v>0.9602339501483941</v>
+        <v>1.02076590197007</v>
       </c>
       <c r="N15">
-        <v>1.007136369372966</v>
+        <v>1.013335566665923</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9825885326300405</v>
+        <v>1.021802392877706</v>
       </c>
       <c r="D16">
-        <v>1.004768048241991</v>
+        <v>1.027228412996632</v>
       </c>
       <c r="E16">
-        <v>0.9927179279202546</v>
+        <v>1.025617101897697</v>
       </c>
       <c r="F16">
-        <v>0.9492266384512372</v>
+        <v>1.018086425969847</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036961632162081</v>
+        <v>1.032314163800474</v>
       </c>
       <c r="J16">
-        <v>1.011431346802957</v>
+        <v>1.028218275232121</v>
       </c>
       <c r="K16">
-        <v>1.019015318125261</v>
+        <v>1.030697481956284</v>
       </c>
       <c r="L16">
-        <v>1.007182850591303</v>
+        <v>1.029092032482421</v>
       </c>
       <c r="M16">
-        <v>0.9645378164201812</v>
+        <v>1.021589023677454</v>
       </c>
       <c r="N16">
-        <v>1.007719333675065</v>
+        <v>1.013443428695762</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9844363483832258</v>
+        <v>1.022144712706253</v>
       </c>
       <c r="D17">
-        <v>1.00608641947702</v>
+        <v>1.027479475280056</v>
       </c>
       <c r="E17">
-        <v>0.9943312498658359</v>
+        <v>1.02593778548485</v>
       </c>
       <c r="F17">
-        <v>0.9522907373449063</v>
+        <v>1.01867781998874</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037588919684569</v>
+        <v>1.032401893428544</v>
       </c>
       <c r="J17">
-        <v>1.012506038395202</v>
+        <v>1.028420838325356</v>
       </c>
       <c r="K17">
-        <v>1.019988566719977</v>
+        <v>1.030875281224946</v>
       </c>
       <c r="L17">
-        <v>1.008439408260502</v>
+        <v>1.029339071999872</v>
       </c>
       <c r="M17">
-        <v>0.9671903990427467</v>
+        <v>1.022105161196465</v>
       </c>
       <c r="N17">
-        <v>1.008079341156713</v>
+        <v>1.013511012765388</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.985504925506018</v>
+        <v>1.02234438687612</v>
       </c>
       <c r="D18">
-        <v>1.006849216483865</v>
+        <v>1.027625910825532</v>
       </c>
       <c r="E18">
-        <v>0.9952649094566484</v>
+        <v>1.026124881848524</v>
       </c>
       <c r="F18">
-        <v>0.9540594530260111</v>
+        <v>1.019022759865721</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037950351299933</v>
+        <v>1.032452900560601</v>
       </c>
       <c r="J18">
-        <v>1.013126949475886</v>
+        <v>1.02853892092391</v>
       </c>
       <c r="K18">
-        <v>1.020550761651615</v>
+        <v>1.030978901644104</v>
       </c>
       <c r="L18">
-        <v>1.009165880378439</v>
+        <v>1.029483136159443</v>
       </c>
       <c r="M18">
-        <v>0.9687212752888646</v>
+        <v>1.022406150258382</v>
       </c>
       <c r="N18">
-        <v>1.008287340500215</v>
+        <v>1.013550406375404</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9858677444969566</v>
+        <v>1.022412471416974</v>
       </c>
       <c r="D19">
-        <v>1.007108277349836</v>
+        <v>1.027675840718895</v>
       </c>
       <c r="E19">
-        <v>0.9955820348924248</v>
+        <v>1.026188684837523</v>
       </c>
       <c r="F19">
-        <v>0.9546594674698865</v>
+        <v>1.019140373872458</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038072844281993</v>
+        <v>1.032470264838777</v>
       </c>
       <c r="J19">
-        <v>1.013337672702345</v>
+        <v>1.028579172326317</v>
       </c>
       <c r="K19">
-        <v>1.020741539134792</v>
+        <v>1.031014218782211</v>
       </c>
       <c r="L19">
-        <v>1.009412510909555</v>
+        <v>1.029532253249223</v>
       </c>
       <c r="M19">
-        <v>0.9692405537074695</v>
+        <v>1.022508768824259</v>
       </c>
       <c r="N19">
-        <v>1.008357931058693</v>
+        <v>1.01356383399005</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9842390554365116</v>
+        <v>1.022107984529731</v>
       </c>
       <c r="D20">
-        <v>1.005945614510285</v>
+        <v>1.02745253916786</v>
       </c>
       <c r="E20">
-        <v>0.9941589223229659</v>
+        <v>1.025903374299872</v>
       </c>
       <c r="F20">
-        <v>0.9519639210253796</v>
+        <v>1.018614370105204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037522080760904</v>
+        <v>1.032392497839462</v>
       </c>
       <c r="J20">
-        <v>1.012391352191135</v>
+        <v>1.028399112361204</v>
       </c>
       <c r="K20">
-        <v>1.019884716959175</v>
+        <v>1.030856214030788</v>
       </c>
       <c r="L20">
-        <v>1.008305263558708</v>
+        <v>1.029312570078895</v>
       </c>
       <c r="M20">
-        <v>0.9669075053538992</v>
+        <v>1.022049791303388</v>
       </c>
       <c r="N20">
-        <v>1.008040922520847</v>
+        <v>1.013503764429919</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9788336241607073</v>
+        <v>1.021118125149967</v>
       </c>
       <c r="D21">
-        <v>1.002091727517046</v>
+        <v>1.026726509084771</v>
       </c>
       <c r="E21">
-        <v>0.9894441047502034</v>
+        <v>1.024976356432917</v>
       </c>
       <c r="F21">
-        <v>0.9429773409234192</v>
+        <v>1.016904148608296</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035678390004729</v>
+        <v>1.032137741797989</v>
       </c>
       <c r="J21">
-        <v>1.009243755743052</v>
+        <v>1.027812909015349</v>
       </c>
       <c r="K21">
-        <v>1.017033579546483</v>
+        <v>1.030341504823227</v>
       </c>
       <c r="L21">
-        <v>1.004628259972501</v>
+        <v>1.02859800914537</v>
       </c>
       <c r="M21">
-        <v>0.9591260168620848</v>
+        <v>1.020556834333279</v>
       </c>
       <c r="N21">
-        <v>1.006986544893787</v>
+        <v>1.013308154950195</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9753456246907434</v>
+        <v>1.020495805926263</v>
       </c>
       <c r="D22">
-        <v>0.9996089975286728</v>
+        <v>1.026269986749697</v>
       </c>
       <c r="E22">
-        <v>0.9864083779555326</v>
+        <v>1.024393931215162</v>
       </c>
       <c r="F22">
-        <v>0.9371431822250722</v>
+        <v>1.015828735607559</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034476704776355</v>
+        <v>1.031976089673028</v>
       </c>
       <c r="J22">
-        <v>1.007207401426262</v>
+        <v>1.027443718741589</v>
       </c>
       <c r="K22">
-        <v>1.015188204235834</v>
+        <v>1.030017106119207</v>
       </c>
       <c r="L22">
-        <v>1.002253983094237</v>
+        <v>1.028148469800551</v>
       </c>
       <c r="M22">
-        <v>0.9540718910694933</v>
+        <v>1.019617534487036</v>
       </c>
       <c r="N22">
-        <v>1.006304461789126</v>
+        <v>1.013184924590774</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9772034744998978</v>
+        <v>1.020825704823313</v>
       </c>
       <c r="D23">
-        <v>1.00093099217312</v>
+        <v>1.02651200126857</v>
       </c>
       <c r="E23">
-        <v>0.9880246910222492</v>
+        <v>1.024702645117708</v>
       </c>
       <c r="F23">
-        <v>0.9402542995998829</v>
+        <v>1.016398846378074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035117888273069</v>
+        <v>1.032061924454403</v>
       </c>
       <c r="J23">
-        <v>1.008292542709711</v>
+        <v>1.027639492308863</v>
       </c>
       <c r="K23">
-        <v>1.016171644010294</v>
+        <v>1.030189149897969</v>
       </c>
       <c r="L23">
-        <v>1.003518763411323</v>
+        <v>1.028386804278331</v>
       </c>
       <c r="M23">
-        <v>0.9567672448263994</v>
+        <v>1.020115535244258</v>
       </c>
       <c r="N23">
-        <v>1.006667926773753</v>
+        <v>1.013250274331081</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.984328232061115</v>
+        <v>1.022124580396813</v>
       </c>
       <c r="D24">
-        <v>1.006009257291768</v>
+        <v>1.027464710452476</v>
       </c>
       <c r="E24">
-        <v>0.9942368124261068</v>
+        <v>1.025918923087741</v>
       </c>
       <c r="F24">
-        <v>0.952111652309065</v>
+        <v>1.018643040406817</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037552296134733</v>
+        <v>1.032396743808671</v>
       </c>
       <c r="J24">
-        <v>1.012443192261191</v>
+        <v>1.028408929602425</v>
       </c>
       <c r="K24">
-        <v>1.0199316591097</v>
+        <v>1.030864829943515</v>
       </c>
       <c r="L24">
-        <v>1.008365897684176</v>
+        <v>1.029324545248278</v>
       </c>
       <c r="M24">
-        <v>0.9670353831478594</v>
+        <v>1.022074810775131</v>
       </c>
       <c r="N24">
-        <v>1.008058288375765</v>
+        <v>1.013507039724229</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9922369108684301</v>
+        <v>1.023632040865396</v>
       </c>
       <c r="D25">
-        <v>1.011661205060754</v>
+        <v>1.028570083858744</v>
       </c>
       <c r="E25">
-        <v>1.001158803858461</v>
+        <v>1.027332189630659</v>
       </c>
       <c r="F25">
-        <v>0.965151448540722</v>
+        <v>1.021246919287642</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040203497158734</v>
+        <v>1.032778845939936</v>
       </c>
       <c r="J25">
-        <v>1.017028388426655</v>
+        <v>1.029299110395135</v>
       </c>
       <c r="K25">
-        <v>1.0240811532823</v>
+        <v>1.031645509422442</v>
       </c>
       <c r="L25">
-        <v>1.013739157484717</v>
+        <v>1.030411570814201</v>
       </c>
       <c r="M25">
-        <v>0.9783159578855491</v>
+        <v>1.024345898304576</v>
       </c>
       <c r="N25">
-        <v>1.009594287822452</v>
+        <v>1.01380394079385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024834530972543</v>
+        <v>0.9982845189146897</v>
       </c>
       <c r="D2">
-        <v>1.029451543376068</v>
+        <v>1.015992909577909</v>
       </c>
       <c r="E2">
-        <v>1.028460873359557</v>
+        <v>1.006471682867776</v>
       </c>
       <c r="F2">
-        <v>1.023323649453514</v>
+        <v>0.975048413775468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033078411116449</v>
+        <v>1.042188819598582</v>
       </c>
       <c r="J2">
-        <v>1.030006926736558</v>
+        <v>1.020516661074035</v>
       </c>
       <c r="K2">
-        <v>1.032265415549079</v>
+        <v>1.027233844908072</v>
       </c>
       <c r="L2">
-        <v>1.03127762403729</v>
+        <v>1.017841587199477</v>
       </c>
       <c r="M2">
-        <v>1.026155424157137</v>
+        <v>0.9868666677315234</v>
       </c>
       <c r="N2">
-        <v>1.014039889154075</v>
+        <v>1.010762744402207</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025707726061155</v>
+        <v>1.002537557689437</v>
       </c>
       <c r="D3">
-        <v>1.030091441484811</v>
+        <v>1.019043870598455</v>
       </c>
       <c r="E3">
-        <v>1.02928123888514</v>
+        <v>1.010218849935195</v>
       </c>
       <c r="F3">
-        <v>1.024831569776284</v>
+        <v>0.9819754356184981</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033292903308419</v>
+        <v>1.043560132243253</v>
       </c>
       <c r="J3">
-        <v>1.030519592120841</v>
+        <v>1.022959284550109</v>
       </c>
       <c r="K3">
-        <v>1.032713914928551</v>
+        <v>1.029438744875989</v>
       </c>
       <c r="L3">
-        <v>1.031905896316295</v>
+        <v>1.020722627260687</v>
       </c>
       <c r="M3">
-        <v>1.027468288399024</v>
+        <v>0.9928442601214218</v>
       </c>
       <c r="N3">
-        <v>1.014210708647057</v>
+        <v>1.011580826877135</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026272778027281</v>
+        <v>1.005229537523339</v>
       </c>
       <c r="D4">
-        <v>1.030505438472427</v>
+        <v>1.020976827568071</v>
       </c>
       <c r="E4">
-        <v>1.029812456275418</v>
+        <v>1.01259546495209</v>
       </c>
       <c r="F4">
-        <v>1.025807341114255</v>
+        <v>0.9863474537559661</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03343029595293</v>
+        <v>1.044416392806817</v>
       </c>
       <c r="J4">
-        <v>1.030850731477438</v>
+        <v>1.024500410634003</v>
       </c>
       <c r="K4">
-        <v>1.033003378230903</v>
+        <v>1.030828504973604</v>
       </c>
       <c r="L4">
-        <v>1.032312170008731</v>
+        <v>1.022544213950905</v>
       </c>
       <c r="M4">
-        <v>1.028317358256902</v>
+        <v>0.9966134945118812</v>
       </c>
       <c r="N4">
-        <v>1.01432100836261</v>
+        <v>1.012096904913408</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026510334164934</v>
+        <v>1.006347411539797</v>
       </c>
       <c r="D5">
-        <v>1.030679467597263</v>
+        <v>1.021779905154918</v>
       </c>
       <c r="E5">
-        <v>1.030035871768976</v>
+        <v>1.013583513070737</v>
       </c>
       <c r="F5">
-        <v>1.026217570720535</v>
+        <v>0.9881603784538664</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033487720810628</v>
+        <v>1.044769121574127</v>
       </c>
       <c r="J5">
-        <v>1.030989801058378</v>
+        <v>1.025139182741383</v>
       </c>
       <c r="K5">
-        <v>1.033124889609411</v>
+        <v>1.031404191015793</v>
       </c>
       <c r="L5">
-        <v>1.032482904646982</v>
+        <v>1.023300155217404</v>
       </c>
       <c r="M5">
-        <v>1.028674205248501</v>
+        <v>0.9981755822288548</v>
       </c>
       <c r="N5">
-        <v>1.014367322695932</v>
+        <v>1.012310789780594</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026550221359914</v>
+        <v>1.00653431123373</v>
       </c>
       <c r="D6">
-        <v>1.030708686935712</v>
+        <v>1.021914195382171</v>
       </c>
       <c r="E6">
-        <v>1.030073389570013</v>
+        <v>1.013748772762681</v>
       </c>
       <c r="F6">
-        <v>1.026286451101006</v>
+        <v>0.9884633428599205</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033497343043279</v>
+        <v>1.044827926995491</v>
       </c>
       <c r="J6">
-        <v>1.031013143152302</v>
+        <v>1.025245909653916</v>
       </c>
       <c r="K6">
-        <v>1.033145281395072</v>
+        <v>1.031500356530084</v>
       </c>
       <c r="L6">
-        <v>1.0325115680466</v>
+        <v>1.023426513157406</v>
       </c>
       <c r="M6">
-        <v>1.028734115553847</v>
+        <v>0.998436575518164</v>
       </c>
       <c r="N6">
-        <v>1.014375095807694</v>
+        <v>1.012346524616069</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02627595223196</v>
+        <v>1.005244528284256</v>
       </c>
       <c r="D7">
-        <v>1.030507763918982</v>
+        <v>1.020987595382074</v>
       </c>
       <c r="E7">
-        <v>1.029815441204756</v>
+        <v>1.012608710296758</v>
       </c>
       <c r="F7">
-        <v>1.025812822556704</v>
+        <v>0.9863717749850589</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033431064583417</v>
+        <v>1.044421134196489</v>
       </c>
       <c r="J7">
-        <v>1.030852590287985</v>
+        <v>1.024508981354814</v>
       </c>
       <c r="K7">
-        <v>1.033005002575788</v>
+        <v>1.030836230632321</v>
       </c>
       <c r="L7">
-        <v>1.032314451620759</v>
+        <v>1.022554353139955</v>
       </c>
       <c r="M7">
-        <v>1.028322126860061</v>
+        <v>0.9966344541798118</v>
       </c>
       <c r="N7">
-        <v>1.014321627435917</v>
+        <v>1.01209977480036</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025129623566696</v>
+        <v>0.9997346129095396</v>
       </c>
       <c r="D8">
-        <v>1.029667811812533</v>
+        <v>1.017032735856771</v>
       </c>
       <c r="E8">
-        <v>1.028738039369299</v>
+        <v>1.007748267749529</v>
       </c>
       <c r="F8">
-        <v>1.023833251245234</v>
+        <v>0.9774130797182643</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03315118907811</v>
+        <v>1.042658815835066</v>
       </c>
       <c r="J8">
-        <v>1.030180306272793</v>
+        <v>1.021350516283649</v>
       </c>
       <c r="K8">
-        <v>1.032417142164461</v>
+        <v>1.027986826685231</v>
       </c>
       <c r="L8">
-        <v>1.031490005254212</v>
+        <v>1.018824296826803</v>
       </c>
       <c r="M8">
-        <v>1.02659920628766</v>
+        <v>0.9889079541602098</v>
       </c>
       <c r="N8">
-        <v>1.014097666334997</v>
+        <v>1.01104203274367</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023109942085735</v>
+        <v>0.9895400293178539</v>
       </c>
       <c r="D9">
-        <v>1.028187288401749</v>
+        <v>1.009732186672549</v>
       </c>
       <c r="E9">
-        <v>1.026842507355868</v>
+        <v>0.9987951723985105</v>
       </c>
       <c r="F9">
-        <v>1.020345153464808</v>
+        <v>0.9607180617379216</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032647317132903</v>
+        <v>1.039305992590494</v>
       </c>
       <c r="J9">
-        <v>1.028991154145386</v>
+        <v>1.015467641214397</v>
       </c>
       <c r="K9">
-        <v>1.031375564667004</v>
+        <v>1.022669314936262</v>
       </c>
       <c r="L9">
-        <v>1.030035250316222</v>
+        <v>1.011907827381753</v>
       </c>
       <c r="M9">
-        <v>1.02355965957043</v>
+        <v>0.9744823232726806</v>
       </c>
       <c r="N9">
-        <v>1.013701248290021</v>
+        <v>1.009071455210925</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021763708098009</v>
+        <v>0.9823784434787337</v>
       </c>
       <c r="D10">
-        <v>1.027200039905849</v>
+        <v>1.004618209938083</v>
       </c>
       <c r="E10">
-        <v>1.025580867946075</v>
+        <v>0.9925345945553373</v>
       </c>
       <c r="F10">
-        <v>1.018019591245646</v>
+        <v>0.9488778052986568</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032304227312153</v>
+        <v>1.036890132334358</v>
       </c>
       <c r="J10">
-        <v>1.028195374316797</v>
+        <v>1.011309080477056</v>
       </c>
       <c r="K10">
-        <v>1.030677377179178</v>
+        <v>1.018904578826155</v>
       </c>
       <c r="L10">
-        <v>1.029064110613141</v>
+        <v>1.007039960234262</v>
       </c>
       <c r="M10">
-        <v>1.021530686242538</v>
+        <v>0.9642357932963405</v>
       </c>
       <c r="N10">
-        <v>1.013435787389826</v>
+        <v>1.007678376489503</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021180829838138</v>
+        <v>0.9791811725703544</v>
       </c>
       <c r="D11">
-        <v>1.026772505180591</v>
+        <v>1.002339288236489</v>
       </c>
       <c r="E11">
-        <v>1.025035057804908</v>
+        <v>0.9897468701715738</v>
       </c>
       <c r="F11">
-        <v>1.017012497542321</v>
+        <v>0.9435570952183149</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03215396676004</v>
+        <v>1.035797629142982</v>
       </c>
       <c r="J11">
-        <v>1.027850081078308</v>
+        <v>1.00944643969014</v>
       </c>
       <c r="K11">
-        <v>1.030374157095443</v>
+        <v>1.017217223435226</v>
       </c>
       <c r="L11">
-        <v>1.02864329194426</v>
+        <v>1.004864770924887</v>
       </c>
       <c r="M11">
-        <v>1.020651448306478</v>
+        <v>0.9596281675994905</v>
       </c>
       <c r="N11">
-        <v>1.013320560940602</v>
+        <v>1.007054437161118</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020964330601573</v>
+        <v>0.9779782009887181</v>
       </c>
       <c r="D12">
-        <v>1.02661369304621</v>
+        <v>1.001482541514358</v>
       </c>
       <c r="E12">
-        <v>1.024832393494869</v>
+        <v>0.988699125151085</v>
       </c>
       <c r="F12">
-        <v>1.016638396282744</v>
+        <v>0.9415491977308548</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032097898019157</v>
+        <v>1.035384514695128</v>
       </c>
       <c r="J12">
-        <v>1.027721716457257</v>
+        <v>1.008744715594672</v>
       </c>
       <c r="K12">
-        <v>1.030261392710768</v>
+        <v>1.016581393380196</v>
       </c>
       <c r="L12">
-        <v>1.028486935062655</v>
+        <v>1.004046082626401</v>
       </c>
       <c r="M12">
-        <v>1.020324753666379</v>
+        <v>0.9578889659016305</v>
       </c>
       <c r="N12">
-        <v>1.013277718713603</v>
+        <v>1.006819385212135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021010770071071</v>
+        <v>0.9782369530150199</v>
       </c>
       <c r="D13">
-        <v>1.026647759079396</v>
+        <v>1.001666790095915</v>
       </c>
       <c r="E13">
-        <v>1.024875862325336</v>
+        <v>0.9889244369606335</v>
       </c>
       <c r="F13">
-        <v>1.016718643345467</v>
+        <v>0.9419813681889775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032109936503504</v>
+        <v>1.035473465678201</v>
       </c>
       <c r="J13">
-        <v>1.027749255959444</v>
+        <v>1.008895693172303</v>
       </c>
       <c r="K13">
-        <v>1.030285587155608</v>
+        <v>1.016718199718031</v>
       </c>
       <c r="L13">
-        <v>1.028520476225518</v>
+        <v>1.004222189732816</v>
       </c>
       <c r="M13">
-        <v>1.020394835668393</v>
+        <v>0.9582633207091428</v>
       </c>
       <c r="N13">
-        <v>1.013286910415543</v>
+        <v>1.00686995673013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021162933785456</v>
+        <v>0.9790820534522565</v>
       </c>
       <c r="D14">
-        <v>1.026759377852408</v>
+        <v>1.002268681858548</v>
       </c>
       <c r="E14">
-        <v>1.025018303999534</v>
+        <v>0.9896605176933481</v>
       </c>
       <c r="F14">
-        <v>1.016981574691308</v>
+        <v>0.9433917803859052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032149337307037</v>
+        <v>1.03576363215023</v>
       </c>
       <c r="J14">
-        <v>1.027839472607614</v>
+        <v>1.009388639373076</v>
       </c>
       <c r="K14">
-        <v>1.03036483870726</v>
+        <v>1.01716485348825</v>
       </c>
       <c r="L14">
-        <v>1.028630368374191</v>
+        <v>1.004797320394098</v>
       </c>
       <c r="M14">
-        <v>1.020624445824702</v>
+        <v>0.9594849829292744</v>
       </c>
       <c r="N14">
-        <v>1.013317020444875</v>
+        <v>1.007035075966219</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021256687898368</v>
+        <v>0.9796006837102581</v>
       </c>
       <c r="D15">
-        <v>1.026828148996702</v>
+        <v>1.002638151001227</v>
       </c>
       <c r="E15">
-        <v>1.025106076822285</v>
+        <v>0.9901123943364341</v>
       </c>
       <c r="F15">
-        <v>1.017143572321352</v>
+        <v>0.944256524095108</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032173579620672</v>
+        <v>1.035941434057723</v>
       </c>
       <c r="J15">
-        <v>1.027895043842569</v>
+        <v>1.009691036483693</v>
       </c>
       <c r="K15">
-        <v>1.030413650331698</v>
+        <v>1.017438834586944</v>
       </c>
       <c r="L15">
-        <v>1.028698070455195</v>
+        <v>1.005150237053885</v>
       </c>
       <c r="M15">
-        <v>1.02076590197007</v>
+        <v>0.960233950148393</v>
       </c>
       <c r="N15">
-        <v>1.013335566665923</v>
+        <v>1.007136369372966</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021802392877706</v>
+        <v>0.9825885326300402</v>
       </c>
       <c r="D16">
-        <v>1.027228412996632</v>
+        <v>1.00476804824199</v>
       </c>
       <c r="E16">
-        <v>1.025617101897697</v>
+        <v>0.9927179279202543</v>
       </c>
       <c r="F16">
-        <v>1.018086425969847</v>
+        <v>0.9492266384512369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032314163800474</v>
+        <v>1.036961632162081</v>
       </c>
       <c r="J16">
-        <v>1.028218275232121</v>
+        <v>1.011431346802957</v>
       </c>
       <c r="K16">
-        <v>1.030697481956284</v>
+        <v>1.01901531812526</v>
       </c>
       <c r="L16">
-        <v>1.029092032482421</v>
+        <v>1.007182850591303</v>
       </c>
       <c r="M16">
-        <v>1.021589023677454</v>
+        <v>0.9645378164201807</v>
       </c>
       <c r="N16">
-        <v>1.013443428695762</v>
+        <v>1.007719333675064</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022144712706253</v>
+        <v>0.9844363483832252</v>
       </c>
       <c r="D17">
-        <v>1.027479475280056</v>
+        <v>1.006086419477019</v>
       </c>
       <c r="E17">
-        <v>1.02593778548485</v>
+        <v>0.994331249865835</v>
       </c>
       <c r="F17">
-        <v>1.01867781998874</v>
+        <v>0.9522907373449054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032401893428544</v>
+        <v>1.037588919684569</v>
       </c>
       <c r="J17">
-        <v>1.028420838325356</v>
+        <v>1.012506038395202</v>
       </c>
       <c r="K17">
-        <v>1.030875281224946</v>
+        <v>1.019988566719977</v>
       </c>
       <c r="L17">
-        <v>1.029339071999872</v>
+        <v>1.008439408260501</v>
       </c>
       <c r="M17">
-        <v>1.022105161196465</v>
+        <v>0.9671903990427458</v>
       </c>
       <c r="N17">
-        <v>1.013511012765388</v>
+        <v>1.008079341156713</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02234438687612</v>
+        <v>0.9855049255060175</v>
       </c>
       <c r="D18">
-        <v>1.027625910825532</v>
+        <v>1.006849216483864</v>
       </c>
       <c r="E18">
-        <v>1.026124881848524</v>
+        <v>0.9952649094566476</v>
       </c>
       <c r="F18">
-        <v>1.019022759865721</v>
+        <v>0.9540594530260108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032452900560601</v>
+        <v>1.037950351299933</v>
       </c>
       <c r="J18">
-        <v>1.02853892092391</v>
+        <v>1.013126949475886</v>
       </c>
       <c r="K18">
-        <v>1.030978901644104</v>
+        <v>1.020550761651614</v>
       </c>
       <c r="L18">
-        <v>1.029483136159443</v>
+        <v>1.009165880378438</v>
       </c>
       <c r="M18">
-        <v>1.022406150258382</v>
+        <v>0.9687212752888646</v>
       </c>
       <c r="N18">
-        <v>1.013550406375404</v>
+        <v>1.008287340500214</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022412471416974</v>
+        <v>0.9858677444969565</v>
       </c>
       <c r="D19">
-        <v>1.027675840718895</v>
+        <v>1.007108277349836</v>
       </c>
       <c r="E19">
-        <v>1.026188684837523</v>
+        <v>0.9955820348924246</v>
       </c>
       <c r="F19">
-        <v>1.019140373872458</v>
+        <v>0.9546594674698864</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032470264838777</v>
+        <v>1.038072844281993</v>
       </c>
       <c r="J19">
-        <v>1.028579172326317</v>
+        <v>1.013337672702345</v>
       </c>
       <c r="K19">
-        <v>1.031014218782211</v>
+        <v>1.020741539134792</v>
       </c>
       <c r="L19">
-        <v>1.029532253249223</v>
+        <v>1.009412510909555</v>
       </c>
       <c r="M19">
-        <v>1.022508768824259</v>
+        <v>0.9692405537074695</v>
       </c>
       <c r="N19">
-        <v>1.01356383399005</v>
+        <v>1.008357931058693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.022107984529731</v>
+        <v>0.9842390554365116</v>
       </c>
       <c r="D20">
-        <v>1.02745253916786</v>
+        <v>1.005945614510285</v>
       </c>
       <c r="E20">
-        <v>1.025903374299872</v>
+        <v>0.9941589223229653</v>
       </c>
       <c r="F20">
-        <v>1.018614370105204</v>
+        <v>0.9519639210253799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032392497839462</v>
+        <v>1.037522080760904</v>
       </c>
       <c r="J20">
-        <v>1.028399112361204</v>
+        <v>1.012391352191135</v>
       </c>
       <c r="K20">
-        <v>1.030856214030788</v>
+        <v>1.019884716959175</v>
       </c>
       <c r="L20">
-        <v>1.029312570078895</v>
+        <v>1.008305263558707</v>
       </c>
       <c r="M20">
-        <v>1.022049791303388</v>
+        <v>0.9669075053538995</v>
       </c>
       <c r="N20">
-        <v>1.013503764429919</v>
+        <v>1.008040922520847</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021118125149967</v>
+        <v>0.9788336241607075</v>
       </c>
       <c r="D21">
-        <v>1.026726509084771</v>
+        <v>1.002091727517046</v>
       </c>
       <c r="E21">
-        <v>1.024976356432917</v>
+        <v>0.9894441047502036</v>
       </c>
       <c r="F21">
-        <v>1.016904148608296</v>
+        <v>0.9429773409234206</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032137741797989</v>
+        <v>1.035678390004729</v>
       </c>
       <c r="J21">
-        <v>1.027812909015349</v>
+        <v>1.009243755743053</v>
       </c>
       <c r="K21">
-        <v>1.030341504823227</v>
+        <v>1.017033579546483</v>
       </c>
       <c r="L21">
-        <v>1.02859800914537</v>
+        <v>1.004628259972501</v>
       </c>
       <c r="M21">
-        <v>1.020556834333279</v>
+        <v>0.9591260168620859</v>
       </c>
       <c r="N21">
-        <v>1.013308154950195</v>
+        <v>1.006986544893788</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020495805926263</v>
+        <v>0.975345624690744</v>
       </c>
       <c r="D22">
-        <v>1.026269986749697</v>
+        <v>0.9996089975286734</v>
       </c>
       <c r="E22">
-        <v>1.024393931215162</v>
+        <v>0.9864083779555335</v>
       </c>
       <c r="F22">
-        <v>1.015828735607559</v>
+        <v>0.9371431822250731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031976089673028</v>
+        <v>1.034476704776356</v>
       </c>
       <c r="J22">
-        <v>1.027443718741589</v>
+        <v>1.007207401426262</v>
       </c>
       <c r="K22">
-        <v>1.030017106119207</v>
+        <v>1.015188204235834</v>
       </c>
       <c r="L22">
-        <v>1.028148469800551</v>
+        <v>1.002253983094238</v>
       </c>
       <c r="M22">
-        <v>1.019617534487036</v>
+        <v>0.9540718910694942</v>
       </c>
       <c r="N22">
-        <v>1.013184924590774</v>
+        <v>1.006304461789126</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020825704823313</v>
+        <v>0.9772034744998981</v>
       </c>
       <c r="D23">
-        <v>1.02651200126857</v>
+        <v>1.00093099217312</v>
       </c>
       <c r="E23">
-        <v>1.024702645117708</v>
+        <v>0.9880246910222491</v>
       </c>
       <c r="F23">
-        <v>1.016398846378074</v>
+        <v>0.9402542995998825</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032061924454403</v>
+        <v>1.035117888273069</v>
       </c>
       <c r="J23">
-        <v>1.027639492308863</v>
+        <v>1.008292542709711</v>
       </c>
       <c r="K23">
-        <v>1.030189149897969</v>
+        <v>1.016171644010294</v>
       </c>
       <c r="L23">
-        <v>1.028386804278331</v>
+        <v>1.003518763411323</v>
       </c>
       <c r="M23">
-        <v>1.020115535244258</v>
+        <v>0.9567672448263991</v>
       </c>
       <c r="N23">
-        <v>1.013250274331081</v>
+        <v>1.006667926773753</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022124580396813</v>
+        <v>0.9843282320611159</v>
       </c>
       <c r="D24">
-        <v>1.027464710452476</v>
+        <v>1.006009257291769</v>
       </c>
       <c r="E24">
-        <v>1.025918923087741</v>
+        <v>0.9942368124261077</v>
       </c>
       <c r="F24">
-        <v>1.018643040406817</v>
+        <v>0.9521116523090665</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032396743808671</v>
+        <v>1.037552296134734</v>
       </c>
       <c r="J24">
-        <v>1.028408929602425</v>
+        <v>1.012443192261192</v>
       </c>
       <c r="K24">
-        <v>1.030864829943515</v>
+        <v>1.019931659109701</v>
       </c>
       <c r="L24">
-        <v>1.029324545248278</v>
+        <v>1.008365897684177</v>
       </c>
       <c r="M24">
-        <v>1.022074810775131</v>
+        <v>0.967035383147861</v>
       </c>
       <c r="N24">
-        <v>1.013507039724229</v>
+        <v>1.008058288375765</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023632040865396</v>
+        <v>0.9922369108684302</v>
       </c>
       <c r="D25">
-        <v>1.028570083858744</v>
+        <v>1.011661205060754</v>
       </c>
       <c r="E25">
-        <v>1.027332189630659</v>
+        <v>1.001158803858461</v>
       </c>
       <c r="F25">
-        <v>1.021246919287642</v>
+        <v>0.9651514485407222</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032778845939936</v>
+        <v>1.040203497158734</v>
       </c>
       <c r="J25">
-        <v>1.029299110395135</v>
+        <v>1.017028388426655</v>
       </c>
       <c r="K25">
-        <v>1.031645509422442</v>
+        <v>1.0240811532823</v>
       </c>
       <c r="L25">
-        <v>1.030411570814201</v>
+        <v>1.013739157484717</v>
       </c>
       <c r="M25">
-        <v>1.024345898304576</v>
+        <v>0.9783159578855494</v>
       </c>
       <c r="N25">
-        <v>1.01380394079385</v>
+        <v>1.009594287822452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9982845189146897</v>
+        <v>1.004603376487242</v>
       </c>
       <c r="D2">
-        <v>1.015992909577909</v>
+        <v>1.022788141452629</v>
       </c>
       <c r="E2">
-        <v>1.006471682867776</v>
+        <v>1.012748146552969</v>
       </c>
       <c r="F2">
-        <v>0.975048413775468</v>
+        <v>1.018616463782961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042188819598582</v>
+        <v>1.043334644068775</v>
       </c>
       <c r="J2">
-        <v>1.020516661074035</v>
+        <v>1.026647267754299</v>
       </c>
       <c r="K2">
-        <v>1.027233844908072</v>
+        <v>1.033938874006646</v>
       </c>
       <c r="L2">
-        <v>1.017841587199477</v>
+        <v>1.024032691058233</v>
       </c>
       <c r="M2">
-        <v>0.9868666677315234</v>
+        <v>1.029822393913089</v>
       </c>
       <c r="N2">
-        <v>1.010762744402207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012736728702341</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.032174766001583</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035067956730724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002537557689437</v>
+        <v>1.008053462291496</v>
       </c>
       <c r="D3">
-        <v>1.019043870598455</v>
+        <v>1.025012309758003</v>
       </c>
       <c r="E3">
-        <v>1.010218849935195</v>
+        <v>1.015703981927196</v>
       </c>
       <c r="F3">
-        <v>0.9819754356184981</v>
+        <v>1.021514274806323</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043560132243253</v>
+        <v>1.044066376473405</v>
       </c>
       <c r="J3">
-        <v>1.022959284550109</v>
+        <v>1.028326963766976</v>
       </c>
       <c r="K3">
-        <v>1.029438744875989</v>
+        <v>1.035334851520421</v>
       </c>
       <c r="L3">
-        <v>1.020722627260687</v>
+        <v>1.026139794351875</v>
       </c>
       <c r="M3">
-        <v>0.9928442601214218</v>
+        <v>1.031879082482968</v>
       </c>
       <c r="N3">
-        <v>1.011580826877135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013309223156883</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.033802514306128</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036052365112987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005229537523339</v>
+        <v>1.01024731361008</v>
       </c>
       <c r="D4">
-        <v>1.020976827568071</v>
+        <v>1.026430537776787</v>
       </c>
       <c r="E4">
-        <v>1.01259546495209</v>
+        <v>1.017588713038927</v>
       </c>
       <c r="F4">
-        <v>0.9863474537559661</v>
+        <v>1.023363236395282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044416392806817</v>
+        <v>1.044523773566458</v>
       </c>
       <c r="J4">
-        <v>1.024500410634003</v>
+        <v>1.029392475343849</v>
       </c>
       <c r="K4">
-        <v>1.030828504973604</v>
+        <v>1.036220100804311</v>
       </c>
       <c r="L4">
-        <v>1.022544213950905</v>
+        <v>1.027479393145052</v>
       </c>
       <c r="M4">
-        <v>0.9966134945118812</v>
+        <v>1.033187633594978</v>
       </c>
       <c r="N4">
-        <v>1.012096904913408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013672312133368</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034838153755577</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036679217282371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006347411539797</v>
+        <v>1.01116336467046</v>
       </c>
       <c r="D5">
-        <v>1.021779905154918</v>
+        <v>1.027025785478271</v>
       </c>
       <c r="E5">
-        <v>1.013583513070737</v>
+        <v>1.018377278354783</v>
       </c>
       <c r="F5">
-        <v>0.9881603784538664</v>
+        <v>1.024135639373285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044769121574127</v>
+        <v>1.04471425670637</v>
       </c>
       <c r="J5">
-        <v>1.025139182741383</v>
+        <v>1.029838086636418</v>
       </c>
       <c r="K5">
-        <v>1.031404191015793</v>
+        <v>1.036591912153122</v>
       </c>
       <c r="L5">
-        <v>1.023300155217404</v>
+        <v>1.028039682439814</v>
       </c>
       <c r="M5">
-        <v>0.9981755822288548</v>
+        <v>1.033733717418042</v>
       </c>
       <c r="N5">
-        <v>1.012310789780594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013824395112852</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035270345785647</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0369493212801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00653431123373</v>
+        <v>1.011319992893169</v>
       </c>
       <c r="D6">
-        <v>1.021914195382171</v>
+        <v>1.027130228199888</v>
       </c>
       <c r="E6">
-        <v>1.013748772762681</v>
+        <v>1.01851262951618</v>
       </c>
       <c r="F6">
-        <v>0.9884633428599205</v>
+        <v>1.024266419700144</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044827926995491</v>
+        <v>1.044748442522986</v>
       </c>
       <c r="J6">
-        <v>1.025245909653916</v>
+        <v>1.029915875504501</v>
       </c>
       <c r="K6">
-        <v>1.031500356530084</v>
+        <v>1.036658825297056</v>
       </c>
       <c r="L6">
-        <v>1.023426513157406</v>
+        <v>1.028136721230956</v>
       </c>
       <c r="M6">
-        <v>0.998436575518164</v>
+        <v>1.033826532527638</v>
       </c>
       <c r="N6">
-        <v>1.012346524616069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.0138512510979</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.035343803256085</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037005415106664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005244528284256</v>
+        <v>1.010268570681451</v>
       </c>
       <c r="D7">
-        <v>1.020987595382074</v>
+        <v>1.026451338201526</v>
       </c>
       <c r="E7">
-        <v>1.012608710296758</v>
+        <v>1.017608213680389</v>
       </c>
       <c r="F7">
-        <v>0.9863717749850589</v>
+        <v>1.023377463204189</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044421134196489</v>
+        <v>1.044532844776805</v>
       </c>
       <c r="J7">
-        <v>1.024508981354814</v>
+        <v>1.029407207469595</v>
       </c>
       <c r="K7">
-        <v>1.030836230632321</v>
+        <v>1.036237767956337</v>
       </c>
       <c r="L7">
-        <v>1.022554353139955</v>
+        <v>1.027495736666435</v>
       </c>
       <c r="M7">
-        <v>0.9966344541798118</v>
+        <v>1.033198788659511</v>
       </c>
       <c r="N7">
-        <v>1.01209977480036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013678180831252</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034846982311243</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036711904448445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9997346129095396</v>
+        <v>1.005788724660661</v>
       </c>
       <c r="D8">
-        <v>1.017032735856771</v>
+        <v>1.023560100499588</v>
       </c>
       <c r="E8">
-        <v>1.007748267749529</v>
+        <v>1.013764127815984</v>
       </c>
       <c r="F8">
-        <v>0.9774130797182643</v>
+        <v>1.019606165812681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042658815835066</v>
+        <v>1.043593398878972</v>
       </c>
       <c r="J8">
-        <v>1.021350516283649</v>
+        <v>1.027230330612579</v>
       </c>
       <c r="K8">
-        <v>1.027986826685231</v>
+        <v>1.03443011890782</v>
       </c>
       <c r="L8">
-        <v>1.018824296826803</v>
+        <v>1.024760827948726</v>
       </c>
       <c r="M8">
-        <v>0.9889079541602098</v>
+        <v>1.030526950090198</v>
       </c>
       <c r="N8">
-        <v>1.01104203274367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01293657283964</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.032732381293894</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03543832038358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9895400293178539</v>
+        <v>0.9975729571192725</v>
       </c>
       <c r="D9">
-        <v>1.009732186672549</v>
+        <v>1.01827921529632</v>
       </c>
       <c r="E9">
-        <v>0.9987951723985105</v>
+        <v>1.006754385278066</v>
       </c>
       <c r="F9">
-        <v>0.9607180617379216</v>
+        <v>1.012746607458923</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039305992590494</v>
+        <v>1.041801931791557</v>
       </c>
       <c r="J9">
-        <v>1.015467641214397</v>
+        <v>1.023211712598867</v>
       </c>
       <c r="K9">
-        <v>1.022669314936262</v>
+        <v>1.031082526533151</v>
       </c>
       <c r="L9">
-        <v>1.011907827381753</v>
+        <v>1.019738819640213</v>
       </c>
       <c r="M9">
-        <v>0.9744823232726806</v>
+        <v>1.025636210410254</v>
       </c>
       <c r="N9">
-        <v>1.009071455210925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011565618705383</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.028861635697527</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033068141078851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9823784434787337</v>
+        <v>0.9919605217478996</v>
       </c>
       <c r="D10">
-        <v>1.004618209938083</v>
+        <v>1.014706615895602</v>
       </c>
       <c r="E10">
-        <v>0.9925345945553373</v>
+        <v>1.002008084202073</v>
       </c>
       <c r="F10">
-        <v>0.9488778052986568</v>
+        <v>1.008338906185191</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036890132334358</v>
+        <v>1.040561850717821</v>
       </c>
       <c r="J10">
-        <v>1.011309080477056</v>
+        <v>1.020496781423855</v>
       </c>
       <c r="K10">
-        <v>1.018904578826155</v>
+        <v>1.028815319523778</v>
       </c>
       <c r="L10">
-        <v>1.007039960234262</v>
+        <v>1.016341176475815</v>
       </c>
       <c r="M10">
-        <v>0.9642357932963405</v>
+        <v>1.022559213873746</v>
       </c>
       <c r="N10">
-        <v>1.007678376489503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010643622446685</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.026478553203015</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03148196801858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9791811725703544</v>
+        <v>0.9901682151257296</v>
       </c>
       <c r="D11">
-        <v>1.002339288236489</v>
+        <v>1.013650344140189</v>
       </c>
       <c r="E11">
-        <v>0.9897468701715738</v>
+        <v>1.000598613292536</v>
       </c>
       <c r="F11">
-        <v>0.9435570952183149</v>
+        <v>1.008865021569542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035797629142982</v>
+        <v>1.040333366284822</v>
       </c>
       <c r="J11">
-        <v>1.00944643969014</v>
+        <v>1.019955805973766</v>
       </c>
       <c r="K11">
-        <v>1.017217223435226</v>
+        <v>1.028319345876077</v>
       </c>
       <c r="L11">
-        <v>1.004864770924887</v>
+        <v>1.015509249466329</v>
       </c>
       <c r="M11">
-        <v>0.9596281675994905</v>
+        <v>1.023621670864629</v>
       </c>
       <c r="N11">
-        <v>1.007054437161118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010496559312195</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.02776105125721</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031164306390789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9779782009887181</v>
+        <v>0.9897291641492465</v>
       </c>
       <c r="D12">
-        <v>1.001482541514358</v>
+        <v>1.013425353001367</v>
       </c>
       <c r="E12">
-        <v>0.988699125151085</v>
+        <v>1.00030105312189</v>
       </c>
       <c r="F12">
-        <v>0.9415491977308548</v>
+        <v>1.009882857340622</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035384514695128</v>
+        <v>1.040356535359336</v>
       </c>
       <c r="J12">
-        <v>1.008744715594672</v>
+        <v>1.019974655933152</v>
       </c>
       <c r="K12">
-        <v>1.016581393380196</v>
+        <v>1.02829978644857</v>
       </c>
       <c r="L12">
-        <v>1.004046082626401</v>
+        <v>1.015422487701037</v>
       </c>
       <c r="M12">
-        <v>0.9578889659016305</v>
+        <v>1.024823135495998</v>
       </c>
       <c r="N12">
-        <v>1.006819385212135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01053252604401</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029041116778389</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031150477111102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9782369530150199</v>
+        <v>0.9903090109077137</v>
       </c>
       <c r="D13">
-        <v>1.001666790095915</v>
+        <v>1.013836123680351</v>
       </c>
       <c r="E13">
-        <v>0.9889244369606335</v>
+        <v>1.000844505558572</v>
       </c>
       <c r="F13">
-        <v>0.9419813681889775</v>
+        <v>1.011372243429988</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035473465678201</v>
+        <v>1.040584601122468</v>
       </c>
       <c r="J13">
-        <v>1.008895693172303</v>
+        <v>1.020435105615326</v>
       </c>
       <c r="K13">
-        <v>1.016718199718031</v>
+        <v>1.028659800339309</v>
       </c>
       <c r="L13">
-        <v>1.004222189732816</v>
+        <v>1.015911564443763</v>
       </c>
       <c r="M13">
-        <v>0.9582633207091428</v>
+        <v>1.026241451367115</v>
       </c>
       <c r="N13">
-        <v>1.00686995673013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010716124160191</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03044151377023</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031402516100005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9790820534522565</v>
+        <v>0.9911694467103361</v>
       </c>
       <c r="D14">
-        <v>1.002268681858548</v>
+        <v>1.014408103067251</v>
       </c>
       <c r="E14">
-        <v>0.9896605176933481</v>
+        <v>1.001599029801268</v>
       </c>
       <c r="F14">
-        <v>0.9433917803859052</v>
+        <v>1.012603068181621</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03576363215023</v>
+        <v>1.040834163365667</v>
       </c>
       <c r="J14">
-        <v>1.009388639373076</v>
+        <v>1.020950444296115</v>
       </c>
       <c r="K14">
-        <v>1.01716485348825</v>
+        <v>1.029079943909793</v>
       </c>
       <c r="L14">
-        <v>1.004797320394098</v>
+        <v>1.016507782998467</v>
       </c>
       <c r="M14">
-        <v>0.9594849829292744</v>
+        <v>1.02730782202787</v>
       </c>
       <c r="N14">
-        <v>1.007035075966219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010909280563917</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03145893395859</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031701005640758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9796006837102581</v>
+        <v>0.9916108507769167</v>
       </c>
       <c r="D15">
-        <v>1.002638151001227</v>
+        <v>1.014695391105294</v>
       </c>
       <c r="E15">
-        <v>0.9901123943364341</v>
+        <v>1.001976606223469</v>
       </c>
       <c r="F15">
-        <v>0.944256524095108</v>
+        <v>1.013053401930479</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035941434057723</v>
+        <v>1.040945426234149</v>
       </c>
       <c r="J15">
-        <v>1.009691036483693</v>
+        <v>1.02118361178924</v>
       </c>
       <c r="K15">
-        <v>1.017438834586944</v>
+        <v>1.029274976266163</v>
       </c>
       <c r="L15">
-        <v>1.005150237053885</v>
+        <v>1.016789621773365</v>
       </c>
       <c r="M15">
-        <v>0.960233950148393</v>
+        <v>1.027662694262952</v>
       </c>
       <c r="N15">
-        <v>1.007136369372966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010992642299657</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03177717818831</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031844800088496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9825885326300402</v>
+        <v>0.9938578566754486</v>
       </c>
       <c r="D16">
-        <v>1.00476804824199</v>
+        <v>1.016116414982227</v>
       </c>
       <c r="E16">
-        <v>0.9927179279202543</v>
+        <v>1.003860753984989</v>
       </c>
       <c r="F16">
-        <v>0.9492266384512369</v>
+        <v>1.014673380742902</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036961632162081</v>
+        <v>1.041432435635539</v>
       </c>
       <c r="J16">
-        <v>1.011431346802957</v>
+        <v>1.022239731533519</v>
       </c>
       <c r="K16">
-        <v>1.01901531812526</v>
+        <v>1.030164812742953</v>
       </c>
       <c r="L16">
-        <v>1.007182850591303</v>
+        <v>1.018124175544616</v>
       </c>
       <c r="M16">
-        <v>0.9645378164201807</v>
+        <v>1.028746747211769</v>
       </c>
       <c r="N16">
-        <v>1.007719333675064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011346351240168</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032595060633197</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032477134821476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9844363483832252</v>
+        <v>0.9951393356598581</v>
       </c>
       <c r="D17">
-        <v>1.006086419477019</v>
+        <v>1.016913884388133</v>
       </c>
       <c r="E17">
-        <v>0.994331249865835</v>
+        <v>1.004920101430774</v>
       </c>
       <c r="F17">
-        <v>0.9522907373449054</v>
+        <v>1.015276547332643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037588919684569</v>
+        <v>1.041676392096237</v>
       </c>
       <c r="J17">
-        <v>1.012506038395202</v>
+        <v>1.022785592058025</v>
       </c>
       <c r="K17">
-        <v>1.019988566719977</v>
+        <v>1.030631711748225</v>
       </c>
       <c r="L17">
-        <v>1.008439408260501</v>
+        <v>1.01884240991736</v>
       </c>
       <c r="M17">
-        <v>0.9671903990427458</v>
+        <v>1.029021922232237</v>
       </c>
       <c r="N17">
-        <v>1.008079341156713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011518274199003</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.032682702338212</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032809854287485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9855049255060175</v>
+        <v>0.9956771956290151</v>
       </c>
       <c r="D18">
-        <v>1.006849216483864</v>
+        <v>1.017218539660306</v>
       </c>
       <c r="E18">
-        <v>0.9952649094566476</v>
+        <v>1.00533192168709</v>
       </c>
       <c r="F18">
-        <v>0.9540594530260108</v>
+        <v>1.014895862777323</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037950351299933</v>
+        <v>1.041716194158082</v>
       </c>
       <c r="J18">
-        <v>1.013126949475886</v>
+        <v>1.022904513939305</v>
       </c>
       <c r="K18">
-        <v>1.020550761651614</v>
+        <v>1.030746533319778</v>
       </c>
       <c r="L18">
-        <v>1.009165880378438</v>
+        <v>1.019059249566211</v>
       </c>
       <c r="M18">
-        <v>0.9687212752888646</v>
+        <v>1.028462334205193</v>
       </c>
       <c r="N18">
-        <v>1.008287340500214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011535582079803</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032000823048677</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032879347786904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1334,105 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9858677444969565</v>
+        <v>0.9955280583044576</v>
       </c>
       <c r="D19">
-        <v>1.007108277349836</v>
+        <v>1.017077904108919</v>
       </c>
       <c r="E19">
-        <v>0.9955820348924246</v>
+        <v>1.005143348510866</v>
       </c>
       <c r="F19">
-        <v>0.9546594674698864</v>
+        <v>1.013524343189949</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038072844281993</v>
+        <v>1.041571918048579</v>
       </c>
       <c r="J19">
-        <v>1.013337672702345</v>
+        <v>1.022625459145345</v>
       </c>
       <c r="K19">
-        <v>1.020741539134792</v>
+        <v>1.030545222461031</v>
       </c>
       <c r="L19">
-        <v>1.009412510909555</v>
+        <v>1.018809817513839</v>
       </c>
       <c r="M19">
-        <v>0.9692405537074695</v>
+        <v>1.027050328133775</v>
       </c>
       <c r="N19">
-        <v>1.008357931058693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01141267981126</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.030555713255638</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032743438788581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9842390554365116</v>
+        <v>0.9934396336590108</v>
       </c>
       <c r="D20">
-        <v>1.005945614510285</v>
+        <v>1.015663914626255</v>
       </c>
       <c r="E20">
-        <v>0.9941589223229653</v>
+        <v>1.003260499568871</v>
       </c>
       <c r="F20">
-        <v>0.9519639210253799</v>
+        <v>1.009500752444849</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037522080760904</v>
+        <v>1.040903720012936</v>
       </c>
       <c r="J20">
-        <v>1.012391352191135</v>
+        <v>1.021225809987292</v>
       </c>
       <c r="K20">
-        <v>1.019884716959175</v>
+        <v>1.029436813584155</v>
       </c>
       <c r="L20">
-        <v>1.008305263558707</v>
+        <v>1.017246258290296</v>
       </c>
       <c r="M20">
-        <v>0.9669075053538995</v>
+        <v>1.023378574746955</v>
       </c>
       <c r="N20">
-        <v>1.008040922520847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010893922314747</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.027116296791514</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031963685223273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9788336241607075</v>
+        <v>0.9890941571040421</v>
       </c>
       <c r="D21">
-        <v>1.002091727517046</v>
+        <v>1.012888946097494</v>
       </c>
       <c r="E21">
-        <v>0.9894441047502036</v>
+        <v>0.9995769343241865</v>
       </c>
       <c r="F21">
-        <v>0.9429773409234206</v>
+        <v>1.005722365474069</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035678390004729</v>
+        <v>1.039894897314724</v>
       </c>
       <c r="J21">
-        <v>1.009243755743053</v>
+        <v>1.019055031189275</v>
       </c>
       <c r="K21">
-        <v>1.017033579546483</v>
+        <v>1.02763017971759</v>
       </c>
       <c r="L21">
-        <v>1.004628259972501</v>
+        <v>1.014566326249856</v>
       </c>
       <c r="M21">
-        <v>0.9591260168620859</v>
+        <v>1.020596130867962</v>
       </c>
       <c r="N21">
-        <v>1.006986544893788</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010149844791629</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.024872673291843</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030689557168913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.975345624690744</v>
+        <v>0.9863425073611143</v>
       </c>
       <c r="D22">
-        <v>0.9996089975286734</v>
+        <v>1.011135251344269</v>
       </c>
       <c r="E22">
-        <v>0.9864083779555335</v>
+        <v>0.9972560537965452</v>
       </c>
       <c r="F22">
-        <v>0.9371431822250731</v>
+        <v>1.003463115290522</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034476704776356</v>
+        <v>1.039254330762994</v>
       </c>
       <c r="J22">
-        <v>1.007207401426262</v>
+        <v>1.017694069814046</v>
       </c>
       <c r="K22">
-        <v>1.015188204235834</v>
+        <v>1.026489297838719</v>
       </c>
       <c r="L22">
-        <v>1.002253983094238</v>
+        <v>1.012882065485447</v>
       </c>
       <c r="M22">
-        <v>0.9540718910694942</v>
+        <v>1.018966277957886</v>
       </c>
       <c r="N22">
-        <v>1.006304461789126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009684263991416</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.023582723983859</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029869313221615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9772034744998981</v>
+        <v>0.9877978337472477</v>
       </c>
       <c r="D23">
-        <v>1.00093099217312</v>
+        <v>1.01205606464855</v>
       </c>
       <c r="E23">
-        <v>0.9880246910222491</v>
+        <v>0.9984816697689324</v>
       </c>
       <c r="F23">
-        <v>0.9402542995998825</v>
+        <v>1.004660506064887</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035117888273069</v>
+        <v>1.039589822842945</v>
       </c>
       <c r="J23">
-        <v>1.008292542709711</v>
+        <v>1.018410130427555</v>
       </c>
       <c r="K23">
-        <v>1.016171644010294</v>
+        <v>1.027085043249544</v>
       </c>
       <c r="L23">
-        <v>1.003518763411323</v>
+        <v>1.013769754751576</v>
       </c>
       <c r="M23">
-        <v>0.9567672448263991</v>
+        <v>1.01982951405423</v>
       </c>
       <c r="N23">
-        <v>1.006667926773753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009928287242759</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.024265933674619</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030280845695765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9843282320611159</v>
+        <v>0.9934303215587553</v>
       </c>
       <c r="D24">
-        <v>1.006009257291769</v>
+        <v>1.015641315060866</v>
       </c>
       <c r="E24">
-        <v>0.9942368124261077</v>
+        <v>1.003241191260368</v>
       </c>
       <c r="F24">
-        <v>0.9521116523090665</v>
+        <v>1.009306299276495</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037552296134734</v>
+        <v>1.040878785721081</v>
       </c>
       <c r="J24">
-        <v>1.012443192261192</v>
+        <v>1.021183632516965</v>
       </c>
       <c r="K24">
-        <v>1.019931659109701</v>
+        <v>1.029399208793303</v>
       </c>
       <c r="L24">
-        <v>1.008365897684177</v>
+        <v>1.017211626029947</v>
       </c>
       <c r="M24">
-        <v>0.967035383147861</v>
+        <v>1.023171933393449</v>
       </c>
       <c r="N24">
-        <v>1.008058288375765</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010874967699151</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.026911290731664</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031909547029406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9922369108684302</v>
+        <v>0.9997494700213504</v>
       </c>
       <c r="D25">
-        <v>1.011661205060754</v>
+        <v>1.019684961320713</v>
       </c>
       <c r="E25">
-        <v>1.001158803858461</v>
+        <v>1.008608293609552</v>
       </c>
       <c r="F25">
-        <v>0.9651514485407222</v>
+        <v>1.014551980822558</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040203497158734</v>
+        <v>1.042290632342471</v>
       </c>
       <c r="J25">
-        <v>1.017028388426655</v>
+        <v>1.024285268442092</v>
       </c>
       <c r="K25">
-        <v>1.0240811532823</v>
+        <v>1.031985190165345</v>
       </c>
       <c r="L25">
-        <v>1.013739157484717</v>
+        <v>1.021074430661039</v>
       </c>
       <c r="M25">
-        <v>0.9783159578855494</v>
+        <v>1.026928519250806</v>
       </c>
       <c r="N25">
-        <v>1.009594287822452</v>
+        <v>1.011933387246065</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.029884427612991</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033735110458761</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004603376487242</v>
+        <v>1.004587615428484</v>
       </c>
       <c r="D2">
-        <v>1.022788141452629</v>
+        <v>1.02241504096782</v>
       </c>
       <c r="E2">
-        <v>1.012748146552969</v>
+        <v>1.012732489653846</v>
       </c>
       <c r="F2">
-        <v>1.018616463782961</v>
+        <v>1.018609636082973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043334644068775</v>
+        <v>1.043218855974256</v>
       </c>
       <c r="J2">
-        <v>1.026647267754299</v>
+        <v>1.026631972201747</v>
       </c>
       <c r="K2">
-        <v>1.033938874006646</v>
+        <v>1.033570687203451</v>
       </c>
       <c r="L2">
-        <v>1.024032691058233</v>
+        <v>1.024017245437495</v>
       </c>
       <c r="M2">
-        <v>1.029822393913089</v>
+        <v>1.029815657019028</v>
       </c>
       <c r="N2">
-        <v>1.012736728702341</v>
+        <v>1.014224644501688</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.032174766001583</v>
+        <v>1.032169434139079</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035067956730724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03481642922514</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021013667109864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008053462291496</v>
+        <v>1.007922065818444</v>
       </c>
       <c r="D3">
-        <v>1.025012309758003</v>
+        <v>1.024485106033327</v>
       </c>
       <c r="E3">
-        <v>1.015703981927196</v>
+        <v>1.015573308701821</v>
       </c>
       <c r="F3">
-        <v>1.021514274806323</v>
+        <v>1.021457431241658</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044066376473405</v>
+        <v>1.043874687757974</v>
       </c>
       <c r="J3">
-        <v>1.028326963766976</v>
+        <v>1.028199072604222</v>
       </c>
       <c r="K3">
-        <v>1.035334851520421</v>
+        <v>1.034813994942302</v>
       </c>
       <c r="L3">
-        <v>1.026139794351875</v>
+        <v>1.026010729642961</v>
       </c>
       <c r="M3">
-        <v>1.031879082482968</v>
+        <v>1.031822928714683</v>
       </c>
       <c r="N3">
-        <v>1.013309223156883</v>
+        <v>1.014648848407978</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.033802514306128</v>
+        <v>1.033758071944087</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036052365112987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035692609676644</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021248683854075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01024731361008</v>
+        <v>1.010043210790346</v>
       </c>
       <c r="D4">
-        <v>1.026430537776787</v>
+        <v>1.025805876095435</v>
       </c>
       <c r="E4">
-        <v>1.017588713038927</v>
+        <v>1.017385595550151</v>
       </c>
       <c r="F4">
-        <v>1.023363236395282</v>
+        <v>1.023275015804518</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044523773566458</v>
+        <v>1.044284066062401</v>
       </c>
       <c r="J4">
-        <v>1.029392475343849</v>
+        <v>1.029193453100802</v>
       </c>
       <c r="K4">
-        <v>1.036220100804311</v>
+        <v>1.03560251234352</v>
       </c>
       <c r="L4">
-        <v>1.027479393145052</v>
+        <v>1.027278624065504</v>
       </c>
       <c r="M4">
-        <v>1.033187633594978</v>
+        <v>1.033100418702821</v>
       </c>
       <c r="N4">
-        <v>1.013672312133368</v>
+        <v>1.014918012726651</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034838153755577</v>
+        <v>1.034769128464814</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036679217282371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036251145729394</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021395311377387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01116336467046</v>
+        <v>1.010929079534282</v>
       </c>
       <c r="D5">
-        <v>1.027025785478271</v>
+        <v>1.026360587963909</v>
       </c>
       <c r="E5">
-        <v>1.018377278354783</v>
+        <v>1.018144059639946</v>
       </c>
       <c r="F5">
-        <v>1.024135639373285</v>
+        <v>1.024034409476021</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04471425670637</v>
+        <v>1.044454558742778</v>
       </c>
       <c r="J5">
-        <v>1.029838086636418</v>
+        <v>1.029609461003174</v>
       </c>
       <c r="K5">
-        <v>1.036591912153122</v>
+        <v>1.035934048988542</v>
       </c>
       <c r="L5">
-        <v>1.028039682439814</v>
+        <v>1.027809087869775</v>
       </c>
       <c r="M5">
-        <v>1.033733717418042</v>
+        <v>1.033633610665772</v>
       </c>
       <c r="N5">
-        <v>1.013824395112852</v>
+        <v>1.015030816293616</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035270345785647</v>
+        <v>1.035191117418397</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0369493212801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036493482692644</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021456827234597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011319992893169</v>
+        <v>1.011080542512728</v>
       </c>
       <c r="D6">
-        <v>1.027130228199888</v>
+        <v>1.026458147048417</v>
       </c>
       <c r="E6">
-        <v>1.01851262951618</v>
+        <v>1.018274258081221</v>
       </c>
       <c r="F6">
-        <v>1.024266419700144</v>
+        <v>1.024162964261796</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044748442522986</v>
+        <v>1.044485332188558</v>
       </c>
       <c r="J6">
-        <v>1.029915875504501</v>
+        <v>1.029682179975443</v>
       </c>
       <c r="K6">
-        <v>1.036658825297056</v>
+        <v>1.035994120885014</v>
       </c>
       <c r="L6">
-        <v>1.028136721230956</v>
+        <v>1.027901019552341</v>
       </c>
       <c r="M6">
-        <v>1.033826532527638</v>
+        <v>1.033724219653337</v>
       </c>
       <c r="N6">
-        <v>1.0138512510979</v>
+        <v>1.015050776876518</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035343803256085</v>
+        <v>1.035262828886588</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037005415106664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036545607672785</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021468492184994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010268570681451</v>
+        <v>1.010070702180012</v>
       </c>
       <c r="D7">
-        <v>1.026451338201526</v>
+        <v>1.025830862764499</v>
       </c>
       <c r="E7">
-        <v>1.017608213680389</v>
+        <v>1.01741129961625</v>
       </c>
       <c r="F7">
-        <v>1.023377463204189</v>
+        <v>1.023291937728826</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044532844776805</v>
+        <v>1.044296014199029</v>
       </c>
       <c r="J7">
-        <v>1.029407207469595</v>
+        <v>1.029214262240259</v>
       </c>
       <c r="K7">
-        <v>1.036237767956337</v>
+        <v>1.035624315606476</v>
       </c>
       <c r="L7">
-        <v>1.027495736666435</v>
+        <v>1.027301098401988</v>
       </c>
       <c r="M7">
-        <v>1.033198788659511</v>
+        <v>1.033114237796664</v>
       </c>
       <c r="N7">
-        <v>1.013678180831252</v>
+        <v>1.014950159271413</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034846982311243</v>
+        <v>1.034780065438837</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036711904448445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036288755644536</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021401427008309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005788724660661</v>
+        <v>1.005754514753595</v>
       </c>
       <c r="D8">
-        <v>1.023560100499588</v>
+        <v>1.023149596222636</v>
       </c>
       <c r="E8">
-        <v>1.013764127815984</v>
+        <v>1.013730130924987</v>
       </c>
       <c r="F8">
-        <v>1.019606165812681</v>
+        <v>1.019591352923348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043593398878972</v>
+        <v>1.043461798293633</v>
       </c>
       <c r="J8">
-        <v>1.027230330612579</v>
+        <v>1.027197097539327</v>
       </c>
       <c r="K8">
-        <v>1.03443011890782</v>
+        <v>1.034024862418346</v>
       </c>
       <c r="L8">
-        <v>1.024760827948726</v>
+        <v>1.024727276047433</v>
       </c>
       <c r="M8">
-        <v>1.030526950090198</v>
+        <v>1.03051232831446</v>
       </c>
       <c r="N8">
-        <v>1.01293657283964</v>
+        <v>1.014457065192221</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.032732381293894</v>
+        <v>1.032720809012169</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03543832038358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035162847179578</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021103601996707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9975729571192725</v>
+        <v>0.9978226124699437</v>
       </c>
       <c r="D9">
-        <v>1.01827921529632</v>
+        <v>1.018241251728728</v>
       </c>
       <c r="E9">
-        <v>1.006754385278066</v>
+        <v>1.007001792196506</v>
       </c>
       <c r="F9">
-        <v>1.012746607458923</v>
+        <v>1.012855057697341</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041801931791557</v>
+        <v>1.041854161236526</v>
       </c>
       <c r="J9">
-        <v>1.023211712598867</v>
+        <v>1.023452494898432</v>
       </c>
       <c r="K9">
-        <v>1.031082526533151</v>
+        <v>1.031045150999176</v>
       </c>
       <c r="L9">
-        <v>1.019738819640213</v>
+        <v>1.019982282533099</v>
       </c>
       <c r="M9">
-        <v>1.025636210410254</v>
+        <v>1.025742957568607</v>
       </c>
       <c r="N9">
-        <v>1.011565618705383</v>
+        <v>1.013452203408298</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.028861635697527</v>
+        <v>1.028946120304611</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033068141078851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033052508087076</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020525430755819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9919605217478996</v>
+        <v>0.9924382656298578</v>
       </c>
       <c r="D10">
-        <v>1.014706615895602</v>
+        <v>1.014946371938672</v>
       </c>
       <c r="E10">
-        <v>1.002008084202073</v>
+        <v>1.00248053288857</v>
       </c>
       <c r="F10">
-        <v>1.008338906185191</v>
+        <v>1.008546689522454</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040561850717821</v>
+        <v>1.040754578804538</v>
       </c>
       <c r="J10">
-        <v>1.020496781423855</v>
+        <v>1.020955145062896</v>
       </c>
       <c r="K10">
-        <v>1.028815319523778</v>
+        <v>1.029050908876403</v>
       </c>
       <c r="L10">
-        <v>1.016341176475815</v>
+        <v>1.016805144516029</v>
       </c>
       <c r="M10">
-        <v>1.022559213873746</v>
+        <v>1.022763326639575</v>
       </c>
       <c r="N10">
-        <v>1.010643622446685</v>
+        <v>1.012896093875957</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.026478553203015</v>
+        <v>1.026640087608987</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03148196801858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03166101849918</v>
+      </c>
+      <c r="S10">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T10">
+        <v>1.020134303261006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9901682151257296</v>
+        <v>0.9907498281597209</v>
       </c>
       <c r="D11">
-        <v>1.013650344140189</v>
+        <v>1.013993003720463</v>
       </c>
       <c r="E11">
-        <v>1.000598613292536</v>
+        <v>1.001173243144156</v>
       </c>
       <c r="F11">
-        <v>1.008865021569542</v>
+        <v>1.009116106130313</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040333366284822</v>
+        <v>1.040581846098942</v>
       </c>
       <c r="J11">
-        <v>1.019955805973766</v>
+        <v>1.020512553377684</v>
       </c>
       <c r="K11">
-        <v>1.028319345876077</v>
+        <v>1.028655770631045</v>
       </c>
       <c r="L11">
-        <v>1.015509249466329</v>
+        <v>1.016073067683386</v>
       </c>
       <c r="M11">
-        <v>1.023621670864629</v>
+        <v>1.023868129656117</v>
       </c>
       <c r="N11">
-        <v>1.010496559312195</v>
+        <v>1.013032026703942</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.02776105125721</v>
+        <v>1.027955997365662</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031164306390789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031417862737499</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020100638781728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9897291641492465</v>
+        <v>0.9903362884296951</v>
       </c>
       <c r="D12">
-        <v>1.013425353001367</v>
+        <v>1.013788977812086</v>
       </c>
       <c r="E12">
-        <v>1.00030105312189</v>
+        <v>1.000900682319796</v>
       </c>
       <c r="F12">
-        <v>1.009882857340622</v>
+        <v>1.010143517765611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040356535359336</v>
+        <v>1.040616441475118</v>
       </c>
       <c r="J12">
-        <v>1.019974655933152</v>
+        <v>1.020555340601576</v>
       </c>
       <c r="K12">
-        <v>1.02829978644857</v>
+        <v>1.028656686476742</v>
       </c>
       <c r="L12">
-        <v>1.015422487701037</v>
+        <v>1.016010646997485</v>
       </c>
       <c r="M12">
-        <v>1.024823135495998</v>
+        <v>1.025078930459164</v>
       </c>
       <c r="N12">
-        <v>1.01053252604401</v>
+        <v>1.013166449884629</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029041116778389</v>
+        <v>1.029243377780088</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031150477111102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031418510262107</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02013144148742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9903090109077137</v>
+        <v>0.9908730225652315</v>
       </c>
       <c r="D13">
-        <v>1.013836123680351</v>
+        <v>1.014151807872407</v>
       </c>
       <c r="E13">
-        <v>1.000844505558572</v>
+        <v>1.001401609524817</v>
       </c>
       <c r="F13">
-        <v>1.011372243429988</v>
+        <v>1.011613322766878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040584601122468</v>
+        <v>1.040817933593833</v>
       </c>
       <c r="J13">
-        <v>1.020435105615326</v>
+        <v>1.020974684634162</v>
       </c>
       <c r="K13">
-        <v>1.028659800339309</v>
+        <v>1.02896967167743</v>
       </c>
       <c r="L13">
-        <v>1.015911564443763</v>
+        <v>1.016458062244376</v>
       </c>
       <c r="M13">
-        <v>1.026241451367115</v>
+        <v>1.026478062914031</v>
       </c>
       <c r="N13">
-        <v>1.010716124160191</v>
+        <v>1.013276146652919</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03044151377023</v>
+        <v>1.030628558455323</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031402516100005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031637051131751</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020217293542987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9911694467103361</v>
+        <v>0.9916733615401995</v>
       </c>
       <c r="D14">
-        <v>1.014408103067251</v>
+        <v>1.014660211289518</v>
       </c>
       <c r="E14">
-        <v>1.001599029801268</v>
+        <v>1.002096906566095</v>
       </c>
       <c r="F14">
-        <v>1.012603068181621</v>
+        <v>1.012817914339617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040834163365667</v>
+        <v>1.04103243811979</v>
       </c>
       <c r="J14">
-        <v>1.020950444296115</v>
+        <v>1.021432844126408</v>
       </c>
       <c r="K14">
-        <v>1.029079943909793</v>
+        <v>1.029327467317226</v>
       </c>
       <c r="L14">
-        <v>1.016507782998467</v>
+        <v>1.016996303453053</v>
       </c>
       <c r="M14">
-        <v>1.02730782202787</v>
+        <v>1.027518742674225</v>
       </c>
       <c r="N14">
-        <v>1.010909280563917</v>
+        <v>1.013341372047506</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03145893395859</v>
+        <v>1.031625646930969</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031701005640758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031891591224783</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020301752633482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9916108507769167</v>
+        <v>0.9920855442237192</v>
       </c>
       <c r="D15">
-        <v>1.014695391105294</v>
+        <v>1.014917026983051</v>
       </c>
       <c r="E15">
-        <v>1.001976606223469</v>
+        <v>1.002445686548926</v>
       </c>
       <c r="F15">
-        <v>1.013053401930479</v>
+        <v>1.013255681608284</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040945426234149</v>
+        <v>1.041127034473194</v>
       </c>
       <c r="J15">
-        <v>1.02118361178924</v>
+        <v>1.021638214305252</v>
       </c>
       <c r="K15">
-        <v>1.029274976266163</v>
+        <v>1.0294926118385</v>
       </c>
       <c r="L15">
-        <v>1.016789621773365</v>
+        <v>1.017249955705479</v>
       </c>
       <c r="M15">
-        <v>1.027662694262952</v>
+        <v>1.0278613074963</v>
       </c>
       <c r="N15">
-        <v>1.010992642299657</v>
+        <v>1.013358023333943</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03177717818831</v>
+        <v>1.031934159153745</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031844800088496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032014821874384</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02033725236457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9938578566754486</v>
+        <v>0.9941989753378788</v>
       </c>
       <c r="D16">
-        <v>1.016116414982227</v>
+        <v>1.016197537015253</v>
       </c>
       <c r="E16">
-        <v>1.003860753984989</v>
+        <v>1.004198140500309</v>
       </c>
       <c r="F16">
-        <v>1.014673380742902</v>
+        <v>1.014818777314744</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041432435635539</v>
+        <v>1.04153868346423</v>
       </c>
       <c r="J16">
-        <v>1.022239731533519</v>
+        <v>1.022567128584658</v>
       </c>
       <c r="K16">
-        <v>1.030164812742953</v>
+        <v>1.030244533850861</v>
       </c>
       <c r="L16">
-        <v>1.018124175544616</v>
+        <v>1.01845555147179</v>
       </c>
       <c r="M16">
-        <v>1.028746747211769</v>
+        <v>1.028889623835605</v>
       </c>
       <c r="N16">
-        <v>1.011346351240168</v>
+        <v>1.013398392415378</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032595060633197</v>
+        <v>1.032707991454104</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032477134821476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032549943711378</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02047995983699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9951393356598581</v>
+        <v>0.9954167672456095</v>
       </c>
       <c r="D17">
-        <v>1.016913884388133</v>
+        <v>1.016925483226373</v>
       </c>
       <c r="E17">
-        <v>1.004920101430774</v>
+        <v>1.005194645762513</v>
       </c>
       <c r="F17">
-        <v>1.015276547332643</v>
+        <v>1.015394976727716</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041676392096237</v>
+        <v>1.041746401020306</v>
       </c>
       <c r="J17">
-        <v>1.022785592058025</v>
+        <v>1.023052218860452</v>
       </c>
       <c r="K17">
-        <v>1.030631711748225</v>
+        <v>1.030643115848623</v>
       </c>
       <c r="L17">
-        <v>1.01884240991736</v>
+        <v>1.019112202965276</v>
       </c>
       <c r="M17">
-        <v>1.029021922232237</v>
+        <v>1.02913835525575</v>
       </c>
       <c r="N17">
-        <v>1.011518274199003</v>
+        <v>1.013425387559411</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.032682702338212</v>
+        <v>1.032774741173173</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032809854287485</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032834607281155</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020547044273995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9956771956290151</v>
+        <v>0.995936813467611</v>
       </c>
       <c r="D18">
-        <v>1.017218539660306</v>
+        <v>1.01721026633276</v>
       </c>
       <c r="E18">
-        <v>1.00533192168709</v>
+        <v>1.005588914841132</v>
       </c>
       <c r="F18">
-        <v>1.014895862777323</v>
+        <v>1.015007048366367</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041716194158082</v>
+        <v>1.041776671169723</v>
       </c>
       <c r="J18">
-        <v>1.022904513939305</v>
+        <v>1.02315420683121</v>
       </c>
       <c r="K18">
-        <v>1.030746533319778</v>
+        <v>1.030738396647961</v>
       </c>
       <c r="L18">
-        <v>1.019059249566211</v>
+        <v>1.019311868683503</v>
       </c>
       <c r="M18">
-        <v>1.028462334205193</v>
+        <v>1.028571672711621</v>
       </c>
       <c r="N18">
-        <v>1.011535582079803</v>
+        <v>1.013395126155848</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032000823048677</v>
+        <v>1.032087272000238</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032879347786904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032889150852285</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020545128563663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9955280583044576</v>
+        <v>0.9958063136537081</v>
       </c>
       <c r="D19">
-        <v>1.017077904108919</v>
+        <v>1.017091742653057</v>
       </c>
       <c r="E19">
-        <v>1.005143348510866</v>
+        <v>1.005418814786752</v>
       </c>
       <c r="F19">
-        <v>1.013524343189949</v>
+        <v>1.013644121137215</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041571918048579</v>
+        <v>1.041644770967709</v>
       </c>
       <c r="J19">
-        <v>1.022625459145345</v>
+        <v>1.022893135148648</v>
       </c>
       <c r="K19">
-        <v>1.030545222461031</v>
+        <v>1.030558833571919</v>
       </c>
       <c r="L19">
-        <v>1.018809817513839</v>
+        <v>1.01908061832556</v>
       </c>
       <c r="M19">
-        <v>1.027050328133775</v>
+        <v>1.027168120014264</v>
       </c>
       <c r="N19">
-        <v>1.01141267981126</v>
+        <v>1.013292662837428</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.030555713255638</v>
+        <v>1.030648876886139</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032743438788581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032769243818517</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020482269918248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934396336590108</v>
+        <v>0.9938369152709328</v>
       </c>
       <c r="D20">
-        <v>1.015663914626255</v>
+        <v>1.015815956878563</v>
       </c>
       <c r="E20">
-        <v>1.003260499568871</v>
+        <v>1.003653596362467</v>
       </c>
       <c r="F20">
-        <v>1.009500752444849</v>
+        <v>1.009673479493799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040903720012936</v>
+        <v>1.041049650666506</v>
       </c>
       <c r="J20">
-        <v>1.021225809987292</v>
+        <v>1.021607498320513</v>
       </c>
       <c r="K20">
-        <v>1.029436813584155</v>
+        <v>1.029586288188362</v>
       </c>
       <c r="L20">
-        <v>1.017246258290296</v>
+        <v>1.017632504479981</v>
       </c>
       <c r="M20">
-        <v>1.023378574746955</v>
+        <v>1.023548338695714</v>
       </c>
       <c r="N20">
-        <v>1.010893922314747</v>
+        <v>1.012975624005587</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027116296791514</v>
+        <v>1.027250649267466</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031963685223273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032085944763262</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020242389201669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9890941571040421</v>
+        <v>0.9897697090081293</v>
       </c>
       <c r="D21">
-        <v>1.012888946097494</v>
+        <v>1.013331553884763</v>
       </c>
       <c r="E21">
-        <v>0.9995769343241865</v>
+        <v>1.000244276945815</v>
       </c>
       <c r="F21">
-        <v>1.005722365474069</v>
+        <v>1.006016798067957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039894897314724</v>
+        <v>1.040199227375001</v>
       </c>
       <c r="J21">
-        <v>1.019055031189275</v>
+        <v>1.019701470152526</v>
       </c>
       <c r="K21">
-        <v>1.02763017971759</v>
+        <v>1.02806468237675</v>
       </c>
       <c r="L21">
-        <v>1.014566326249856</v>
+        <v>1.015221022903226</v>
       </c>
       <c r="M21">
-        <v>1.020596130867962</v>
+        <v>1.02088506997511</v>
       </c>
       <c r="N21">
-        <v>1.010149844791629</v>
+        <v>1.01287458184374</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.024872673291843</v>
+        <v>1.025101354286667</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030689557168913</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031013674351213</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019939040278833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9863425073611143</v>
+        <v>0.9871941511476197</v>
       </c>
       <c r="D22">
-        <v>1.011135251344269</v>
+        <v>1.011761484581863</v>
       </c>
       <c r="E22">
-        <v>0.9972560537965452</v>
+        <v>0.9980964360068735</v>
       </c>
       <c r="F22">
-        <v>1.003463115290522</v>
+        <v>1.003834688841079</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039254330762994</v>
+        <v>1.039658854510672</v>
       </c>
       <c r="J22">
-        <v>1.017694069814046</v>
+        <v>1.018506880349298</v>
       </c>
       <c r="K22">
-        <v>1.026489297838719</v>
+        <v>1.027103490270975</v>
       </c>
       <c r="L22">
-        <v>1.012882065485447</v>
+        <v>1.01370569742636</v>
       </c>
       <c r="M22">
-        <v>1.018966277957886</v>
+        <v>1.019330560644194</v>
       </c>
       <c r="N22">
-        <v>1.009684263991416</v>
+        <v>1.012808350657967</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.023582723983859</v>
+        <v>1.02387103622542</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029869313221615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030319183039509</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019746281693395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9877978337472477</v>
+        <v>0.9885446750227069</v>
       </c>
       <c r="D23">
-        <v>1.01205606464855</v>
+        <v>1.012576476495739</v>
       </c>
       <c r="E23">
-        <v>0.9984816697689324</v>
+        <v>0.999219062961395</v>
       </c>
       <c r="F23">
-        <v>1.004660506064887</v>
+        <v>1.004986170848097</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039589822842945</v>
+        <v>1.039935636214292</v>
       </c>
       <c r="J23">
-        <v>1.018410130427555</v>
+        <v>1.019123913328831</v>
       </c>
       <c r="K23">
-        <v>1.027085043249544</v>
+        <v>1.027595702052748</v>
       </c>
       <c r="L23">
-        <v>1.013769754751576</v>
+        <v>1.014492835649211</v>
       </c>
       <c r="M23">
-        <v>1.01982951405423</v>
+        <v>1.020148955856904</v>
       </c>
       <c r="N23">
-        <v>1.009928287242759</v>
+        <v>1.012798752210806</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024265933674619</v>
+        <v>1.024518756263516</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030280845695765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030656569875427</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019843002318698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9934303215587553</v>
+        <v>0.9938293268684749</v>
       </c>
       <c r="D24">
-        <v>1.015641315060866</v>
+        <v>1.015795444777463</v>
       </c>
       <c r="E24">
-        <v>1.003241191260368</v>
+        <v>1.003636002612241</v>
       </c>
       <c r="F24">
-        <v>1.009306299276495</v>
+        <v>1.009479908509291</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040878785721081</v>
+        <v>1.041025952030771</v>
       </c>
       <c r="J24">
-        <v>1.021183632516965</v>
+        <v>1.021566998552136</v>
       </c>
       <c r="K24">
-        <v>1.029399208793303</v>
+        <v>1.029550738807777</v>
       </c>
       <c r="L24">
-        <v>1.017211626029947</v>
+        <v>1.017599565433752</v>
       </c>
       <c r="M24">
-        <v>1.023171933393449</v>
+        <v>1.023342566743977</v>
       </c>
       <c r="N24">
-        <v>1.010874967699151</v>
+        <v>1.012957288807032</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.026911290731664</v>
+        <v>1.027046338185067</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031909547029406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03203058992411</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020229438274234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9997494700213504</v>
+        <v>0.9999143149328951</v>
       </c>
       <c r="D25">
-        <v>1.019684961320713</v>
+        <v>1.019541625416972</v>
       </c>
       <c r="E25">
-        <v>1.008608293609552</v>
+        <v>1.008771778782946</v>
       </c>
       <c r="F25">
-        <v>1.014551980822558</v>
+        <v>1.014623528786821</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042290632342471</v>
+        <v>1.042289726889893</v>
       </c>
       <c r="J25">
-        <v>1.024285268442092</v>
+        <v>1.02444456306638</v>
       </c>
       <c r="K25">
-        <v>1.031985190165345</v>
+        <v>1.031843971918418</v>
       </c>
       <c r="L25">
-        <v>1.021074430661039</v>
+        <v>1.021235433367029</v>
       </c>
       <c r="M25">
-        <v>1.026928519250806</v>
+        <v>1.026998996794796</v>
       </c>
       <c r="N25">
-        <v>1.011933387246065</v>
+        <v>1.013689171269255</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.029884427612991</v>
+        <v>1.029940206699084</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033735110458761</v>
+        <v>1.033648854922197</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020684159969573</v>
       </c>
     </row>
   </sheetData>
